--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,9 @@
     <t>['45+3', '70']</t>
   </si>
   <si>
+    <t>['36', '90+5']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -362,6 +365,9 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['57', '74', '89']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +988,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1394,7 +1400,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1600,7 +1606,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1681,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1806,7 +1812,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2012,7 +2018,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2296,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2424,7 +2430,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3042,7 +3048,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3248,7 +3254,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3660,7 +3666,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3866,7 +3872,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4072,7 +4078,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4484,7 +4490,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4565,7 +4571,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>2.02</v>
@@ -4690,7 +4696,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4847,6 +4853,212 @@
       </c>
       <c r="BP20">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7785193</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45767.39583333334</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21">
+        <v>2.25</v>
+      </c>
+      <c r="R21">
+        <v>2.25</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>1.36</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>2.75</v>
+      </c>
+      <c r="W21">
+        <v>1.4</v>
+      </c>
+      <c r="X21">
+        <v>7</v>
+      </c>
+      <c r="Y21">
+        <v>1.1</v>
+      </c>
+      <c r="Z21">
+        <v>1.64</v>
+      </c>
+      <c r="AA21">
+        <v>3.92</v>
+      </c>
+      <c r="AB21">
+        <v>4.9</v>
+      </c>
+      <c r="AC21">
+        <v>1.05</v>
+      </c>
+      <c r="AD21">
+        <v>9.5</v>
+      </c>
+      <c r="AE21">
+        <v>1.25</v>
+      </c>
+      <c r="AF21">
+        <v>3.8</v>
+      </c>
+      <c r="AG21">
+        <v>1.79</v>
+      </c>
+      <c r="AH21">
+        <v>1.95</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1.95</v>
+      </c>
+      <c r="AK21">
+        <v>1.17</v>
+      </c>
+      <c r="AL21">
+        <v>1.2</v>
+      </c>
+      <c r="AM21">
+        <v>2.15</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1.5</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1.94</v>
+      </c>
+      <c r="AS21">
+        <v>1.67</v>
+      </c>
+      <c r="AT21">
+        <v>3.61</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>5</v>
+      </c>
+      <c r="AW21">
+        <v>10</v>
+      </c>
+      <c r="AX21">
+        <v>3</v>
+      </c>
+      <c r="AY21">
+        <v>19</v>
+      </c>
+      <c r="AZ21">
+        <v>9</v>
+      </c>
+      <c r="BA21">
+        <v>9</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>13</v>
+      </c>
+      <c r="BD21">
+        <v>1.47</v>
+      </c>
+      <c r="BE21">
+        <v>7</v>
+      </c>
+      <c r="BF21">
+        <v>2.95</v>
+      </c>
+      <c r="BG21">
+        <v>1.24</v>
+      </c>
+      <c r="BH21">
+        <v>3.65</v>
+      </c>
+      <c r="BI21">
+        <v>1.41</v>
+      </c>
+      <c r="BJ21">
+        <v>2.65</v>
+      </c>
+      <c r="BK21">
+        <v>1.66</v>
+      </c>
+      <c r="BL21">
+        <v>2.08</v>
+      </c>
+      <c r="BM21">
+        <v>2</v>
+      </c>
+      <c r="BN21">
+        <v>1.71</v>
+      </c>
+      <c r="BO21">
+        <v>2.55</v>
+      </c>
+      <c r="BP21">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="131">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,24 @@
     <t>['36', '90+5']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['4', '8', '90+2']</t>
+  </si>
+  <si>
+    <t>['15', '37', '45+1']</t>
+  </si>
+  <si>
+    <t>['68', '90+6']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['78', '85']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -368,6 +386,27 @@
   </si>
   <si>
     <t>['57', '74', '89']</t>
+  </si>
+  <si>
+    <t>['2', '65']</t>
+  </si>
+  <si>
+    <t>['77', '90+5']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['2', '4', '13', '37', '54']</t>
+  </si>
+  <si>
+    <t>['3', '28', '52']</t>
+  </si>
+  <si>
+    <t>['34', '44']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -988,7 +1027,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1275,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1400,7 +1439,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1478,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1606,7 +1645,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1684,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1812,7 +1851,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1890,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2018,7 +2057,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2096,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2430,7 +2469,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2508,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3048,7 +3087,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3254,7 +3293,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3666,7 +3705,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3872,7 +3911,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4078,7 +4117,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4490,7 +4529,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4696,7 +4735,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4902,7 +4941,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5059,6 +5098,1448 @@
       </c>
       <c r="BP21">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7785194</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45768.39583333334</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22">
+        <v>3.4</v>
+      </c>
+      <c r="R22">
+        <v>2.3</v>
+      </c>
+      <c r="S22">
+        <v>2.88</v>
+      </c>
+      <c r="T22">
+        <v>1.33</v>
+      </c>
+      <c r="U22">
+        <v>3.25</v>
+      </c>
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>6.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.11</v>
+      </c>
+      <c r="Z22">
+        <v>3.07</v>
+      </c>
+      <c r="AA22">
+        <v>3.47</v>
+      </c>
+      <c r="AB22">
+        <v>2.19</v>
+      </c>
+      <c r="AC22">
+        <v>1.01</v>
+      </c>
+      <c r="AD22">
+        <v>13</v>
+      </c>
+      <c r="AE22">
+        <v>1.17</v>
+      </c>
+      <c r="AF22">
+        <v>4.15</v>
+      </c>
+      <c r="AG22">
+        <v>1.6</v>
+      </c>
+      <c r="AH22">
+        <v>2.1</v>
+      </c>
+      <c r="AI22">
+        <v>1.57</v>
+      </c>
+      <c r="AJ22">
+        <v>2.25</v>
+      </c>
+      <c r="AK22">
+        <v>1.62</v>
+      </c>
+      <c r="AL22">
+        <v>1.22</v>
+      </c>
+      <c r="AM22">
+        <v>1.4</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>1.5</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>1.7</v>
+      </c>
+      <c r="AS22">
+        <v>1.76</v>
+      </c>
+      <c r="AT22">
+        <v>3.46</v>
+      </c>
+      <c r="AU22">
+        <v>11</v>
+      </c>
+      <c r="AV22">
+        <v>6</v>
+      </c>
+      <c r="AW22">
+        <v>9</v>
+      </c>
+      <c r="AX22">
+        <v>7</v>
+      </c>
+      <c r="AY22">
+        <v>21</v>
+      </c>
+      <c r="AZ22">
+        <v>15</v>
+      </c>
+      <c r="BA22">
+        <v>4</v>
+      </c>
+      <c r="BB22">
+        <v>5</v>
+      </c>
+      <c r="BC22">
+        <v>9</v>
+      </c>
+      <c r="BD22">
+        <v>2.38</v>
+      </c>
+      <c r="BE22">
+        <v>8.5</v>
+      </c>
+      <c r="BF22">
+        <v>1.7</v>
+      </c>
+      <c r="BG22">
+        <v>1.12</v>
+      </c>
+      <c r="BH22">
+        <v>4.65</v>
+      </c>
+      <c r="BI22">
+        <v>1.27</v>
+      </c>
+      <c r="BJ22">
+        <v>3.14</v>
+      </c>
+      <c r="BK22">
+        <v>1.51</v>
+      </c>
+      <c r="BL22">
+        <v>2.32</v>
+      </c>
+      <c r="BM22">
+        <v>1.85</v>
+      </c>
+      <c r="BN22">
+        <v>1.85</v>
+      </c>
+      <c r="BO22">
+        <v>2.4</v>
+      </c>
+      <c r="BP22">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7785199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45768.5</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q23">
+        <v>3.4</v>
+      </c>
+      <c r="R23">
+        <v>2.3</v>
+      </c>
+      <c r="S23">
+        <v>2.88</v>
+      </c>
+      <c r="T23">
+        <v>1.33</v>
+      </c>
+      <c r="U23">
+        <v>3.25</v>
+      </c>
+      <c r="V23">
+        <v>2.5</v>
+      </c>
+      <c r="W23">
+        <v>1.5</v>
+      </c>
+      <c r="X23">
+        <v>6.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.11</v>
+      </c>
+      <c r="Z23">
+        <v>2.86</v>
+      </c>
+      <c r="AA23">
+        <v>3.53</v>
+      </c>
+      <c r="AB23">
+        <v>2.29</v>
+      </c>
+      <c r="AC23">
+        <v>1.01</v>
+      </c>
+      <c r="AD23">
+        <v>13</v>
+      </c>
+      <c r="AE23">
+        <v>1.18</v>
+      </c>
+      <c r="AF23">
+        <v>4.05</v>
+      </c>
+      <c r="AG23">
+        <v>1.61</v>
+      </c>
+      <c r="AH23">
+        <v>2.05</v>
+      </c>
+      <c r="AI23">
+        <v>1.57</v>
+      </c>
+      <c r="AJ23">
+        <v>2.25</v>
+      </c>
+      <c r="AK23">
+        <v>1.62</v>
+      </c>
+      <c r="AL23">
+        <v>1.25</v>
+      </c>
+      <c r="AM23">
+        <v>1.38</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>1.5</v>
+      </c>
+      <c r="AR23">
+        <v>1.32</v>
+      </c>
+      <c r="AS23">
+        <v>0.45</v>
+      </c>
+      <c r="AT23">
+        <v>1.77</v>
+      </c>
+      <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AV23">
+        <v>13</v>
+      </c>
+      <c r="AW23">
+        <v>16</v>
+      </c>
+      <c r="AX23">
+        <v>13</v>
+      </c>
+      <c r="AY23">
+        <v>22</v>
+      </c>
+      <c r="AZ23">
+        <v>29</v>
+      </c>
+      <c r="BA23">
+        <v>10</v>
+      </c>
+      <c r="BB23">
+        <v>9</v>
+      </c>
+      <c r="BC23">
+        <v>19</v>
+      </c>
+      <c r="BD23">
+        <v>2.15</v>
+      </c>
+      <c r="BE23">
+        <v>8.5</v>
+      </c>
+      <c r="BF23">
+        <v>1.85</v>
+      </c>
+      <c r="BG23">
+        <v>1.13</v>
+      </c>
+      <c r="BH23">
+        <v>4.6</v>
+      </c>
+      <c r="BI23">
+        <v>1.28</v>
+      </c>
+      <c r="BJ23">
+        <v>3.08</v>
+      </c>
+      <c r="BK23">
+        <v>1.52</v>
+      </c>
+      <c r="BL23">
+        <v>2.3</v>
+      </c>
+      <c r="BM23">
+        <v>1.85</v>
+      </c>
+      <c r="BN23">
+        <v>1.85</v>
+      </c>
+      <c r="BO23">
+        <v>2.4</v>
+      </c>
+      <c r="BP23">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7785195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45768.5</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q24">
+        <v>2.5</v>
+      </c>
+      <c r="R24">
+        <v>2.1</v>
+      </c>
+      <c r="S24">
+        <v>4.5</v>
+      </c>
+      <c r="T24">
+        <v>1.44</v>
+      </c>
+      <c r="U24">
+        <v>2.63</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>1.36</v>
+      </c>
+      <c r="X24">
+        <v>9</v>
+      </c>
+      <c r="Y24">
+        <v>1.07</v>
+      </c>
+      <c r="Z24">
+        <v>1.89</v>
+      </c>
+      <c r="AA24">
+        <v>3.62</v>
+      </c>
+      <c r="AB24">
+        <v>3.77</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>9</v>
+      </c>
+      <c r="AE24">
+        <v>1.31</v>
+      </c>
+      <c r="AF24">
+        <v>3.02</v>
+      </c>
+      <c r="AG24">
+        <v>2</v>
+      </c>
+      <c r="AH24">
+        <v>1.75</v>
+      </c>
+      <c r="AI24">
+        <v>1.95</v>
+      </c>
+      <c r="AJ24">
+        <v>1.8</v>
+      </c>
+      <c r="AK24">
+        <v>1.22</v>
+      </c>
+      <c r="AL24">
+        <v>1.22</v>
+      </c>
+      <c r="AM24">
+        <v>1.9</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1.5</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>1.38</v>
+      </c>
+      <c r="AS24">
+        <v>0.88</v>
+      </c>
+      <c r="AT24">
+        <v>2.26</v>
+      </c>
+      <c r="AU24">
+        <v>6</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>7</v>
+      </c>
+      <c r="AX24">
+        <v>6</v>
+      </c>
+      <c r="AY24">
+        <v>16</v>
+      </c>
+      <c r="AZ24">
+        <v>11</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>4</v>
+      </c>
+      <c r="BD24">
+        <v>1.62</v>
+      </c>
+      <c r="BE24">
+        <v>9</v>
+      </c>
+      <c r="BF24">
+        <v>2.5</v>
+      </c>
+      <c r="BG24">
+        <v>1.15</v>
+      </c>
+      <c r="BH24">
+        <v>4.25</v>
+      </c>
+      <c r="BI24">
+        <v>1.32</v>
+      </c>
+      <c r="BJ24">
+        <v>2.88</v>
+      </c>
+      <c r="BK24">
+        <v>1.59</v>
+      </c>
+      <c r="BL24">
+        <v>2.16</v>
+      </c>
+      <c r="BM24">
+        <v>1.95</v>
+      </c>
+      <c r="BN24">
+        <v>1.77</v>
+      </c>
+      <c r="BO24">
+        <v>2.57</v>
+      </c>
+      <c r="BP24">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7785196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45768.5</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25">
+        <v>2.63</v>
+      </c>
+      <c r="R25">
+        <v>2.2</v>
+      </c>
+      <c r="S25">
+        <v>4.33</v>
+      </c>
+      <c r="T25">
+        <v>1.4</v>
+      </c>
+      <c r="U25">
+        <v>2.75</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>1.36</v>
+      </c>
+      <c r="X25">
+        <v>8</v>
+      </c>
+      <c r="Y25">
+        <v>1.08</v>
+      </c>
+      <c r="Z25">
+        <v>1.99</v>
+      </c>
+      <c r="AA25">
+        <v>3.52</v>
+      </c>
+      <c r="AB25">
+        <v>3.55</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>9</v>
+      </c>
+      <c r="AE25">
+        <v>1.27</v>
+      </c>
+      <c r="AF25">
+        <v>3.25</v>
+      </c>
+      <c r="AG25">
+        <v>1.87</v>
+      </c>
+      <c r="AH25">
+        <v>1.87</v>
+      </c>
+      <c r="AI25">
+        <v>1.8</v>
+      </c>
+      <c r="AJ25">
+        <v>1.95</v>
+      </c>
+      <c r="AK25">
+        <v>1.28</v>
+      </c>
+      <c r="AL25">
+        <v>1.25</v>
+      </c>
+      <c r="AM25">
+        <v>1.75</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>3</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>1.21</v>
+      </c>
+      <c r="AS25">
+        <v>1.31</v>
+      </c>
+      <c r="AT25">
+        <v>2.52</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
+        <v>16</v>
+      </c>
+      <c r="AY25">
+        <v>11</v>
+      </c>
+      <c r="AZ25">
+        <v>24</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>8</v>
+      </c>
+      <c r="BC25">
+        <v>9</v>
+      </c>
+      <c r="BD25">
+        <v>1.57</v>
+      </c>
+      <c r="BE25">
+        <v>9</v>
+      </c>
+      <c r="BF25">
+        <v>2.62</v>
+      </c>
+      <c r="BG25">
+        <v>1.21</v>
+      </c>
+      <c r="BH25">
+        <v>3.58</v>
+      </c>
+      <c r="BI25">
+        <v>1.42</v>
+      </c>
+      <c r="BJ25">
+        <v>2.57</v>
+      </c>
+      <c r="BK25">
+        <v>1.77</v>
+      </c>
+      <c r="BL25">
+        <v>1.95</v>
+      </c>
+      <c r="BM25">
+        <v>2.21</v>
+      </c>
+      <c r="BN25">
+        <v>1.56</v>
+      </c>
+      <c r="BO25">
+        <v>2.92</v>
+      </c>
+      <c r="BP25">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7785197</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45768.5</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26">
+        <v>3.75</v>
+      </c>
+      <c r="R26">
+        <v>2.3</v>
+      </c>
+      <c r="S26">
+        <v>2.6</v>
+      </c>
+      <c r="T26">
+        <v>1.33</v>
+      </c>
+      <c r="U26">
+        <v>3.25</v>
+      </c>
+      <c r="V26">
+        <v>2.5</v>
+      </c>
+      <c r="W26">
+        <v>1.5</v>
+      </c>
+      <c r="X26">
+        <v>6.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.11</v>
+      </c>
+      <c r="Z26">
+        <v>3.64</v>
+      </c>
+      <c r="AA26">
+        <v>3.7</v>
+      </c>
+      <c r="AB26">
+        <v>1.91</v>
+      </c>
+      <c r="AC26">
+        <v>1.01</v>
+      </c>
+      <c r="AD26">
+        <v>13</v>
+      </c>
+      <c r="AE26">
+        <v>1.16</v>
+      </c>
+      <c r="AF26">
+        <v>4.33</v>
+      </c>
+      <c r="AG26">
+        <v>1.57</v>
+      </c>
+      <c r="AH26">
+        <v>2.15</v>
+      </c>
+      <c r="AI26">
+        <v>1.57</v>
+      </c>
+      <c r="AJ26">
+        <v>2.25</v>
+      </c>
+      <c r="AK26">
+        <v>1.75</v>
+      </c>
+      <c r="AL26">
+        <v>1.22</v>
+      </c>
+      <c r="AM26">
+        <v>1.3</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>1.5</v>
+      </c>
+      <c r="AR26">
+        <v>1.31</v>
+      </c>
+      <c r="AS26">
+        <v>1.53</v>
+      </c>
+      <c r="AT26">
+        <v>2.84</v>
+      </c>
+      <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <v>14</v>
+      </c>
+      <c r="AW26">
+        <v>6</v>
+      </c>
+      <c r="AX26">
+        <v>13</v>
+      </c>
+      <c r="AY26">
+        <v>10</v>
+      </c>
+      <c r="AZ26">
+        <v>28</v>
+      </c>
+      <c r="BA26">
+        <v>4</v>
+      </c>
+      <c r="BB26">
+        <v>12</v>
+      </c>
+      <c r="BC26">
+        <v>16</v>
+      </c>
+      <c r="BD26">
+        <v>2.62</v>
+      </c>
+      <c r="BE26">
+        <v>9</v>
+      </c>
+      <c r="BF26">
+        <v>1.57</v>
+      </c>
+      <c r="BG26">
+        <v>1.09</v>
+      </c>
+      <c r="BH26">
+        <v>5.25</v>
+      </c>
+      <c r="BI26">
+        <v>1.22</v>
+      </c>
+      <c r="BJ26">
+        <v>3.5</v>
+      </c>
+      <c r="BK26">
+        <v>1.43</v>
+      </c>
+      <c r="BL26">
+        <v>2.54</v>
+      </c>
+      <c r="BM26">
+        <v>1.73</v>
+      </c>
+      <c r="BN26">
+        <v>2</v>
+      </c>
+      <c r="BO26">
+        <v>2.15</v>
+      </c>
+      <c r="BP26">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7785198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45768.5</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>108</v>
+      </c>
+      <c r="P27" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q27">
+        <v>3.1</v>
+      </c>
+      <c r="R27">
+        <v>2.1</v>
+      </c>
+      <c r="S27">
+        <v>3.5</v>
+      </c>
+      <c r="T27">
+        <v>1.4</v>
+      </c>
+      <c r="U27">
+        <v>2.75</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>1.36</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>1.08</v>
+      </c>
+      <c r="Z27">
+        <v>2.38</v>
+      </c>
+      <c r="AA27">
+        <v>3.41</v>
+      </c>
+      <c r="AB27">
+        <v>2.79</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>8.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.28</v>
+      </c>
+      <c r="AF27">
+        <v>3.2</v>
+      </c>
+      <c r="AG27">
+        <v>1.91</v>
+      </c>
+      <c r="AH27">
+        <v>1.83</v>
+      </c>
+      <c r="AI27">
+        <v>1.75</v>
+      </c>
+      <c r="AJ27">
+        <v>2</v>
+      </c>
+      <c r="AK27">
+        <v>1.42</v>
+      </c>
+      <c r="AL27">
+        <v>1.25</v>
+      </c>
+      <c r="AM27">
+        <v>1.55</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>1.57</v>
+      </c>
+      <c r="AS27">
+        <v>1.53</v>
+      </c>
+      <c r="AT27">
+        <v>3.1</v>
+      </c>
+      <c r="AU27">
+        <v>3</v>
+      </c>
+      <c r="AV27">
+        <v>7</v>
+      </c>
+      <c r="AW27">
+        <v>3</v>
+      </c>
+      <c r="AX27">
+        <v>8</v>
+      </c>
+      <c r="AY27">
+        <v>10</v>
+      </c>
+      <c r="AZ27">
+        <v>17</v>
+      </c>
+      <c r="BA27">
+        <v>2</v>
+      </c>
+      <c r="BB27">
+        <v>4</v>
+      </c>
+      <c r="BC27">
+        <v>6</v>
+      </c>
+      <c r="BD27">
+        <v>1.73</v>
+      </c>
+      <c r="BE27">
+        <v>8</v>
+      </c>
+      <c r="BF27">
+        <v>2.38</v>
+      </c>
+      <c r="BG27">
+        <v>1.21</v>
+      </c>
+      <c r="BH27">
+        <v>3.58</v>
+      </c>
+      <c r="BI27">
+        <v>1.42</v>
+      </c>
+      <c r="BJ27">
+        <v>2.57</v>
+      </c>
+      <c r="BK27">
+        <v>1.7</v>
+      </c>
+      <c r="BL27">
+        <v>2.05</v>
+      </c>
+      <c r="BM27">
+        <v>2.23</v>
+      </c>
+      <c r="BN27">
+        <v>1.55</v>
+      </c>
+      <c r="BO27">
+        <v>2.92</v>
+      </c>
+      <c r="BP27">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7785200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45768.59375</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q28">
+        <v>3.5</v>
+      </c>
+      <c r="R28">
+        <v>2.3</v>
+      </c>
+      <c r="S28">
+        <v>2.75</v>
+      </c>
+      <c r="T28">
+        <v>1.3</v>
+      </c>
+      <c r="U28">
+        <v>3.4</v>
+      </c>
+      <c r="V28">
+        <v>2.5</v>
+      </c>
+      <c r="W28">
+        <v>1.5</v>
+      </c>
+      <c r="X28">
+        <v>6</v>
+      </c>
+      <c r="Y28">
+        <v>1.13</v>
+      </c>
+      <c r="Z28">
+        <v>3.21</v>
+      </c>
+      <c r="AA28">
+        <v>3.6</v>
+      </c>
+      <c r="AB28">
+        <v>2.08</v>
+      </c>
+      <c r="AC28">
+        <v>1.03</v>
+      </c>
+      <c r="AD28">
+        <v>13.4</v>
+      </c>
+      <c r="AE28">
+        <v>1.16</v>
+      </c>
+      <c r="AF28">
+        <v>4.3</v>
+      </c>
+      <c r="AG28">
+        <v>1.6</v>
+      </c>
+      <c r="AH28">
+        <v>2.15</v>
+      </c>
+      <c r="AI28">
+        <v>1.57</v>
+      </c>
+      <c r="AJ28">
+        <v>2.25</v>
+      </c>
+      <c r="AK28">
+        <v>1.65</v>
+      </c>
+      <c r="AL28">
+        <v>1.25</v>
+      </c>
+      <c r="AM28">
+        <v>1.36</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <v>2</v>
+      </c>
+      <c r="AR28">
+        <v>1.35</v>
+      </c>
+      <c r="AS28">
+        <v>1.18</v>
+      </c>
+      <c r="AT28">
+        <v>2.53</v>
+      </c>
+      <c r="AU28">
+        <v>5</v>
+      </c>
+      <c r="AV28">
+        <v>7</v>
+      </c>
+      <c r="AW28">
+        <v>9</v>
+      </c>
+      <c r="AX28">
+        <v>8</v>
+      </c>
+      <c r="AY28">
+        <v>16</v>
+      </c>
+      <c r="AZ28">
+        <v>16</v>
+      </c>
+      <c r="BA28">
+        <v>4</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>7</v>
+      </c>
+      <c r="BD28">
+        <v>2.05</v>
+      </c>
+      <c r="BE28">
+        <v>8.5</v>
+      </c>
+      <c r="BF28">
+        <v>1.91</v>
+      </c>
+      <c r="BG28">
+        <v>1.16</v>
+      </c>
+      <c r="BH28">
+        <v>4.05</v>
+      </c>
+      <c r="BI28">
+        <v>1.34</v>
+      </c>
+      <c r="BJ28">
+        <v>2.78</v>
+      </c>
+      <c r="BK28">
+        <v>1.77</v>
+      </c>
+      <c r="BL28">
+        <v>1.95</v>
+      </c>
+      <c r="BM28">
+        <v>2.06</v>
+      </c>
+      <c r="BN28">
+        <v>1.68</v>
+      </c>
+      <c r="BO28">
+        <v>2.67</v>
+      </c>
+      <c r="BP28">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -5258,13 +5258,13 @@
         <v>15</v>
       </c>
       <c r="BA22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB22">
         <v>5</v>
       </c>
       <c r="BC22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22">
         <v>2.38</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,21 @@
     <t>['78', '85']</t>
   </si>
   <si>
+    <t>['80', '87', '90']</t>
+  </si>
+  <si>
+    <t>['64', '76', '90+3']</t>
+  </si>
+  <si>
+    <t>['23', '47']</t>
+  </si>
+  <si>
+    <t>['87', '90']</t>
+  </si>
+  <si>
+    <t>['53', '57', '90+4', '90+6']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -407,6 +422,18 @@
   </si>
   <si>
     <t>['34', '44']</t>
+  </si>
+  <si>
+    <t>['8', '15']</t>
+  </si>
+  <si>
+    <t>['72', '90+4']</t>
+  </si>
+  <si>
+    <t>['19', '51', '85']</t>
+  </si>
+  <si>
+    <t>['9', '47', '55', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -768,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1027,7 +1054,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1439,7 +1466,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1645,7 +1672,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1851,7 +1878,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2057,7 +2084,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2469,7 +2496,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2959,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3087,7 +3114,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3168,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3293,7 +3320,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3371,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3580,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3705,7 +3732,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3783,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3911,7 +3938,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -3989,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -4117,7 +4144,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4195,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4404,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>0.92</v>
@@ -4529,7 +4556,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4607,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4735,7 +4762,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4816,7 +4843,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>1.82</v>
@@ -4941,7 +4968,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5147,7 +5174,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5353,7 +5380,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5559,7 +5586,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5765,7 +5792,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5971,7 +5998,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6177,7 +6204,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6383,7 +6410,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6540,6 +6567,1654 @@
       </c>
       <c r="BP28">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7785201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45774.39583333334</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29">
+        <v>2.55</v>
+      </c>
+      <c r="R29">
+        <v>2.35</v>
+      </c>
+      <c r="S29">
+        <v>3.3</v>
+      </c>
+      <c r="T29">
+        <v>1.25</v>
+      </c>
+      <c r="U29">
+        <v>3.5</v>
+      </c>
+      <c r="V29">
+        <v>2.2</v>
+      </c>
+      <c r="W29">
+        <v>1.6</v>
+      </c>
+      <c r="X29">
+        <v>4.95</v>
+      </c>
+      <c r="Y29">
+        <v>1.11</v>
+      </c>
+      <c r="Z29">
+        <v>2.12</v>
+      </c>
+      <c r="AA29">
+        <v>3.79</v>
+      </c>
+      <c r="AB29">
+        <v>2.99</v>
+      </c>
+      <c r="AC29">
+        <v>1.03</v>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+      <c r="AE29">
+        <v>1.17</v>
+      </c>
+      <c r="AF29">
+        <v>5</v>
+      </c>
+      <c r="AG29">
+        <v>1.6</v>
+      </c>
+      <c r="AH29">
+        <v>2.1</v>
+      </c>
+      <c r="AI29">
+        <v>1.45</v>
+      </c>
+      <c r="AJ29">
+        <v>2.5</v>
+      </c>
+      <c r="AK29">
+        <v>1.36</v>
+      </c>
+      <c r="AL29">
+        <v>1.2</v>
+      </c>
+      <c r="AM29">
+        <v>1.7</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>1.99</v>
+      </c>
+      <c r="AS29">
+        <v>1.43</v>
+      </c>
+      <c r="AT29">
+        <v>3.42</v>
+      </c>
+      <c r="AU29">
+        <v>4</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>9</v>
+      </c>
+      <c r="AX29">
+        <v>4</v>
+      </c>
+      <c r="AY29">
+        <v>13</v>
+      </c>
+      <c r="AZ29">
+        <v>5</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>4</v>
+      </c>
+      <c r="BC29">
+        <v>8</v>
+      </c>
+      <c r="BD29">
+        <v>1.81</v>
+      </c>
+      <c r="BE29">
+        <v>6.5</v>
+      </c>
+      <c r="BF29">
+        <v>2.18</v>
+      </c>
+      <c r="BG29">
+        <v>1.24</v>
+      </c>
+      <c r="BH29">
+        <v>3.65</v>
+      </c>
+      <c r="BI29">
+        <v>1.42</v>
+      </c>
+      <c r="BJ29">
+        <v>2.65</v>
+      </c>
+      <c r="BK29">
+        <v>1.68</v>
+      </c>
+      <c r="BL29">
+        <v>2.05</v>
+      </c>
+      <c r="BM29">
+        <v>2.05</v>
+      </c>
+      <c r="BN29">
+        <v>1.68</v>
+      </c>
+      <c r="BO29">
+        <v>2.55</v>
+      </c>
+      <c r="BP29">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7785202</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45774.5</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q30">
+        <v>1.6</v>
+      </c>
+      <c r="R30">
+        <v>2.7</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+      <c r="T30">
+        <v>1.25</v>
+      </c>
+      <c r="U30">
+        <v>3.55</v>
+      </c>
+      <c r="V30">
+        <v>2.15</v>
+      </c>
+      <c r="W30">
+        <v>1.62</v>
+      </c>
+      <c r="X30">
+        <v>5.1</v>
+      </c>
+      <c r="Y30">
+        <v>1.1</v>
+      </c>
+      <c r="Z30">
+        <v>1.25</v>
+      </c>
+      <c r="AA30">
+        <v>5.8</v>
+      </c>
+      <c r="AB30">
+        <v>10</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>17</v>
+      </c>
+      <c r="AE30">
+        <v>1.17</v>
+      </c>
+      <c r="AF30">
+        <v>5</v>
+      </c>
+      <c r="AG30">
+        <v>1.57</v>
+      </c>
+      <c r="AH30">
+        <v>2.15</v>
+      </c>
+      <c r="AI30">
+        <v>1.95</v>
+      </c>
+      <c r="AJ30">
+        <v>1.73</v>
+      </c>
+      <c r="AK30">
+        <v>1.04</v>
+      </c>
+      <c r="AL30">
+        <v>1.11</v>
+      </c>
+      <c r="AM30">
+        <v>3.95</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>2.59</v>
+      </c>
+      <c r="AS30">
+        <v>0.63</v>
+      </c>
+      <c r="AT30">
+        <v>3.22</v>
+      </c>
+      <c r="AU30">
+        <v>6</v>
+      </c>
+      <c r="AV30">
+        <v>2</v>
+      </c>
+      <c r="AW30">
+        <v>3</v>
+      </c>
+      <c r="AX30">
+        <v>4</v>
+      </c>
+      <c r="AY30">
+        <v>10</v>
+      </c>
+      <c r="AZ30">
+        <v>6</v>
+      </c>
+      <c r="BA30">
+        <v>11</v>
+      </c>
+      <c r="BB30">
+        <v>6</v>
+      </c>
+      <c r="BC30">
+        <v>17</v>
+      </c>
+      <c r="BD30">
+        <v>1.2</v>
+      </c>
+      <c r="BE30">
+        <v>8.5</v>
+      </c>
+      <c r="BF30">
+        <v>4.9</v>
+      </c>
+      <c r="BG30">
+        <v>1.27</v>
+      </c>
+      <c r="BH30">
+        <v>3.3</v>
+      </c>
+      <c r="BI30">
+        <v>1.47</v>
+      </c>
+      <c r="BJ30">
+        <v>2.48</v>
+      </c>
+      <c r="BK30">
+        <v>1.75</v>
+      </c>
+      <c r="BL30">
+        <v>1.95</v>
+      </c>
+      <c r="BM30">
+        <v>2.15</v>
+      </c>
+      <c r="BN30">
+        <v>1.61</v>
+      </c>
+      <c r="BO30">
+        <v>2.7</v>
+      </c>
+      <c r="BP30">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7785203</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45774.5</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q31">
+        <v>1.8</v>
+      </c>
+      <c r="R31">
+        <v>2.55</v>
+      </c>
+      <c r="S31">
+        <v>5.75</v>
+      </c>
+      <c r="T31">
+        <v>1.25</v>
+      </c>
+      <c r="U31">
+        <v>3.55</v>
+      </c>
+      <c r="V31">
+        <v>2.2</v>
+      </c>
+      <c r="W31">
+        <v>1.6</v>
+      </c>
+      <c r="X31">
+        <v>4.8</v>
+      </c>
+      <c r="Y31">
+        <v>1.12</v>
+      </c>
+      <c r="Z31">
+        <v>1.4</v>
+      </c>
+      <c r="AA31">
+        <v>4.8</v>
+      </c>
+      <c r="AB31">
+        <v>6.7</v>
+      </c>
+      <c r="AC31">
+        <v>1.03</v>
+      </c>
+      <c r="AD31">
+        <v>11</v>
+      </c>
+      <c r="AE31">
+        <v>1.17</v>
+      </c>
+      <c r="AF31">
+        <v>5</v>
+      </c>
+      <c r="AG31">
+        <v>1.48</v>
+      </c>
+      <c r="AH31">
+        <v>2.54</v>
+      </c>
+      <c r="AI31">
+        <v>1.75</v>
+      </c>
+      <c r="AJ31">
+        <v>1.93</v>
+      </c>
+      <c r="AK31">
+        <v>1.09</v>
+      </c>
+      <c r="AL31">
+        <v>1.13</v>
+      </c>
+      <c r="AM31">
+        <v>2.9</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.79</v>
+      </c>
+      <c r="AS31">
+        <v>1.19</v>
+      </c>
+      <c r="AT31">
+        <v>2.98</v>
+      </c>
+      <c r="AU31">
+        <v>8</v>
+      </c>
+      <c r="AV31">
+        <v>8</v>
+      </c>
+      <c r="AW31">
+        <v>9</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>19</v>
+      </c>
+      <c r="AZ31">
+        <v>13</v>
+      </c>
+      <c r="BA31">
+        <v>10</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>10</v>
+      </c>
+      <c r="BD31">
+        <v>1.29</v>
+      </c>
+      <c r="BE31">
+        <v>7.5</v>
+      </c>
+      <c r="BF31">
+        <v>3.9</v>
+      </c>
+      <c r="BG31">
+        <v>1.21</v>
+      </c>
+      <c r="BH31">
+        <v>3.9</v>
+      </c>
+      <c r="BI31">
+        <v>1.36</v>
+      </c>
+      <c r="BJ31">
+        <v>2.8</v>
+      </c>
+      <c r="BK31">
+        <v>1.6</v>
+      </c>
+      <c r="BL31">
+        <v>2.17</v>
+      </c>
+      <c r="BM31">
+        <v>1.94</v>
+      </c>
+      <c r="BN31">
+        <v>1.76</v>
+      </c>
+      <c r="BO31">
+        <v>2.4</v>
+      </c>
+      <c r="BP31">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7785204</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45774.5</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32">
+        <v>3.7</v>
+      </c>
+      <c r="R32">
+        <v>2.15</v>
+      </c>
+      <c r="S32">
+        <v>2.62</v>
+      </c>
+      <c r="T32">
+        <v>1.36</v>
+      </c>
+      <c r="U32">
+        <v>2.85</v>
+      </c>
+      <c r="V32">
+        <v>2.75</v>
+      </c>
+      <c r="W32">
+        <v>1.4</v>
+      </c>
+      <c r="X32">
+        <v>6.7</v>
+      </c>
+      <c r="Y32">
+        <v>1.05</v>
+      </c>
+      <c r="Z32">
+        <v>3.23</v>
+      </c>
+      <c r="AA32">
+        <v>3.53</v>
+      </c>
+      <c r="AB32">
+        <v>2.09</v>
+      </c>
+      <c r="AC32">
+        <v>1.05</v>
+      </c>
+      <c r="AD32">
+        <v>9.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.3</v>
+      </c>
+      <c r="AF32">
+        <v>3.45</v>
+      </c>
+      <c r="AG32">
+        <v>1.89</v>
+      </c>
+      <c r="AH32">
+        <v>1.85</v>
+      </c>
+      <c r="AI32">
+        <v>1.73</v>
+      </c>
+      <c r="AJ32">
+        <v>1.95</v>
+      </c>
+      <c r="AK32">
+        <v>1.7</v>
+      </c>
+      <c r="AL32">
+        <v>1.25</v>
+      </c>
+      <c r="AM32">
+        <v>1.3</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.53</v>
+      </c>
+      <c r="AS32">
+        <v>0.78</v>
+      </c>
+      <c r="AT32">
+        <v>2.31</v>
+      </c>
+      <c r="AU32">
+        <v>2</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>9</v>
+      </c>
+      <c r="AX32">
+        <v>10</v>
+      </c>
+      <c r="AY32">
+        <v>12</v>
+      </c>
+      <c r="AZ32">
+        <v>17</v>
+      </c>
+      <c r="BA32">
+        <v>2</v>
+      </c>
+      <c r="BB32">
+        <v>10</v>
+      </c>
+      <c r="BC32">
+        <v>12</v>
+      </c>
+      <c r="BD32">
+        <v>2.3</v>
+      </c>
+      <c r="BE32">
+        <v>6.75</v>
+      </c>
+      <c r="BF32">
+        <v>1.74</v>
+      </c>
+      <c r="BG32">
+        <v>1.24</v>
+      </c>
+      <c r="BH32">
+        <v>3.55</v>
+      </c>
+      <c r="BI32">
+        <v>1.42</v>
+      </c>
+      <c r="BJ32">
+        <v>2.65</v>
+      </c>
+      <c r="BK32">
+        <v>1.68</v>
+      </c>
+      <c r="BL32">
+        <v>2.05</v>
+      </c>
+      <c r="BM32">
+        <v>2.05</v>
+      </c>
+      <c r="BN32">
+        <v>1.68</v>
+      </c>
+      <c r="BO32">
+        <v>2.6</v>
+      </c>
+      <c r="BP32">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7785205</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45774.5</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>91</v>
+      </c>
+      <c r="P33" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33">
+        <v>3.5</v>
+      </c>
+      <c r="R33">
+        <v>2.2</v>
+      </c>
+      <c r="S33">
+        <v>2.62</v>
+      </c>
+      <c r="T33">
+        <v>1.3</v>
+      </c>
+      <c r="U33">
+        <v>3.2</v>
+      </c>
+      <c r="V33">
+        <v>2.45</v>
+      </c>
+      <c r="W33">
+        <v>1.48</v>
+      </c>
+      <c r="X33">
+        <v>6.3</v>
+      </c>
+      <c r="Y33">
+        <v>1.06</v>
+      </c>
+      <c r="Z33">
+        <v>3.09</v>
+      </c>
+      <c r="AA33">
+        <v>3.64</v>
+      </c>
+      <c r="AB33">
+        <v>2.12</v>
+      </c>
+      <c r="AC33">
+        <v>1.04</v>
+      </c>
+      <c r="AD33">
+        <v>10</v>
+      </c>
+      <c r="AE33">
+        <v>1.22</v>
+      </c>
+      <c r="AF33">
+        <v>4.2</v>
+      </c>
+      <c r="AG33">
+        <v>1.79</v>
+      </c>
+      <c r="AH33">
+        <v>1.95</v>
+      </c>
+      <c r="AI33">
+        <v>1.57</v>
+      </c>
+      <c r="AJ33">
+        <v>2.2</v>
+      </c>
+      <c r="AK33">
+        <v>1.7</v>
+      </c>
+      <c r="AL33">
+        <v>1.22</v>
+      </c>
+      <c r="AM33">
+        <v>1.35</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>0.5</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>1.33</v>
+      </c>
+      <c r="AR33">
+        <v>1.87</v>
+      </c>
+      <c r="AS33">
+        <v>1.21</v>
+      </c>
+      <c r="AT33">
+        <v>3.08</v>
+      </c>
+      <c r="AU33">
+        <v>2</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>10</v>
+      </c>
+      <c r="AX33">
+        <v>7</v>
+      </c>
+      <c r="AY33">
+        <v>17</v>
+      </c>
+      <c r="AZ33">
+        <v>11</v>
+      </c>
+      <c r="BA33">
+        <v>6</v>
+      </c>
+      <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <v>8</v>
+      </c>
+      <c r="BD33">
+        <v>2.32</v>
+      </c>
+      <c r="BE33">
+        <v>7</v>
+      </c>
+      <c r="BF33">
+        <v>1.71</v>
+      </c>
+      <c r="BG33">
+        <v>1.16</v>
+      </c>
+      <c r="BH33">
+        <v>4.4</v>
+      </c>
+      <c r="BI33">
+        <v>1.29</v>
+      </c>
+      <c r="BJ33">
+        <v>3.2</v>
+      </c>
+      <c r="BK33">
+        <v>1.49</v>
+      </c>
+      <c r="BL33">
+        <v>2.4</v>
+      </c>
+      <c r="BM33">
+        <v>1.76</v>
+      </c>
+      <c r="BN33">
+        <v>1.94</v>
+      </c>
+      <c r="BO33">
+        <v>2.17</v>
+      </c>
+      <c r="BP33">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7785206</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45774.5</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q34">
+        <v>2.2</v>
+      </c>
+      <c r="R34">
+        <v>2.35</v>
+      </c>
+      <c r="S34">
+        <v>4.2</v>
+      </c>
+      <c r="T34">
+        <v>1.28</v>
+      </c>
+      <c r="U34">
+        <v>3.3</v>
+      </c>
+      <c r="V34">
+        <v>2.3</v>
+      </c>
+      <c r="W34">
+        <v>1.55</v>
+      </c>
+      <c r="X34">
+        <v>5.45</v>
+      </c>
+      <c r="Y34">
+        <v>1.08</v>
+      </c>
+      <c r="Z34">
+        <v>1.78</v>
+      </c>
+      <c r="AA34">
+        <v>3.94</v>
+      </c>
+      <c r="AB34">
+        <v>3.94</v>
+      </c>
+      <c r="AC34">
+        <v>1.03</v>
+      </c>
+      <c r="AD34">
+        <v>11</v>
+      </c>
+      <c r="AE34">
+        <v>1.2</v>
+      </c>
+      <c r="AF34">
+        <v>4.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.67</v>
+      </c>
+      <c r="AH34">
+        <v>2</v>
+      </c>
+      <c r="AI34">
+        <v>1.57</v>
+      </c>
+      <c r="AJ34">
+        <v>2.2</v>
+      </c>
+      <c r="AK34">
+        <v>1.22</v>
+      </c>
+      <c r="AL34">
+        <v>1.2</v>
+      </c>
+      <c r="AM34">
+        <v>2</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>2.49</v>
+      </c>
+      <c r="AS34">
+        <v>0.96</v>
+      </c>
+      <c r="AT34">
+        <v>3.45</v>
+      </c>
+      <c r="AU34">
+        <v>7</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
+        <v>10</v>
+      </c>
+      <c r="AX34">
+        <v>11</v>
+      </c>
+      <c r="AY34">
+        <v>24</v>
+      </c>
+      <c r="AZ34">
+        <v>17</v>
+      </c>
+      <c r="BA34">
+        <v>6</v>
+      </c>
+      <c r="BB34">
+        <v>5</v>
+      </c>
+      <c r="BC34">
+        <v>11</v>
+      </c>
+      <c r="BD34">
+        <v>1.53</v>
+      </c>
+      <c r="BE34">
+        <v>7</v>
+      </c>
+      <c r="BF34">
+        <v>2.7</v>
+      </c>
+      <c r="BG34">
+        <v>1.21</v>
+      </c>
+      <c r="BH34">
+        <v>3.9</v>
+      </c>
+      <c r="BI34">
+        <v>1.38</v>
+      </c>
+      <c r="BJ34">
+        <v>2.8</v>
+      </c>
+      <c r="BK34">
+        <v>1.61</v>
+      </c>
+      <c r="BL34">
+        <v>2.15</v>
+      </c>
+      <c r="BM34">
+        <v>1.96</v>
+      </c>
+      <c r="BN34">
+        <v>1.74</v>
+      </c>
+      <c r="BO34">
+        <v>2.43</v>
+      </c>
+      <c r="BP34">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7785207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45774.5</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q35">
+        <v>2.44</v>
+      </c>
+      <c r="R35">
+        <v>2.43</v>
+      </c>
+      <c r="S35">
+        <v>3.68</v>
+      </c>
+      <c r="T35">
+        <v>1.19</v>
+      </c>
+      <c r="U35">
+        <v>3.82</v>
+      </c>
+      <c r="V35">
+        <v>2.14</v>
+      </c>
+      <c r="W35">
+        <v>1.63</v>
+      </c>
+      <c r="X35">
+        <v>4.8</v>
+      </c>
+      <c r="Y35">
+        <v>1.11</v>
+      </c>
+      <c r="Z35">
+        <v>1.89</v>
+      </c>
+      <c r="AA35">
+        <v>3.98</v>
+      </c>
+      <c r="AB35">
+        <v>3.45</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>13</v>
+      </c>
+      <c r="AE35">
+        <v>1.08</v>
+      </c>
+      <c r="AF35">
+        <v>5.6</v>
+      </c>
+      <c r="AG35">
+        <v>1.52</v>
+      </c>
+      <c r="AH35">
+        <v>2.43</v>
+      </c>
+      <c r="AI35">
+        <v>1.42</v>
+      </c>
+      <c r="AJ35">
+        <v>2.65</v>
+      </c>
+      <c r="AK35">
+        <v>1.33</v>
+      </c>
+      <c r="AL35">
+        <v>1.24</v>
+      </c>
+      <c r="AM35">
+        <v>1.83</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>0.5</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35">
+        <v>1.51</v>
+      </c>
+      <c r="AS35">
+        <v>1.9</v>
+      </c>
+      <c r="AT35">
+        <v>3.41</v>
+      </c>
+      <c r="AU35">
+        <v>7</v>
+      </c>
+      <c r="AV35">
+        <v>6</v>
+      </c>
+      <c r="AW35">
+        <v>11</v>
+      </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>23</v>
+      </c>
+      <c r="AZ35">
+        <v>14</v>
+      </c>
+      <c r="BA35">
+        <v>7</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>10</v>
+      </c>
+      <c r="BD35">
+        <v>1.61</v>
+      </c>
+      <c r="BE35">
+        <v>6.75</v>
+      </c>
+      <c r="BF35">
+        <v>2.55</v>
+      </c>
+      <c r="BG35">
+        <v>1.19</v>
+      </c>
+      <c r="BH35">
+        <v>4.1</v>
+      </c>
+      <c r="BI35">
+        <v>1.33</v>
+      </c>
+      <c r="BJ35">
+        <v>2.95</v>
+      </c>
+      <c r="BK35">
+        <v>1.54</v>
+      </c>
+      <c r="BL35">
+        <v>2.28</v>
+      </c>
+      <c r="BM35">
+        <v>1.86</v>
+      </c>
+      <c r="BN35">
+        <v>1.82</v>
+      </c>
+      <c r="BO35">
+        <v>2.32</v>
+      </c>
+      <c r="BP35">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7785208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45774.59375</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>8</v>
+      </c>
+      <c r="O36" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q36">
+        <v>2.2</v>
+      </c>
+      <c r="R36">
+        <v>2.3</v>
+      </c>
+      <c r="S36">
+        <v>4.33</v>
+      </c>
+      <c r="T36">
+        <v>1.28</v>
+      </c>
+      <c r="U36">
+        <v>3.3</v>
+      </c>
+      <c r="V36">
+        <v>2.25</v>
+      </c>
+      <c r="W36">
+        <v>1.57</v>
+      </c>
+      <c r="X36">
+        <v>5.1</v>
+      </c>
+      <c r="Y36">
+        <v>1.1</v>
+      </c>
+      <c r="Z36">
+        <v>1.75</v>
+      </c>
+      <c r="AA36">
+        <v>3.94</v>
+      </c>
+      <c r="AB36">
+        <v>4.1</v>
+      </c>
+      <c r="AC36">
+        <v>1.03</v>
+      </c>
+      <c r="AD36">
+        <v>11</v>
+      </c>
+      <c r="AE36">
+        <v>1.18</v>
+      </c>
+      <c r="AF36">
+        <v>4.75</v>
+      </c>
+      <c r="AG36">
+        <v>1.65</v>
+      </c>
+      <c r="AH36">
+        <v>2.05</v>
+      </c>
+      <c r="AI36">
+        <v>1.53</v>
+      </c>
+      <c r="AJ36">
+        <v>2.3</v>
+      </c>
+      <c r="AK36">
+        <v>1.2</v>
+      </c>
+      <c r="AL36">
+        <v>1.2</v>
+      </c>
+      <c r="AM36">
+        <v>2.05</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>2.33</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5</v>
+      </c>
+      <c r="AR36">
+        <v>2</v>
+      </c>
+      <c r="AS36">
+        <v>0.57</v>
+      </c>
+      <c r="AT36">
+        <v>2.57</v>
+      </c>
+      <c r="AU36">
+        <v>10</v>
+      </c>
+      <c r="AV36">
+        <v>7</v>
+      </c>
+      <c r="AW36">
+        <v>13</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>24</v>
+      </c>
+      <c r="AZ36">
+        <v>12</v>
+      </c>
+      <c r="BA36">
+        <v>11</v>
+      </c>
+      <c r="BB36">
+        <v>2</v>
+      </c>
+      <c r="BC36">
+        <v>13</v>
+      </c>
+      <c r="BD36">
+        <v>1.63</v>
+      </c>
+      <c r="BE36">
+        <v>6.75</v>
+      </c>
+      <c r="BF36">
+        <v>2.55</v>
+      </c>
+      <c r="BG36">
+        <v>1.28</v>
+      </c>
+      <c r="BH36">
+        <v>3.2</v>
+      </c>
+      <c r="BI36">
+        <v>1.49</v>
+      </c>
+      <c r="BJ36">
+        <v>2.4</v>
+      </c>
+      <c r="BK36">
+        <v>1.79</v>
+      </c>
+      <c r="BL36">
+        <v>1.9</v>
+      </c>
+      <c r="BM36">
+        <v>2.23</v>
+      </c>
+      <c r="BN36">
+        <v>1.56</v>
+      </c>
+      <c r="BO36">
+        <v>2.9</v>
+      </c>
+      <c r="BP36">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -7139,13 +7139,13 @@
         <v>13</v>
       </c>
       <c r="BA31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB31">
         <v>0</v>
       </c>
       <c r="BC31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD31">
         <v>1.29</v>
@@ -7757,13 +7757,13 @@
         <v>17</v>
       </c>
       <c r="BA34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB34">
         <v>5</v>
       </c>
       <c r="BC34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD34">
         <v>1.53</v>
@@ -7951,16 +7951,16 @@
         <v>6</v>
       </c>
       <c r="AW35">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY35">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA35">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,9 @@
     <t>['53', '57', '90+4', '90+6']</t>
   </si>
   <si>
+    <t>['21', '45+6', '62', '90+2', '90+4']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -434,6 +437,9 @@
   </si>
   <si>
     <t>['9', '47', '55', '90+8']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1060,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1466,7 +1472,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1672,7 +1678,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1878,7 +1884,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2084,7 +2090,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2496,7 +2502,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3114,7 +3120,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3320,7 +3326,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3732,7 +3738,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3938,7 +3944,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4144,7 +4150,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4222,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4556,7 +4562,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4634,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4762,7 +4768,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4968,7 +4974,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5174,7 +5180,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5380,7 +5386,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5586,7 +5592,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5792,7 +5798,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5998,7 +6004,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6204,7 +6210,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6410,7 +6416,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7028,7 +7034,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7440,7 +7446,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7852,7 +7858,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8058,7 +8064,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8136,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36">
         <v>0.5</v>
@@ -8215,6 +8221,212 @@
       </c>
       <c r="BP36">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7785209</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45777.54166666666</v>
+      </c>
+      <c r="F37">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q37">
+        <v>1.73</v>
+      </c>
+      <c r="R37">
+        <v>2.88</v>
+      </c>
+      <c r="S37">
+        <v>7</v>
+      </c>
+      <c r="T37">
+        <v>1.22</v>
+      </c>
+      <c r="U37">
+        <v>4</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>1.73</v>
+      </c>
+      <c r="X37">
+        <v>4.33</v>
+      </c>
+      <c r="Y37">
+        <v>1.2</v>
+      </c>
+      <c r="Z37">
+        <v>1.33</v>
+      </c>
+      <c r="AA37">
+        <v>5.3</v>
+      </c>
+      <c r="AB37">
+        <v>7.6</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>17</v>
+      </c>
+      <c r="AE37">
+        <v>1.12</v>
+      </c>
+      <c r="AF37">
+        <v>5.75</v>
+      </c>
+      <c r="AG37">
+        <v>1.41</v>
+      </c>
+      <c r="AH37">
+        <v>2.78</v>
+      </c>
+      <c r="AI37">
+        <v>1.7</v>
+      </c>
+      <c r="AJ37">
+        <v>2.05</v>
+      </c>
+      <c r="AK37">
+        <v>1.06</v>
+      </c>
+      <c r="AL37">
+        <v>1.12</v>
+      </c>
+      <c r="AM37">
+        <v>3.7</v>
+      </c>
+      <c r="AN37">
+        <v>2.33</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>2.5</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>2.25</v>
+      </c>
+      <c r="AS37">
+        <v>1.13</v>
+      </c>
+      <c r="AT37">
+        <v>3.38</v>
+      </c>
+      <c r="AU37">
+        <v>11</v>
+      </c>
+      <c r="AV37">
+        <v>2</v>
+      </c>
+      <c r="AW37">
+        <v>23</v>
+      </c>
+      <c r="AX37">
+        <v>5</v>
+      </c>
+      <c r="AY37">
+        <v>40</v>
+      </c>
+      <c r="AZ37">
+        <v>8</v>
+      </c>
+      <c r="BA37">
+        <v>14</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
+        <v>17</v>
+      </c>
+      <c r="BD37">
+        <v>1.15</v>
+      </c>
+      <c r="BE37">
+        <v>13</v>
+      </c>
+      <c r="BF37">
+        <v>5.5</v>
+      </c>
+      <c r="BG37">
+        <v>1.13</v>
+      </c>
+      <c r="BH37">
+        <v>4.9</v>
+      </c>
+      <c r="BI37">
+        <v>1.2</v>
+      </c>
+      <c r="BJ37">
+        <v>4</v>
+      </c>
+      <c r="BK37">
+        <v>1.37</v>
+      </c>
+      <c r="BL37">
+        <v>2.75</v>
+      </c>
+      <c r="BM37">
+        <v>1.65</v>
+      </c>
+      <c r="BN37">
+        <v>2.05</v>
+      </c>
+      <c r="BO37">
+        <v>2.05</v>
+      </c>
+      <c r="BP37">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['21', '45+6', '62', '90+2', '90+4']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -440,6 +443,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1066,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1472,7 +1478,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1678,7 +1684,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1884,7 +1890,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2090,7 +2096,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2502,7 +2508,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2992,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3120,7 +3126,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3326,7 +3332,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3738,7 +3744,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3944,7 +3950,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4150,7 +4156,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4562,7 +4568,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4768,7 +4774,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4974,7 +4980,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5180,7 +5186,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5386,7 +5392,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5592,7 +5598,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5798,7 +5804,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6004,7 +6010,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6210,7 +6216,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6416,7 +6422,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6700,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7034,7 +7040,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7446,7 +7452,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7858,7 +7864,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8064,7 +8070,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8270,7 +8276,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8427,6 +8433,212 @@
       </c>
       <c r="BP37">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7785211</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45778.54166666666</v>
+      </c>
+      <c r="F38">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q38">
+        <v>1.73</v>
+      </c>
+      <c r="R38">
+        <v>2.75</v>
+      </c>
+      <c r="S38">
+        <v>7.5</v>
+      </c>
+      <c r="T38">
+        <v>1.25</v>
+      </c>
+      <c r="U38">
+        <v>3.75</v>
+      </c>
+      <c r="V38">
+        <v>2.2</v>
+      </c>
+      <c r="W38">
+        <v>1.62</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Y38">
+        <v>1.17</v>
+      </c>
+      <c r="Z38">
+        <v>1.24</v>
+      </c>
+      <c r="AA38">
+        <v>6</v>
+      </c>
+      <c r="AB38">
+        <v>10</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>17</v>
+      </c>
+      <c r="AE38">
+        <v>1.14</v>
+      </c>
+      <c r="AF38">
+        <v>5.5</v>
+      </c>
+      <c r="AG38">
+        <v>1.47</v>
+      </c>
+      <c r="AH38">
+        <v>2.57</v>
+      </c>
+      <c r="AI38">
+        <v>1.8</v>
+      </c>
+      <c r="AJ38">
+        <v>1.95</v>
+      </c>
+      <c r="AK38">
+        <v>1.06</v>
+      </c>
+      <c r="AL38">
+        <v>1.13</v>
+      </c>
+      <c r="AM38">
+        <v>3.75</v>
+      </c>
+      <c r="AN38">
+        <v>2</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>1.67</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>1.75</v>
+      </c>
+      <c r="AS38">
+        <v>1.47</v>
+      </c>
+      <c r="AT38">
+        <v>3.22</v>
+      </c>
+      <c r="AU38">
+        <v>7</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>22</v>
+      </c>
+      <c r="AX38">
+        <v>1</v>
+      </c>
+      <c r="AY38">
+        <v>33</v>
+      </c>
+      <c r="AZ38">
+        <v>4</v>
+      </c>
+      <c r="BA38">
+        <v>15</v>
+      </c>
+      <c r="BB38">
+        <v>2</v>
+      </c>
+      <c r="BC38">
+        <v>17</v>
+      </c>
+      <c r="BD38">
+        <v>1.18</v>
+      </c>
+      <c r="BE38">
+        <v>13</v>
+      </c>
+      <c r="BF38">
+        <v>5</v>
+      </c>
+      <c r="BG38">
+        <v>1.1</v>
+      </c>
+      <c r="BH38">
+        <v>5.05</v>
+      </c>
+      <c r="BI38">
+        <v>1.25</v>
+      </c>
+      <c r="BJ38">
+        <v>3.4</v>
+      </c>
+      <c r="BK38">
+        <v>1.47</v>
+      </c>
+      <c r="BL38">
+        <v>2.4</v>
+      </c>
+      <c r="BM38">
+        <v>1.8</v>
+      </c>
+      <c r="BN38">
+        <v>1.83</v>
+      </c>
+      <c r="BO38">
+        <v>2.35</v>
+      </c>
+      <c r="BP38">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -807,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6915,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>2.59</v>
@@ -8596,10 +8596,10 @@
         <v>15</v>
       </c>
       <c r="BB38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD38">
         <v>1.18</v>
@@ -8639,6 +8639,212 @@
       </c>
       <c r="BP38">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7785212</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45779.58333333334</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q39">
+        <v>3.4</v>
+      </c>
+      <c r="R39">
+        <v>2.05</v>
+      </c>
+      <c r="S39">
+        <v>3.4</v>
+      </c>
+      <c r="T39">
+        <v>1.44</v>
+      </c>
+      <c r="U39">
+        <v>2.63</v>
+      </c>
+      <c r="V39">
+        <v>3.25</v>
+      </c>
+      <c r="W39">
+        <v>1.33</v>
+      </c>
+      <c r="X39">
+        <v>10</v>
+      </c>
+      <c r="Y39">
+        <v>1.06</v>
+      </c>
+      <c r="Z39">
+        <v>2.45</v>
+      </c>
+      <c r="AA39">
+        <v>3.35</v>
+      </c>
+      <c r="AB39">
+        <v>2.75</v>
+      </c>
+      <c r="AC39">
+        <v>2.61</v>
+      </c>
+      <c r="AD39">
+        <v>1.5</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>2.1</v>
+      </c>
+      <c r="AH39">
+        <v>1.61</v>
+      </c>
+      <c r="AI39">
+        <v>1.95</v>
+      </c>
+      <c r="AJ39">
+        <v>1.8</v>
+      </c>
+      <c r="AK39">
+        <v>1.46</v>
+      </c>
+      <c r="AL39">
+        <v>1.34</v>
+      </c>
+      <c r="AM39">
+        <v>1.52</v>
+      </c>
+      <c r="AN39">
+        <v>1.5</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>1.33</v>
+      </c>
+      <c r="AQ39">
+        <v>0.33</v>
+      </c>
+      <c r="AR39">
+        <v>1.22</v>
+      </c>
+      <c r="AS39">
+        <v>0.63</v>
+      </c>
+      <c r="AT39">
+        <v>1.85</v>
+      </c>
+      <c r="AU39">
+        <v>6</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>6</v>
+      </c>
+      <c r="AX39">
+        <v>12</v>
+      </c>
+      <c r="AY39">
+        <v>12</v>
+      </c>
+      <c r="AZ39">
+        <v>16</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>7</v>
+      </c>
+      <c r="BC39">
+        <v>7</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>1.71</v>
+      </c>
+      <c r="BL39">
+        <v>2.08</v>
+      </c>
+      <c r="BM39">
+        <v>2.14</v>
+      </c>
+      <c r="BN39">
+        <v>1.68</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,9 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['48', '53']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -446,6 +449,9 @@
   </si>
   <si>
     <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['4', '36', '81', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1353,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1478,7 +1484,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1556,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1684,7 +1690,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1890,7 +1896,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2096,7 +2102,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2508,7 +2514,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3126,7 +3132,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3332,7 +3338,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3744,7 +3750,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3950,7 +3956,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4156,7 +4162,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4568,7 +4574,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4774,7 +4780,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4980,7 +4986,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5186,7 +5192,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5264,7 +5270,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>3</v>
@@ -5392,7 +5398,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5473,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.32</v>
@@ -5598,7 +5604,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5804,7 +5810,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6010,7 +6016,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6216,7 +6222,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6422,7 +6428,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7040,7 +7046,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7452,7 +7458,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7864,7 +7870,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8070,7 +8076,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8276,7 +8282,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8482,7 +8488,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -8844,6 +8850,212 @@
         <v>0</v>
       </c>
       <c r="BP39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7785213</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45780.54166666666</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>6</v>
+      </c>
+      <c r="O40" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q40">
+        <v>3.4</v>
+      </c>
+      <c r="R40">
+        <v>2.3</v>
+      </c>
+      <c r="S40">
+        <v>2.88</v>
+      </c>
+      <c r="T40">
+        <v>1.3</v>
+      </c>
+      <c r="U40">
+        <v>3.4</v>
+      </c>
+      <c r="V40">
+        <v>2.5</v>
+      </c>
+      <c r="W40">
+        <v>1.5</v>
+      </c>
+      <c r="X40">
+        <v>6</v>
+      </c>
+      <c r="Y40">
+        <v>1.13</v>
+      </c>
+      <c r="Z40">
+        <v>2.65</v>
+      </c>
+      <c r="AA40">
+        <v>3.68</v>
+      </c>
+      <c r="AB40">
+        <v>2.38</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>1.65</v>
+      </c>
+      <c r="AH40">
+        <v>2.05</v>
+      </c>
+      <c r="AI40">
+        <v>1.62</v>
+      </c>
+      <c r="AJ40">
+        <v>2.2</v>
+      </c>
+      <c r="AK40">
+        <v>1.61</v>
+      </c>
+      <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.41</v>
+      </c>
+      <c r="AN40">
+        <v>1.5</v>
+      </c>
+      <c r="AO40">
+        <v>1.5</v>
+      </c>
+      <c r="AP40">
+        <v>1</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <v>2.08</v>
+      </c>
+      <c r="AS40">
+        <v>1.78</v>
+      </c>
+      <c r="AT40">
+        <v>3.86</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>7</v>
+      </c>
+      <c r="AW40">
+        <v>14</v>
+      </c>
+      <c r="AX40">
+        <v>4</v>
+      </c>
+      <c r="AY40">
+        <v>28</v>
+      </c>
+      <c r="AZ40">
+        <v>17</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>6</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,15 @@
     <t>['48', '53']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['43', '90+7']</t>
+  </si>
+  <si>
+    <t>['9', '63', '77']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -452,6 +461,12 @@
   </si>
   <si>
     <t>['4', '36', '81', '90+6']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['55', '87']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1087,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1484,7 +1499,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1690,7 +1705,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1771,7 +1786,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1896,7 +1911,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1977,7 +1992,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2102,7 +2117,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2180,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2386,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2514,7 +2529,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3004,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3132,7 +3147,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3338,7 +3353,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3750,7 +3765,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3956,7 +3971,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4162,7 +4177,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4240,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
         <v>0.33</v>
@@ -4574,7 +4589,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4652,10 +4667,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>2.02</v>
@@ -4780,7 +4795,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4986,7 +5001,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5064,10 +5079,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR21">
         <v>1.94</v>
@@ -5192,7 +5207,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5398,7 +5413,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5604,7 +5619,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5810,7 +5825,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5891,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.21</v>
@@ -6016,7 +6031,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6222,7 +6237,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6303,7 +6318,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6428,7 +6443,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6506,7 +6521,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -6712,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7046,7 +7061,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7458,7 +7473,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7870,7 +7885,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8076,7 +8091,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8154,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36">
         <v>0.5</v>
@@ -8282,7 +8297,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8360,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8488,7 +8503,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -8566,10 +8581,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>1.75</v>
@@ -8900,7 +8915,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9057,6 +9072,1036 @@
       </c>
       <c r="BP40">
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7785217</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45781.5</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q41">
+        <v>2.25</v>
+      </c>
+      <c r="R41">
+        <v>2.63</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>1.2</v>
+      </c>
+      <c r="U41">
+        <v>4.33</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>1.73</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>1.22</v>
+      </c>
+      <c r="Z41">
+        <v>1.75</v>
+      </c>
+      <c r="AA41">
+        <v>4.2</v>
+      </c>
+      <c r="AB41">
+        <v>3.86</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>17</v>
+      </c>
+      <c r="AE41">
+        <v>1.12</v>
+      </c>
+      <c r="AF41">
+        <v>5.75</v>
+      </c>
+      <c r="AG41">
+        <v>1.37</v>
+      </c>
+      <c r="AH41">
+        <v>2.94</v>
+      </c>
+      <c r="AI41">
+        <v>1.4</v>
+      </c>
+      <c r="AJ41">
+        <v>2.75</v>
+      </c>
+      <c r="AK41">
+        <v>1.27</v>
+      </c>
+      <c r="AL41">
+        <v>1.21</v>
+      </c>
+      <c r="AM41">
+        <v>1.95</v>
+      </c>
+      <c r="AN41">
+        <v>2.5</v>
+      </c>
+      <c r="AO41">
+        <v>3</v>
+      </c>
+      <c r="AP41">
+        <v>2.2</v>
+      </c>
+      <c r="AQ41">
+        <v>2.33</v>
+      </c>
+      <c r="AR41">
+        <v>2.65</v>
+      </c>
+      <c r="AS41">
+        <v>1.7</v>
+      </c>
+      <c r="AT41">
+        <v>4.35</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>11</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>21</v>
+      </c>
+      <c r="AZ41">
+        <v>12</v>
+      </c>
+      <c r="BA41">
+        <v>11</v>
+      </c>
+      <c r="BB41">
+        <v>4</v>
+      </c>
+      <c r="BC41">
+        <v>15</v>
+      </c>
+      <c r="BD41">
+        <v>1.58</v>
+      </c>
+      <c r="BE41">
+        <v>6.75</v>
+      </c>
+      <c r="BF41">
+        <v>2.63</v>
+      </c>
+      <c r="BG41">
+        <v>1.24</v>
+      </c>
+      <c r="BH41">
+        <v>3.55</v>
+      </c>
+      <c r="BI41">
+        <v>1.42</v>
+      </c>
+      <c r="BJ41">
+        <v>2.65</v>
+      </c>
+      <c r="BK41">
+        <v>1.68</v>
+      </c>
+      <c r="BL41">
+        <v>2.05</v>
+      </c>
+      <c r="BM41">
+        <v>2.07</v>
+      </c>
+      <c r="BN41">
+        <v>1.66</v>
+      </c>
+      <c r="BO41">
+        <v>2.65</v>
+      </c>
+      <c r="BP41">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7785216</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45781.5</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q42">
+        <v>2.4</v>
+      </c>
+      <c r="R42">
+        <v>2.3</v>
+      </c>
+      <c r="S42">
+        <v>4.33</v>
+      </c>
+      <c r="T42">
+        <v>1.33</v>
+      </c>
+      <c r="U42">
+        <v>3.25</v>
+      </c>
+      <c r="V42">
+        <v>2.63</v>
+      </c>
+      <c r="W42">
+        <v>1.44</v>
+      </c>
+      <c r="X42">
+        <v>6.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.11</v>
+      </c>
+      <c r="Z42">
+        <v>1.78</v>
+      </c>
+      <c r="AA42">
+        <v>4</v>
+      </c>
+      <c r="AB42">
+        <v>3.82</v>
+      </c>
+      <c r="AC42">
+        <v>1.04</v>
+      </c>
+      <c r="AD42">
+        <v>10</v>
+      </c>
+      <c r="AE42">
+        <v>1.25</v>
+      </c>
+      <c r="AF42">
+        <v>3.85</v>
+      </c>
+      <c r="AG42">
+        <v>1.73</v>
+      </c>
+      <c r="AH42">
+        <v>1.95</v>
+      </c>
+      <c r="AI42">
+        <v>1.7</v>
+      </c>
+      <c r="AJ42">
+        <v>2.05</v>
+      </c>
+      <c r="AK42">
+        <v>1.23</v>
+      </c>
+      <c r="AL42">
+        <v>1.27</v>
+      </c>
+      <c r="AM42">
+        <v>1.9</v>
+      </c>
+      <c r="AN42">
+        <v>1.5</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.9</v>
+      </c>
+      <c r="AS42">
+        <v>1.71</v>
+      </c>
+      <c r="AT42">
+        <v>3.61</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>6</v>
+      </c>
+      <c r="AW42">
+        <v>10</v>
+      </c>
+      <c r="AX42">
+        <v>14</v>
+      </c>
+      <c r="AY42">
+        <v>10</v>
+      </c>
+      <c r="AZ42">
+        <v>22</v>
+      </c>
+      <c r="BA42">
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <v>2</v>
+      </c>
+      <c r="BC42">
+        <v>5</v>
+      </c>
+      <c r="BD42">
+        <v>1.58</v>
+      </c>
+      <c r="BE42">
+        <v>6.75</v>
+      </c>
+      <c r="BF42">
+        <v>2.55</v>
+      </c>
+      <c r="BG42">
+        <v>1.28</v>
+      </c>
+      <c r="BH42">
+        <v>3.3</v>
+      </c>
+      <c r="BI42">
+        <v>1.48</v>
+      </c>
+      <c r="BJ42">
+        <v>2.43</v>
+      </c>
+      <c r="BK42">
+        <v>1.77</v>
+      </c>
+      <c r="BL42">
+        <v>1.92</v>
+      </c>
+      <c r="BM42">
+        <v>2.2</v>
+      </c>
+      <c r="BN42">
+        <v>1.58</v>
+      </c>
+      <c r="BO42">
+        <v>2.8</v>
+      </c>
+      <c r="BP42">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7785215</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45781.5</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q43">
+        <v>2.1</v>
+      </c>
+      <c r="R43">
+        <v>2.4</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>1.29</v>
+      </c>
+      <c r="U43">
+        <v>3.5</v>
+      </c>
+      <c r="V43">
+        <v>2.38</v>
+      </c>
+      <c r="W43">
+        <v>1.53</v>
+      </c>
+      <c r="X43">
+        <v>5.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.14</v>
+      </c>
+      <c r="Z43">
+        <v>1.59</v>
+      </c>
+      <c r="AA43">
+        <v>4.2</v>
+      </c>
+      <c r="AB43">
+        <v>4.9</v>
+      </c>
+      <c r="AC43">
+        <v>1.03</v>
+      </c>
+      <c r="AD43">
+        <v>11</v>
+      </c>
+      <c r="AE43">
+        <v>1.2</v>
+      </c>
+      <c r="AF43">
+        <v>4.5</v>
+      </c>
+      <c r="AG43">
+        <v>1.55</v>
+      </c>
+      <c r="AH43">
+        <v>2.2</v>
+      </c>
+      <c r="AI43">
+        <v>1.67</v>
+      </c>
+      <c r="AJ43">
+        <v>2.1</v>
+      </c>
+      <c r="AK43">
+        <v>1.18</v>
+      </c>
+      <c r="AL43">
+        <v>1.22</v>
+      </c>
+      <c r="AM43">
+        <v>2.25</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>1.4</v>
+      </c>
+      <c r="AR43">
+        <v>1.63</v>
+      </c>
+      <c r="AS43">
+        <v>1.25</v>
+      </c>
+      <c r="AT43">
+        <v>2.88</v>
+      </c>
+      <c r="AU43">
+        <v>8</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>8</v>
+      </c>
+      <c r="AX43">
+        <v>9</v>
+      </c>
+      <c r="AY43">
+        <v>16</v>
+      </c>
+      <c r="AZ43">
+        <v>15</v>
+      </c>
+      <c r="BA43">
+        <v>9</v>
+      </c>
+      <c r="BB43">
+        <v>4</v>
+      </c>
+      <c r="BC43">
+        <v>13</v>
+      </c>
+      <c r="BD43">
+        <v>1.45</v>
+      </c>
+      <c r="BE43">
+        <v>7</v>
+      </c>
+      <c r="BF43">
+        <v>3.05</v>
+      </c>
+      <c r="BG43">
+        <v>1.14</v>
+      </c>
+      <c r="BH43">
+        <v>4.8</v>
+      </c>
+      <c r="BI43">
+        <v>1.26</v>
+      </c>
+      <c r="BJ43">
+        <v>3.4</v>
+      </c>
+      <c r="BK43">
+        <v>1.44</v>
+      </c>
+      <c r="BL43">
+        <v>2.55</v>
+      </c>
+      <c r="BM43">
+        <v>1.68</v>
+      </c>
+      <c r="BN43">
+        <v>2.05</v>
+      </c>
+      <c r="BO43">
+        <v>2.05</v>
+      </c>
+      <c r="BP43">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7785214</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45781.5</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q44">
+        <v>1.73</v>
+      </c>
+      <c r="R44">
+        <v>2.75</v>
+      </c>
+      <c r="S44">
+        <v>8</v>
+      </c>
+      <c r="T44">
+        <v>1.25</v>
+      </c>
+      <c r="U44">
+        <v>3.75</v>
+      </c>
+      <c r="V44">
+        <v>2.1</v>
+      </c>
+      <c r="W44">
+        <v>1.67</v>
+      </c>
+      <c r="X44">
+        <v>5</v>
+      </c>
+      <c r="Y44">
+        <v>1.17</v>
+      </c>
+      <c r="Z44">
+        <v>1.26</v>
+      </c>
+      <c r="AA44">
+        <v>5.7</v>
+      </c>
+      <c r="AB44">
+        <v>10</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>3.04</v>
+      </c>
+      <c r="AF44">
+        <v>1.39</v>
+      </c>
+      <c r="AG44">
+        <v>1.52</v>
+      </c>
+      <c r="AH44">
+        <v>2.43</v>
+      </c>
+      <c r="AI44">
+        <v>1.8</v>
+      </c>
+      <c r="AJ44">
+        <v>1.95</v>
+      </c>
+      <c r="AK44">
+        <v>1.06</v>
+      </c>
+      <c r="AL44">
+        <v>1.14</v>
+      </c>
+      <c r="AM44">
+        <v>3.93</v>
+      </c>
+      <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>1.46</v>
+      </c>
+      <c r="AS44">
+        <v>1</v>
+      </c>
+      <c r="AT44">
+        <v>2.46</v>
+      </c>
+      <c r="AU44">
+        <v>9</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>7</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>16</v>
+      </c>
+      <c r="AZ44">
+        <v>8</v>
+      </c>
+      <c r="BA44">
+        <v>5</v>
+      </c>
+      <c r="BB44">
+        <v>3</v>
+      </c>
+      <c r="BC44">
+        <v>8</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7785218</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45781.59375</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q45">
+        <v>1.73</v>
+      </c>
+      <c r="R45">
+        <v>2.75</v>
+      </c>
+      <c r="S45">
+        <v>7.5</v>
+      </c>
+      <c r="T45">
+        <v>1.25</v>
+      </c>
+      <c r="U45">
+        <v>3.75</v>
+      </c>
+      <c r="V45">
+        <v>2.1</v>
+      </c>
+      <c r="W45">
+        <v>1.67</v>
+      </c>
+      <c r="X45">
+        <v>4.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.18</v>
+      </c>
+      <c r="Z45">
+        <v>1.27</v>
+      </c>
+      <c r="AA45">
+        <v>5.6</v>
+      </c>
+      <c r="AB45">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>17</v>
+      </c>
+      <c r="AE45">
+        <v>1.15</v>
+      </c>
+      <c r="AF45">
+        <v>5.25</v>
+      </c>
+      <c r="AG45">
+        <v>1.46</v>
+      </c>
+      <c r="AH45">
+        <v>2.52</v>
+      </c>
+      <c r="AI45">
+        <v>1.8</v>
+      </c>
+      <c r="AJ45">
+        <v>1.95</v>
+      </c>
+      <c r="AK45">
+        <v>1.07</v>
+      </c>
+      <c r="AL45">
+        <v>1.15</v>
+      </c>
+      <c r="AM45">
+        <v>3.25</v>
+      </c>
+      <c r="AN45">
+        <v>1.67</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>2.27</v>
+      </c>
+      <c r="AS45">
+        <v>1.37</v>
+      </c>
+      <c r="AT45">
+        <v>3.64</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>14</v>
+      </c>
+      <c r="AX45">
+        <v>6</v>
+      </c>
+      <c r="AY45">
+        <v>24</v>
+      </c>
+      <c r="AZ45">
+        <v>8</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>6</v>
+      </c>
+      <c r="BC45">
+        <v>11</v>
+      </c>
+      <c r="BD45">
+        <v>1.22</v>
+      </c>
+      <c r="BE45">
+        <v>8.5</v>
+      </c>
+      <c r="BF45">
+        <v>4.6</v>
+      </c>
+      <c r="BG45">
+        <v>1.23</v>
+      </c>
+      <c r="BH45">
+        <v>3.7</v>
+      </c>
+      <c r="BI45">
+        <v>1.38</v>
+      </c>
+      <c r="BJ45">
+        <v>2.7</v>
+      </c>
+      <c r="BK45">
+        <v>1.64</v>
+      </c>
+      <c r="BL45">
+        <v>2.1</v>
+      </c>
+      <c r="BM45">
+        <v>1.98</v>
+      </c>
+      <c r="BN45">
+        <v>1.72</v>
+      </c>
+      <c r="BO45">
+        <v>2.5</v>
+      </c>
+      <c r="BP45">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -9232,13 +9232,13 @@
         <v>12</v>
       </c>
       <c r="BA41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB41">
         <v>4</v>
       </c>
       <c r="BC41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD41">
         <v>1.58</v>
@@ -9441,10 +9441,10 @@
         <v>3</v>
       </c>
       <c r="BB42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD42">
         <v>1.58</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -828,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -4873,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>1.7</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -10102,6 +10102,212 @@
       </c>
       <c r="BP45">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7785220</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45788.39583333334</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>91</v>
+      </c>
+      <c r="P46" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q46">
+        <v>2.75</v>
+      </c>
+      <c r="R46">
+        <v>2.38</v>
+      </c>
+      <c r="S46">
+        <v>3.4</v>
+      </c>
+      <c r="T46">
+        <v>1.3</v>
+      </c>
+      <c r="U46">
+        <v>3.4</v>
+      </c>
+      <c r="V46">
+        <v>2.38</v>
+      </c>
+      <c r="W46">
+        <v>1.53</v>
+      </c>
+      <c r="X46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>1.13</v>
+      </c>
+      <c r="Z46">
+        <v>2.07</v>
+      </c>
+      <c r="AA46">
+        <v>3.57</v>
+      </c>
+      <c r="AB46">
+        <v>2.81</v>
+      </c>
+      <c r="AC46">
+        <v>1.04</v>
+      </c>
+      <c r="AD46">
+        <v>10</v>
+      </c>
+      <c r="AE46">
+        <v>1.2</v>
+      </c>
+      <c r="AF46">
+        <v>4.5</v>
+      </c>
+      <c r="AG46">
+        <v>1.55</v>
+      </c>
+      <c r="AH46">
+        <v>2.2</v>
+      </c>
+      <c r="AI46">
+        <v>1.57</v>
+      </c>
+      <c r="AJ46">
+        <v>2.25</v>
+      </c>
+      <c r="AK46">
+        <v>1.38</v>
+      </c>
+      <c r="AL46">
+        <v>1.22</v>
+      </c>
+      <c r="AM46">
+        <v>1.65</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <v>2.5</v>
+      </c>
+      <c r="AQ46">
+        <v>2.33</v>
+      </c>
+      <c r="AR46">
+        <v>1.95</v>
+      </c>
+      <c r="AS46">
+        <v>1.62</v>
+      </c>
+      <c r="AT46">
+        <v>3.57</v>
+      </c>
+      <c r="AU46">
+        <v>3</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>11</v>
+      </c>
+      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
+        <v>17</v>
+      </c>
+      <c r="AZ46">
+        <v>8</v>
+      </c>
+      <c r="BA46">
+        <v>8</v>
+      </c>
+      <c r="BB46">
+        <v>6</v>
+      </c>
+      <c r="BC46">
+        <v>14</v>
+      </c>
+      <c r="BD46">
+        <v>1.85</v>
+      </c>
+      <c r="BE46">
+        <v>8.5</v>
+      </c>
+      <c r="BF46">
+        <v>2.15</v>
+      </c>
+      <c r="BG46">
+        <v>1.14</v>
+      </c>
+      <c r="BH46">
+        <v>4.35</v>
+      </c>
+      <c r="BI46">
+        <v>1.3</v>
+      </c>
+      <c r="BJ46">
+        <v>2.97</v>
+      </c>
+      <c r="BK46">
+        <v>1.7</v>
+      </c>
+      <c r="BL46">
+        <v>2.05</v>
+      </c>
+      <c r="BM46">
+        <v>1.95</v>
+      </c>
+      <c r="BN46">
+        <v>1.77</v>
+      </c>
+      <c r="BO46">
+        <v>2.51</v>
+      </c>
+      <c r="BP46">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,18 @@
     <t>['9', '63', '77']</t>
   </si>
   <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['33', '76']</t>
+  </si>
+  <si>
+    <t>['15', '64', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -467,6 +479,21 @@
   </si>
   <si>
     <t>['55', '87']</t>
+  </si>
+  <si>
+    <t>['18', '37', '39']</t>
+  </si>
+  <si>
+    <t>['5', '90+2', '90+4']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['35', '45+2', '89', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1114,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1499,7 +1526,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1580,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1705,7 +1732,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1911,7 +1938,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1989,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2117,7 +2144,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2529,7 +2556,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2607,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3022,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3147,7 +3174,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3228,7 +3255,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3353,7 +3380,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3431,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3640,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3765,7 +3792,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3843,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -3971,7 +3998,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4049,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -4177,7 +4204,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4464,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0.92</v>
@@ -4589,7 +4616,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4795,7 +4822,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5001,7 +5028,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5207,7 +5234,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5413,7 +5440,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5619,7 +5646,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5697,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -5825,7 +5852,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6031,7 +6058,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6112,7 +6139,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>1.31</v>
@@ -6237,7 +6264,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6315,7 +6342,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>2.33</v>
@@ -6443,7 +6470,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6730,7 +6757,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7061,7 +7088,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7345,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7473,7 +7500,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7551,10 +7578,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.87</v>
@@ -7885,7 +7912,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -7963,7 +7990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8091,7 +8118,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8172,7 +8199,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>2</v>
@@ -8297,7 +8324,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8503,7 +8530,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -8915,7 +8942,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9327,7 +9354,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9533,7 +9560,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10308,6 +10335,1242 @@
       </c>
       <c r="BP46">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7785221</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45788.5</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>91</v>
+      </c>
+      <c r="P47" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>2.2</v>
+      </c>
+      <c r="S47">
+        <v>2.63</v>
+      </c>
+      <c r="T47">
+        <v>1.36</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>1.1</v>
+      </c>
+      <c r="Z47">
+        <v>3.88</v>
+      </c>
+      <c r="AA47">
+        <v>3.55</v>
+      </c>
+      <c r="AB47">
+        <v>1.72</v>
+      </c>
+      <c r="AC47">
+        <v>1.05</v>
+      </c>
+      <c r="AD47">
+        <v>9</v>
+      </c>
+      <c r="AE47">
+        <v>1.3</v>
+      </c>
+      <c r="AF47">
+        <v>3.45</v>
+      </c>
+      <c r="AG47">
+        <v>1.79</v>
+      </c>
+      <c r="AH47">
+        <v>1.91</v>
+      </c>
+      <c r="AI47">
+        <v>1.75</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>1.7</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.3</v>
+      </c>
+      <c r="AN47">
+        <v>1.5</v>
+      </c>
+      <c r="AO47">
+        <v>0.5</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>1.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.44</v>
+      </c>
+      <c r="AS47">
+        <v>0.99</v>
+      </c>
+      <c r="AT47">
+        <v>2.43</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>7</v>
+      </c>
+      <c r="AW47">
+        <v>9</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>12</v>
+      </c>
+      <c r="AZ47">
+        <v>13</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>3</v>
+      </c>
+      <c r="BC47">
+        <v>7</v>
+      </c>
+      <c r="BD47">
+        <v>2.3</v>
+      </c>
+      <c r="BE47">
+        <v>8.5</v>
+      </c>
+      <c r="BF47">
+        <v>1.75</v>
+      </c>
+      <c r="BG47">
+        <v>1.2</v>
+      </c>
+      <c r="BH47">
+        <v>3.68</v>
+      </c>
+      <c r="BI47">
+        <v>1.41</v>
+      </c>
+      <c r="BJ47">
+        <v>2.6</v>
+      </c>
+      <c r="BK47">
+        <v>1.77</v>
+      </c>
+      <c r="BL47">
+        <v>1.93</v>
+      </c>
+      <c r="BM47">
+        <v>2.19</v>
+      </c>
+      <c r="BN47">
+        <v>1.57</v>
+      </c>
+      <c r="BO47">
+        <v>2.88</v>
+      </c>
+      <c r="BP47">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7785222</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45788.5</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>121</v>
+      </c>
+      <c r="P48" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q48">
+        <v>3.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>3.75</v>
+      </c>
+      <c r="T48">
+        <v>1.5</v>
+      </c>
+      <c r="U48">
+        <v>2.5</v>
+      </c>
+      <c r="V48">
+        <v>3.5</v>
+      </c>
+      <c r="W48">
+        <v>1.29</v>
+      </c>
+      <c r="X48">
+        <v>11</v>
+      </c>
+      <c r="Y48">
+        <v>1.05</v>
+      </c>
+      <c r="Z48">
+        <v>2.39</v>
+      </c>
+      <c r="AA48">
+        <v>2.95</v>
+      </c>
+      <c r="AB48">
+        <v>2.77</v>
+      </c>
+      <c r="AC48">
+        <v>1.08</v>
+      </c>
+      <c r="AD48">
+        <v>7.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.42</v>
+      </c>
+      <c r="AF48">
+        <v>2.8</v>
+      </c>
+      <c r="AG48">
+        <v>2.25</v>
+      </c>
+      <c r="AH48">
+        <v>1.53</v>
+      </c>
+      <c r="AI48">
+        <v>2</v>
+      </c>
+      <c r="AJ48">
+        <v>1.75</v>
+      </c>
+      <c r="AK48">
+        <v>1.38</v>
+      </c>
+      <c r="AL48">
+        <v>1.3</v>
+      </c>
+      <c r="AM48">
+        <v>1.53</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>1.33</v>
+      </c>
+      <c r="AR48">
+        <v>1.22</v>
+      </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <v>2.22</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>6</v>
+      </c>
+      <c r="AZ48">
+        <v>11</v>
+      </c>
+      <c r="BA48">
+        <v>2</v>
+      </c>
+      <c r="BB48">
+        <v>5</v>
+      </c>
+      <c r="BC48">
+        <v>7</v>
+      </c>
+      <c r="BD48">
+        <v>1.73</v>
+      </c>
+      <c r="BE48">
+        <v>8</v>
+      </c>
+      <c r="BF48">
+        <v>2.38</v>
+      </c>
+      <c r="BG48">
+        <v>1.32</v>
+      </c>
+      <c r="BH48">
+        <v>2.88</v>
+      </c>
+      <c r="BI48">
+        <v>1.7</v>
+      </c>
+      <c r="BJ48">
+        <v>2.05</v>
+      </c>
+      <c r="BK48">
+        <v>2</v>
+      </c>
+      <c r="BL48">
+        <v>1.73</v>
+      </c>
+      <c r="BM48">
+        <v>2.71</v>
+      </c>
+      <c r="BN48">
+        <v>1.38</v>
+      </c>
+      <c r="BO48">
+        <v>3.78</v>
+      </c>
+      <c r="BP48">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7785223</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45788.5</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q49">
+        <v>3.4</v>
+      </c>
+      <c r="R49">
+        <v>2.1</v>
+      </c>
+      <c r="S49">
+        <v>3.2</v>
+      </c>
+      <c r="T49">
+        <v>1.44</v>
+      </c>
+      <c r="U49">
+        <v>2.63</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>1.36</v>
+      </c>
+      <c r="X49">
+        <v>9</v>
+      </c>
+      <c r="Y49">
+        <v>1.07</v>
+      </c>
+      <c r="Z49">
+        <v>2.49</v>
+      </c>
+      <c r="AA49">
+        <v>3.3</v>
+      </c>
+      <c r="AB49">
+        <v>2.4</v>
+      </c>
+      <c r="AC49">
+        <v>1.06</v>
+      </c>
+      <c r="AD49">
+        <v>8.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.33</v>
+      </c>
+      <c r="AF49">
+        <v>3.25</v>
+      </c>
+      <c r="AG49">
+        <v>1.9</v>
+      </c>
+      <c r="AH49">
+        <v>1.8</v>
+      </c>
+      <c r="AI49">
+        <v>1.91</v>
+      </c>
+      <c r="AJ49">
+        <v>1.91</v>
+      </c>
+      <c r="AK49">
+        <v>1.53</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>1.42</v>
+      </c>
+      <c r="AN49">
+        <v>1.5</v>
+      </c>
+      <c r="AO49">
+        <v>0.5</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.56</v>
+      </c>
+      <c r="AS49">
+        <v>1.2</v>
+      </c>
+      <c r="AT49">
+        <v>2.76</v>
+      </c>
+      <c r="AU49">
+        <v>2</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>6</v>
+      </c>
+      <c r="AX49">
+        <v>6</v>
+      </c>
+      <c r="AY49">
+        <v>10</v>
+      </c>
+      <c r="AZ49">
+        <v>11</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>5</v>
+      </c>
+      <c r="BD49">
+        <v>2.05</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>1.95</v>
+      </c>
+      <c r="BG49">
+        <v>1.16</v>
+      </c>
+      <c r="BH49">
+        <v>4.15</v>
+      </c>
+      <c r="BI49">
+        <v>1.33</v>
+      </c>
+      <c r="BJ49">
+        <v>2.83</v>
+      </c>
+      <c r="BK49">
+        <v>1.7</v>
+      </c>
+      <c r="BL49">
+        <v>2.05</v>
+      </c>
+      <c r="BM49">
+        <v>2.05</v>
+      </c>
+      <c r="BN49">
+        <v>1.7</v>
+      </c>
+      <c r="BO49">
+        <v>2.6</v>
+      </c>
+      <c r="BP49">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7785224</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45788.5</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q50">
+        <v>2.88</v>
+      </c>
+      <c r="R50">
+        <v>2.3</v>
+      </c>
+      <c r="S50">
+        <v>3.25</v>
+      </c>
+      <c r="T50">
+        <v>1.3</v>
+      </c>
+      <c r="U50">
+        <v>3.4</v>
+      </c>
+      <c r="V50">
+        <v>2.5</v>
+      </c>
+      <c r="W50">
+        <v>1.5</v>
+      </c>
+      <c r="X50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>1.13</v>
+      </c>
+      <c r="Z50">
+        <v>2.27</v>
+      </c>
+      <c r="AA50">
+        <v>3.23</v>
+      </c>
+      <c r="AB50">
+        <v>2.71</v>
+      </c>
+      <c r="AC50">
+        <v>1.04</v>
+      </c>
+      <c r="AD50">
+        <v>10</v>
+      </c>
+      <c r="AE50">
+        <v>1.22</v>
+      </c>
+      <c r="AF50">
+        <v>4.2</v>
+      </c>
+      <c r="AG50">
+        <v>1.65</v>
+      </c>
+      <c r="AH50">
+        <v>2.05</v>
+      </c>
+      <c r="AI50">
+        <v>1.57</v>
+      </c>
+      <c r="AJ50">
+        <v>2.25</v>
+      </c>
+      <c r="AK50">
+        <v>1.4</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>1.57</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>1.33</v>
+      </c>
+      <c r="AP50">
+        <v>3</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>2.16</v>
+      </c>
+      <c r="AS50">
+        <v>1.26</v>
+      </c>
+      <c r="AT50">
+        <v>3.42</v>
+      </c>
+      <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>9</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
+        <v>16</v>
+      </c>
+      <c r="AZ50">
+        <v>8</v>
+      </c>
+      <c r="BA50">
+        <v>4</v>
+      </c>
+      <c r="BB50">
+        <v>7</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>1.8</v>
+      </c>
+      <c r="BE50">
+        <v>8.5</v>
+      </c>
+      <c r="BF50">
+        <v>2.2</v>
+      </c>
+      <c r="BG50">
+        <v>1.18</v>
+      </c>
+      <c r="BH50">
+        <v>3.9</v>
+      </c>
+      <c r="BI50">
+        <v>1.38</v>
+      </c>
+      <c r="BJ50">
+        <v>2.71</v>
+      </c>
+      <c r="BK50">
+        <v>1.7</v>
+      </c>
+      <c r="BL50">
+        <v>2.05</v>
+      </c>
+      <c r="BM50">
+        <v>2.1</v>
+      </c>
+      <c r="BN50">
+        <v>1.62</v>
+      </c>
+      <c r="BO50">
+        <v>2.74</v>
+      </c>
+      <c r="BP50">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7785225</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45788.5</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P51" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>2.5</v>
+      </c>
+      <c r="S51">
+        <v>5.5</v>
+      </c>
+      <c r="T51">
+        <v>1.29</v>
+      </c>
+      <c r="U51">
+        <v>3.5</v>
+      </c>
+      <c r="V51">
+        <v>2.25</v>
+      </c>
+      <c r="W51">
+        <v>1.57</v>
+      </c>
+      <c r="X51">
+        <v>5.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.14</v>
+      </c>
+      <c r="Z51">
+        <v>1.5</v>
+      </c>
+      <c r="AA51">
+        <v>3.97</v>
+      </c>
+      <c r="AB51">
+        <v>5</v>
+      </c>
+      <c r="AC51">
+        <v>1.03</v>
+      </c>
+      <c r="AD51">
+        <v>11</v>
+      </c>
+      <c r="AE51">
+        <v>1.18</v>
+      </c>
+      <c r="AF51">
+        <v>4.75</v>
+      </c>
+      <c r="AG51">
+        <v>1.57</v>
+      </c>
+      <c r="AH51">
+        <v>2.15</v>
+      </c>
+      <c r="AI51">
+        <v>1.7</v>
+      </c>
+      <c r="AJ51">
+        <v>2.05</v>
+      </c>
+      <c r="AK51">
+        <v>1.14</v>
+      </c>
+      <c r="AL51">
+        <v>1.17</v>
+      </c>
+      <c r="AM51">
+        <v>2.45</v>
+      </c>
+      <c r="AN51">
+        <v>0.5</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>1.33</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>1.64</v>
+      </c>
+      <c r="AS51">
+        <v>1.23</v>
+      </c>
+      <c r="AT51">
+        <v>2.87</v>
+      </c>
+      <c r="AU51">
+        <v>9</v>
+      </c>
+      <c r="AV51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>10</v>
+      </c>
+      <c r="AX51">
+        <v>4</v>
+      </c>
+      <c r="AY51">
+        <v>21</v>
+      </c>
+      <c r="AZ51">
+        <v>9</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
+        <v>3</v>
+      </c>
+      <c r="BC51">
+        <v>7</v>
+      </c>
+      <c r="BD51">
+        <v>1.44</v>
+      </c>
+      <c r="BE51">
+        <v>10</v>
+      </c>
+      <c r="BF51">
+        <v>3</v>
+      </c>
+      <c r="BG51">
+        <v>1.14</v>
+      </c>
+      <c r="BH51">
+        <v>4.8</v>
+      </c>
+      <c r="BI51">
+        <v>1.18</v>
+      </c>
+      <c r="BJ51">
+        <v>3.84</v>
+      </c>
+      <c r="BK51">
+        <v>1.36</v>
+      </c>
+      <c r="BL51">
+        <v>2.7</v>
+      </c>
+      <c r="BM51">
+        <v>1.64</v>
+      </c>
+      <c r="BN51">
+        <v>2.07</v>
+      </c>
+      <c r="BO51">
+        <v>1.93</v>
+      </c>
+      <c r="BP51">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7785226</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45788.59375</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
+      <c r="H52" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52" t="s">
+        <v>124</v>
+      </c>
+      <c r="P52" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+      <c r="R52">
+        <v>2.63</v>
+      </c>
+      <c r="S52">
+        <v>1.95</v>
+      </c>
+      <c r="T52">
+        <v>1.22</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+      <c r="V52">
+        <v>2.1</v>
+      </c>
+      <c r="W52">
+        <v>1.67</v>
+      </c>
+      <c r="X52">
+        <v>4.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.18</v>
+      </c>
+      <c r="Z52">
+        <v>5.1</v>
+      </c>
+      <c r="AA52">
+        <v>4.33</v>
+      </c>
+      <c r="AB52">
+        <v>1.44</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>15</v>
+      </c>
+      <c r="AE52">
+        <v>1.15</v>
+      </c>
+      <c r="AF52">
+        <v>5.25</v>
+      </c>
+      <c r="AG52">
+        <v>1.5</v>
+      </c>
+      <c r="AH52">
+        <v>2.48</v>
+      </c>
+      <c r="AI52">
+        <v>1.57</v>
+      </c>
+      <c r="AJ52">
+        <v>2.25</v>
+      </c>
+      <c r="AK52">
+        <v>2.4</v>
+      </c>
+      <c r="AL52">
+        <v>1.17</v>
+      </c>
+      <c r="AM52">
+        <v>1.15</v>
+      </c>
+      <c r="AN52">
+        <v>0.5</v>
+      </c>
+      <c r="AO52">
+        <v>1.5</v>
+      </c>
+      <c r="AP52">
+        <v>0.33</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AR52">
+        <v>1.29</v>
+      </c>
+      <c r="AS52">
+        <v>2.3</v>
+      </c>
+      <c r="AT52">
+        <v>3.59</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>7</v>
+      </c>
+      <c r="AW52">
+        <v>5</v>
+      </c>
+      <c r="AX52">
+        <v>8</v>
+      </c>
+      <c r="AY52">
+        <v>11</v>
+      </c>
+      <c r="AZ52">
+        <v>21</v>
+      </c>
+      <c r="BA52">
+        <v>3</v>
+      </c>
+      <c r="BB52">
+        <v>7</v>
+      </c>
+      <c r="BC52">
+        <v>10</v>
+      </c>
+      <c r="BD52">
+        <v>3.75</v>
+      </c>
+      <c r="BE52">
+        <v>11</v>
+      </c>
+      <c r="BF52">
+        <v>1.3</v>
+      </c>
+      <c r="BG52">
+        <v>1.13</v>
+      </c>
+      <c r="BH52">
+        <v>4.9</v>
+      </c>
+      <c r="BI52">
+        <v>1.16</v>
+      </c>
+      <c r="BJ52">
+        <v>4.15</v>
+      </c>
+      <c r="BK52">
+        <v>1.31</v>
+      </c>
+      <c r="BL52">
+        <v>2.92</v>
+      </c>
+      <c r="BM52">
+        <v>1.56</v>
+      </c>
+      <c r="BN52">
+        <v>2.21</v>
+      </c>
+      <c r="BO52">
+        <v>1.85</v>
+      </c>
+      <c r="BP52">
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -11116,10 +11116,10 @@
         <v>4</v>
       </c>
       <c r="BB50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD50">
         <v>1.8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,18 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['46', '79', '90+3']</t>
+  </si>
+  <si>
+    <t>['57', '90+3']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -494,6 +506,21 @@
   </si>
   <si>
     <t>['35', '45+2', '89', '90+7']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['6', '69']</t>
+  </si>
+  <si>
+    <t>['30', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1141,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1526,7 +1553,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1732,7 +1759,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1813,7 +1840,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1938,7 +1965,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2019,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2144,7 +2171,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2222,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2428,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2556,7 +2583,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2637,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3046,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3174,7 +3201,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3252,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3380,7 +3407,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3792,7 +3819,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3998,7 +4025,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4079,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4204,7 +4231,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4282,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4616,7 +4643,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4694,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>2.02</v>
@@ -4822,7 +4849,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4900,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -5028,7 +5055,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5106,10 +5133,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR21">
         <v>1.94</v>
@@ -5234,7 +5261,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5440,7 +5467,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5646,7 +5673,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5852,7 +5879,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5933,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1.21</v>
@@ -6058,7 +6085,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6264,7 +6291,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6345,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6470,7 +6497,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6548,10 +6575,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
         <v>1.33</v>
-      </c>
-      <c r="AQ28">
-        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -6754,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -6963,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
         <v>2.59</v>
@@ -7088,7 +7115,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7166,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.79</v>
@@ -7500,7 +7527,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7912,7 +7939,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8118,7 +8145,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8196,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8324,7 +8351,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8402,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8530,7 +8557,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -8608,10 +8635,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.75</v>
@@ -8817,7 +8844,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -8942,7 +8969,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9226,10 +9253,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>2.65</v>
@@ -9354,7 +9381,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9432,10 +9459,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.9</v>
@@ -9560,7 +9587,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -9641,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>1.63</v>
@@ -9844,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10050,10 +10077,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>2.27</v>
@@ -10256,7 +10283,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ46">
         <v>2.33</v>
@@ -10384,7 +10411,7 @@
         <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10590,7 +10617,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10796,7 +10823,7 @@
         <v>91</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11002,7 +11029,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11414,7 +11441,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11571,6 +11598,1448 @@
       </c>
       <c r="BP52">
         <v>1.83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7785233</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>125</v>
+      </c>
+      <c r="P53" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>2.75</v>
+      </c>
+      <c r="S53">
+        <v>4.75</v>
+      </c>
+      <c r="T53">
+        <v>1.2</v>
+      </c>
+      <c r="U53">
+        <v>4.33</v>
+      </c>
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <v>1.73</v>
+      </c>
+      <c r="X53">
+        <v>4.33</v>
+      </c>
+      <c r="Y53">
+        <v>1.2</v>
+      </c>
+      <c r="Z53">
+        <v>1.61</v>
+      </c>
+      <c r="AA53">
+        <v>3.62</v>
+      </c>
+      <c r="AB53">
+        <v>4.5</v>
+      </c>
+      <c r="AC53">
+        <v>1.01</v>
+      </c>
+      <c r="AD53">
+        <v>17</v>
+      </c>
+      <c r="AE53">
+        <v>1.12</v>
+      </c>
+      <c r="AF53">
+        <v>6</v>
+      </c>
+      <c r="AG53">
+        <v>1.38</v>
+      </c>
+      <c r="AH53">
+        <v>2.9</v>
+      </c>
+      <c r="AI53">
+        <v>1.44</v>
+      </c>
+      <c r="AJ53">
+        <v>2.63</v>
+      </c>
+      <c r="AK53">
+        <v>1.17</v>
+      </c>
+      <c r="AL53">
+        <v>1.15</v>
+      </c>
+      <c r="AM53">
+        <v>2.35</v>
+      </c>
+      <c r="AN53">
+        <v>2.2</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>2.33</v>
+      </c>
+      <c r="AQ53">
+        <v>0.75</v>
+      </c>
+      <c r="AR53">
+        <v>2.55</v>
+      </c>
+      <c r="AS53">
+        <v>1.79</v>
+      </c>
+      <c r="AT53">
+        <v>4.34</v>
+      </c>
+      <c r="AU53">
+        <v>-1</v>
+      </c>
+      <c r="AV53">
+        <v>-1</v>
+      </c>
+      <c r="AW53">
+        <v>-1</v>
+      </c>
+      <c r="AX53">
+        <v>-1</v>
+      </c>
+      <c r="AY53">
+        <v>-1</v>
+      </c>
+      <c r="AZ53">
+        <v>-1</v>
+      </c>
+      <c r="BA53">
+        <v>-1</v>
+      </c>
+      <c r="BB53">
+        <v>-1</v>
+      </c>
+      <c r="BC53">
+        <v>-1</v>
+      </c>
+      <c r="BD53">
+        <v>1.44</v>
+      </c>
+      <c r="BE53">
+        <v>7.5</v>
+      </c>
+      <c r="BF53">
+        <v>3.05</v>
+      </c>
+      <c r="BG53">
+        <v>1.19</v>
+      </c>
+      <c r="BH53">
+        <v>4.1</v>
+      </c>
+      <c r="BI53">
+        <v>1.34</v>
+      </c>
+      <c r="BJ53">
+        <v>2.9</v>
+      </c>
+      <c r="BK53">
+        <v>1.56</v>
+      </c>
+      <c r="BL53">
+        <v>2.23</v>
+      </c>
+      <c r="BM53">
+        <v>1.89</v>
+      </c>
+      <c r="BN53">
+        <v>1.81</v>
+      </c>
+      <c r="BO53">
+        <v>2.33</v>
+      </c>
+      <c r="BP53">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7785232</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>126</v>
+      </c>
+      <c r="P54" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q54">
+        <v>4.75</v>
+      </c>
+      <c r="R54">
+        <v>2.38</v>
+      </c>
+      <c r="S54">
+        <v>2.25</v>
+      </c>
+      <c r="T54">
+        <v>1.3</v>
+      </c>
+      <c r="U54">
+        <v>3.4</v>
+      </c>
+      <c r="V54">
+        <v>2.5</v>
+      </c>
+      <c r="W54">
+        <v>1.5</v>
+      </c>
+      <c r="X54">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>1.13</v>
+      </c>
+      <c r="Z54">
+        <v>4.3</v>
+      </c>
+      <c r="AA54">
+        <v>3.99</v>
+      </c>
+      <c r="AB54">
+        <v>1.57</v>
+      </c>
+      <c r="AC54">
+        <v>1.04</v>
+      </c>
+      <c r="AD54">
+        <v>10</v>
+      </c>
+      <c r="AE54">
+        <v>1.22</v>
+      </c>
+      <c r="AF54">
+        <v>4.2</v>
+      </c>
+      <c r="AG54">
+        <v>1.6</v>
+      </c>
+      <c r="AH54">
+        <v>2.1</v>
+      </c>
+      <c r="AI54">
+        <v>1.7</v>
+      </c>
+      <c r="AJ54">
+        <v>2.05</v>
+      </c>
+      <c r="AK54">
+        <v>2.1</v>
+      </c>
+      <c r="AL54">
+        <v>1.2</v>
+      </c>
+      <c r="AM54">
+        <v>1.18</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>1.5</v>
+      </c>
+      <c r="AQ54">
+        <v>1.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.59</v>
+      </c>
+      <c r="AS54">
+        <v>1.45</v>
+      </c>
+      <c r="AT54">
+        <v>3.04</v>
+      </c>
+      <c r="AU54">
+        <v>-1</v>
+      </c>
+      <c r="AV54">
+        <v>-1</v>
+      </c>
+      <c r="AW54">
+        <v>-1</v>
+      </c>
+      <c r="AX54">
+        <v>-1</v>
+      </c>
+      <c r="AY54">
+        <v>-1</v>
+      </c>
+      <c r="AZ54">
+        <v>-1</v>
+      </c>
+      <c r="BA54">
+        <v>-1</v>
+      </c>
+      <c r="BB54">
+        <v>-1</v>
+      </c>
+      <c r="BC54">
+        <v>-1</v>
+      </c>
+      <c r="BD54">
+        <v>2.95</v>
+      </c>
+      <c r="BE54">
+        <v>6.75</v>
+      </c>
+      <c r="BF54">
+        <v>1.48</v>
+      </c>
+      <c r="BG54">
+        <v>1.3</v>
+      </c>
+      <c r="BH54">
+        <v>3.15</v>
+      </c>
+      <c r="BI54">
+        <v>1.53</v>
+      </c>
+      <c r="BJ54">
+        <v>2.32</v>
+      </c>
+      <c r="BK54">
+        <v>1.84</v>
+      </c>
+      <c r="BL54">
+        <v>1.84</v>
+      </c>
+      <c r="BM54">
+        <v>2.32</v>
+      </c>
+      <c r="BN54">
+        <v>1.52</v>
+      </c>
+      <c r="BO54">
+        <v>2.95</v>
+      </c>
+      <c r="BP54">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7785230</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>127</v>
+      </c>
+      <c r="P55" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q55">
+        <v>1.5</v>
+      </c>
+      <c r="R55">
+        <v>3.2</v>
+      </c>
+      <c r="S55">
+        <v>11</v>
+      </c>
+      <c r="T55">
+        <v>1.2</v>
+      </c>
+      <c r="U55">
+        <v>4.33</v>
+      </c>
+      <c r="V55">
+        <v>1.91</v>
+      </c>
+      <c r="W55">
+        <v>1.8</v>
+      </c>
+      <c r="X55">
+        <v>4</v>
+      </c>
+      <c r="Y55">
+        <v>1.22</v>
+      </c>
+      <c r="Z55">
+        <v>1.18</v>
+      </c>
+      <c r="AA55">
+        <v>5.9</v>
+      </c>
+      <c r="AB55">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>23</v>
+      </c>
+      <c r="AE55">
+        <v>1.11</v>
+      </c>
+      <c r="AF55">
+        <v>6.25</v>
+      </c>
+      <c r="AG55">
+        <v>1.35</v>
+      </c>
+      <c r="AH55">
+        <v>2.94</v>
+      </c>
+      <c r="AI55">
+        <v>2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.75</v>
+      </c>
+      <c r="AK55">
+        <v>1.03</v>
+      </c>
+      <c r="AL55">
+        <v>1.08</v>
+      </c>
+      <c r="AM55">
+        <v>4.75</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>2.2</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>2.23</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AT55">
+        <v>3.23</v>
+      </c>
+      <c r="AU55">
+        <v>-1</v>
+      </c>
+      <c r="AV55">
+        <v>-1</v>
+      </c>
+      <c r="AW55">
+        <v>-1</v>
+      </c>
+      <c r="AX55">
+        <v>-1</v>
+      </c>
+      <c r="AY55">
+        <v>-1</v>
+      </c>
+      <c r="AZ55">
+        <v>-1</v>
+      </c>
+      <c r="BA55">
+        <v>-1</v>
+      </c>
+      <c r="BB55">
+        <v>-1</v>
+      </c>
+      <c r="BC55">
+        <v>-1</v>
+      </c>
+      <c r="BD55">
+        <v>1.16</v>
+      </c>
+      <c r="BE55">
+        <v>9.5</v>
+      </c>
+      <c r="BF55">
+        <v>5.4</v>
+      </c>
+      <c r="BG55">
+        <v>1.16</v>
+      </c>
+      <c r="BH55">
+        <v>4.4</v>
+      </c>
+      <c r="BI55">
+        <v>1.29</v>
+      </c>
+      <c r="BJ55">
+        <v>3.2</v>
+      </c>
+      <c r="BK55">
+        <v>1.48</v>
+      </c>
+      <c r="BL55">
+        <v>2.45</v>
+      </c>
+      <c r="BM55">
+        <v>1.74</v>
+      </c>
+      <c r="BN55">
+        <v>1.95</v>
+      </c>
+      <c r="BO55">
+        <v>2.15</v>
+      </c>
+      <c r="BP55">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7785229</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q56">
+        <v>1.8</v>
+      </c>
+      <c r="R56">
+        <v>2.63</v>
+      </c>
+      <c r="S56">
+        <v>7</v>
+      </c>
+      <c r="T56">
+        <v>1.25</v>
+      </c>
+      <c r="U56">
+        <v>3.75</v>
+      </c>
+      <c r="V56">
+        <v>2.2</v>
+      </c>
+      <c r="W56">
+        <v>1.62</v>
+      </c>
+      <c r="X56">
+        <v>5</v>
+      </c>
+      <c r="Y56">
+        <v>1.17</v>
+      </c>
+      <c r="Z56">
+        <v>1.33</v>
+      </c>
+      <c r="AA56">
+        <v>4.7</v>
+      </c>
+      <c r="AB56">
+        <v>6.5</v>
+      </c>
+      <c r="AC56">
+        <v>1.03</v>
+      </c>
+      <c r="AD56">
+        <v>11</v>
+      </c>
+      <c r="AE56">
+        <v>1.15</v>
+      </c>
+      <c r="AF56">
+        <v>5.25</v>
+      </c>
+      <c r="AG56">
+        <v>1.6</v>
+      </c>
+      <c r="AH56">
+        <v>2.34</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.95</v>
+      </c>
+      <c r="AK56">
+        <v>1.07</v>
+      </c>
+      <c r="AL56">
+        <v>1.11</v>
+      </c>
+      <c r="AM56">
+        <v>3.1</v>
+      </c>
+      <c r="AN56">
+        <v>1.33</v>
+      </c>
+      <c r="AO56">
+        <v>1.4</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
+        <v>1.67</v>
+      </c>
+      <c r="AR56">
+        <v>1.68</v>
+      </c>
+      <c r="AS56">
+        <v>1.32</v>
+      </c>
+      <c r="AT56">
+        <v>3</v>
+      </c>
+      <c r="AU56">
+        <v>-1</v>
+      </c>
+      <c r="AV56">
+        <v>-1</v>
+      </c>
+      <c r="AW56">
+        <v>-1</v>
+      </c>
+      <c r="AX56">
+        <v>-1</v>
+      </c>
+      <c r="AY56">
+        <v>-1</v>
+      </c>
+      <c r="AZ56">
+        <v>-1</v>
+      </c>
+      <c r="BA56">
+        <v>-1</v>
+      </c>
+      <c r="BB56">
+        <v>-1</v>
+      </c>
+      <c r="BC56">
+        <v>-1</v>
+      </c>
+      <c r="BD56">
+        <v>1.24</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>4.35</v>
+      </c>
+      <c r="BG56">
+        <v>1.2</v>
+      </c>
+      <c r="BH56">
+        <v>3.95</v>
+      </c>
+      <c r="BI56">
+        <v>1.35</v>
+      </c>
+      <c r="BJ56">
+        <v>2.9</v>
+      </c>
+      <c r="BK56">
+        <v>1.57</v>
+      </c>
+      <c r="BL56">
+        <v>2.23</v>
+      </c>
+      <c r="BM56">
+        <v>1.9</v>
+      </c>
+      <c r="BN56">
+        <v>1.79</v>
+      </c>
+      <c r="BO56">
+        <v>2.32</v>
+      </c>
+      <c r="BP56">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7785231</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>91</v>
+      </c>
+      <c r="P57" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57">
+        <v>2.3</v>
+      </c>
+      <c r="R57">
+        <v>2.38</v>
+      </c>
+      <c r="S57">
+        <v>4.75</v>
+      </c>
+      <c r="T57">
+        <v>1.33</v>
+      </c>
+      <c r="U57">
+        <v>3.25</v>
+      </c>
+      <c r="V57">
+        <v>2.5</v>
+      </c>
+      <c r="W57">
+        <v>1.5</v>
+      </c>
+      <c r="X57">
+        <v>6</v>
+      </c>
+      <c r="Y57">
+        <v>1.13</v>
+      </c>
+      <c r="Z57">
+        <v>1.65</v>
+      </c>
+      <c r="AA57">
+        <v>3.6</v>
+      </c>
+      <c r="AB57">
+        <v>4.2</v>
+      </c>
+      <c r="AC57">
+        <v>1.04</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.22</v>
+      </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
+      <c r="AG57">
+        <v>1.6</v>
+      </c>
+      <c r="AH57">
+        <v>2.1</v>
+      </c>
+      <c r="AI57">
+        <v>1.7</v>
+      </c>
+      <c r="AJ57">
+        <v>2.05</v>
+      </c>
+      <c r="AK57">
+        <v>1.2</v>
+      </c>
+      <c r="AL57">
+        <v>1.2</v>
+      </c>
+      <c r="AM57">
+        <v>2.05</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0.75</v>
+      </c>
+      <c r="AR57">
+        <v>1.77</v>
+      </c>
+      <c r="AS57">
+        <v>1.21</v>
+      </c>
+      <c r="AT57">
+        <v>2.98</v>
+      </c>
+      <c r="AU57">
+        <v>-1</v>
+      </c>
+      <c r="AV57">
+        <v>-1</v>
+      </c>
+      <c r="AW57">
+        <v>-1</v>
+      </c>
+      <c r="AX57">
+        <v>-1</v>
+      </c>
+      <c r="AY57">
+        <v>-1</v>
+      </c>
+      <c r="AZ57">
+        <v>-1</v>
+      </c>
+      <c r="BA57">
+        <v>-1</v>
+      </c>
+      <c r="BB57">
+        <v>-1</v>
+      </c>
+      <c r="BC57">
+        <v>-1</v>
+      </c>
+      <c r="BD57">
+        <v>1.5</v>
+      </c>
+      <c r="BE57">
+        <v>7</v>
+      </c>
+      <c r="BF57">
+        <v>2.8</v>
+      </c>
+      <c r="BG57">
+        <v>1.21</v>
+      </c>
+      <c r="BH57">
+        <v>3.9</v>
+      </c>
+      <c r="BI57">
+        <v>1.36</v>
+      </c>
+      <c r="BJ57">
+        <v>2.8</v>
+      </c>
+      <c r="BK57">
+        <v>1.58</v>
+      </c>
+      <c r="BL57">
+        <v>2.17</v>
+      </c>
+      <c r="BM57">
+        <v>1.95</v>
+      </c>
+      <c r="BN57">
+        <v>1.75</v>
+      </c>
+      <c r="BO57">
+        <v>2.4</v>
+      </c>
+      <c r="BP57">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7785227</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q58">
+        <v>2.2</v>
+      </c>
+      <c r="R58">
+        <v>2.5</v>
+      </c>
+      <c r="S58">
+        <v>4.5</v>
+      </c>
+      <c r="T58">
+        <v>1.25</v>
+      </c>
+      <c r="U58">
+        <v>3.75</v>
+      </c>
+      <c r="V58">
+        <v>2.2</v>
+      </c>
+      <c r="W58">
+        <v>1.62</v>
+      </c>
+      <c r="X58">
+        <v>5</v>
+      </c>
+      <c r="Y58">
+        <v>1.17</v>
+      </c>
+      <c r="Z58">
+        <v>1.52</v>
+      </c>
+      <c r="AA58">
+        <v>3.85</v>
+      </c>
+      <c r="AB58">
+        <v>4.9</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>13</v>
+      </c>
+      <c r="AE58">
+        <v>1.17</v>
+      </c>
+      <c r="AF58">
+        <v>5</v>
+      </c>
+      <c r="AG58">
+        <v>1.45</v>
+      </c>
+      <c r="AH58">
+        <v>2.56</v>
+      </c>
+      <c r="AI58">
+        <v>1.53</v>
+      </c>
+      <c r="AJ58">
+        <v>2.38</v>
+      </c>
+      <c r="AK58">
+        <v>1.18</v>
+      </c>
+      <c r="AL58">
+        <v>1.18</v>
+      </c>
+      <c r="AM58">
+        <v>2.15</v>
+      </c>
+      <c r="AN58">
+        <v>2.5</v>
+      </c>
+      <c r="AO58">
+        <v>2.33</v>
+      </c>
+      <c r="AP58">
+        <v>2.2</v>
+      </c>
+      <c r="AQ58">
+        <v>2</v>
+      </c>
+      <c r="AR58">
+        <v>1.94</v>
+      </c>
+      <c r="AS58">
+        <v>1.57</v>
+      </c>
+      <c r="AT58">
+        <v>3.51</v>
+      </c>
+      <c r="AU58">
+        <v>-1</v>
+      </c>
+      <c r="AV58">
+        <v>-1</v>
+      </c>
+      <c r="AW58">
+        <v>-1</v>
+      </c>
+      <c r="AX58">
+        <v>-1</v>
+      </c>
+      <c r="AY58">
+        <v>-1</v>
+      </c>
+      <c r="AZ58">
+        <v>-1</v>
+      </c>
+      <c r="BA58">
+        <v>-1</v>
+      </c>
+      <c r="BB58">
+        <v>-1</v>
+      </c>
+      <c r="BC58">
+        <v>-1</v>
+      </c>
+      <c r="BD58">
+        <v>1.43</v>
+      </c>
+      <c r="BE58">
+        <v>7.5</v>
+      </c>
+      <c r="BF58">
+        <v>3.05</v>
+      </c>
+      <c r="BG58">
+        <v>1.21</v>
+      </c>
+      <c r="BH58">
+        <v>3.9</v>
+      </c>
+      <c r="BI58">
+        <v>1.36</v>
+      </c>
+      <c r="BJ58">
+        <v>2.85</v>
+      </c>
+      <c r="BK58">
+        <v>1.58</v>
+      </c>
+      <c r="BL58">
+        <v>2.2</v>
+      </c>
+      <c r="BM58">
+        <v>1.92</v>
+      </c>
+      <c r="BN58">
+        <v>1.77</v>
+      </c>
+      <c r="BO58">
+        <v>2.4</v>
+      </c>
+      <c r="BP58">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7785228</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>128</v>
+      </c>
+      <c r="P59" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q59">
+        <v>2.88</v>
+      </c>
+      <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>4.5</v>
+      </c>
+      <c r="T59">
+        <v>1.53</v>
+      </c>
+      <c r="U59">
+        <v>2.38</v>
+      </c>
+      <c r="V59">
+        <v>3.5</v>
+      </c>
+      <c r="W59">
+        <v>1.29</v>
+      </c>
+      <c r="X59">
+        <v>11</v>
+      </c>
+      <c r="Y59">
+        <v>1.05</v>
+      </c>
+      <c r="Z59">
+        <v>1.84</v>
+      </c>
+      <c r="AA59">
+        <v>3.33</v>
+      </c>
+      <c r="AB59">
+        <v>3.61</v>
+      </c>
+      <c r="AC59">
+        <v>1.09</v>
+      </c>
+      <c r="AD59">
+        <v>7</v>
+      </c>
+      <c r="AE59">
+        <v>1.5</v>
+      </c>
+      <c r="AF59">
+        <v>2.4</v>
+      </c>
+      <c r="AG59">
+        <v>2.1</v>
+      </c>
+      <c r="AH59">
+        <v>1.6</v>
+      </c>
+      <c r="AI59">
+        <v>2.1</v>
+      </c>
+      <c r="AJ59">
+        <v>1.67</v>
+      </c>
+      <c r="AK59">
+        <v>1.25</v>
+      </c>
+      <c r="AL59">
+        <v>1.28</v>
+      </c>
+      <c r="AM59">
+        <v>1.73</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>0.33</v>
+      </c>
+      <c r="AP59">
+        <v>3</v>
+      </c>
+      <c r="AQ59">
+        <v>0.25</v>
+      </c>
+      <c r="AR59">
+        <v>1.16</v>
+      </c>
+      <c r="AS59">
+        <v>0.95</v>
+      </c>
+      <c r="AT59">
+        <v>2.11</v>
+      </c>
+      <c r="AU59">
+        <v>-1</v>
+      </c>
+      <c r="AV59">
+        <v>-1</v>
+      </c>
+      <c r="AW59">
+        <v>-1</v>
+      </c>
+      <c r="AX59">
+        <v>-1</v>
+      </c>
+      <c r="AY59">
+        <v>-1</v>
+      </c>
+      <c r="AZ59">
+        <v>-1</v>
+      </c>
+      <c r="BA59">
+        <v>-1</v>
+      </c>
+      <c r="BB59">
+        <v>-1</v>
+      </c>
+      <c r="BC59">
+        <v>-1</v>
+      </c>
+      <c r="BD59">
+        <v>1.7</v>
+      </c>
+      <c r="BE59">
+        <v>6.75</v>
+      </c>
+      <c r="BF59">
+        <v>2.4</v>
+      </c>
+      <c r="BG59">
+        <v>1.29</v>
+      </c>
+      <c r="BH59">
+        <v>3.15</v>
+      </c>
+      <c r="BI59">
+        <v>1.5</v>
+      </c>
+      <c r="BJ59">
+        <v>2.35</v>
+      </c>
+      <c r="BK59">
+        <v>1.83</v>
+      </c>
+      <c r="BL59">
+        <v>1.85</v>
+      </c>
+      <c r="BM59">
+        <v>2.25</v>
+      </c>
+      <c r="BN59">
+        <v>1.55</v>
+      </c>
+      <c r="BO59">
+        <v>2.9</v>
+      </c>
+      <c r="BP59">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
   <si>
     <t>['39', '49']</t>
@@ -882,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1144,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1553,7 +1556,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1759,7 +1762,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1965,7 +1968,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2171,7 +2174,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2583,7 +2586,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2870,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3201,7 +3204,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3407,7 +3410,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3819,7 +3822,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4025,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4231,7 +4234,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4643,7 +4646,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4849,7 +4852,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5055,7 +5058,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5261,7 +5264,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5467,7 +5470,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5673,7 +5676,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5879,7 +5882,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6085,7 +6088,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6291,7 +6294,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6497,7 +6500,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7115,7 +7118,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7527,7 +7530,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7814,7 +7817,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR34">
         <v>2.49</v>
@@ -7939,7 +7942,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8145,7 +8148,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8351,7 +8354,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8557,7 +8560,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -8969,7 +8972,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9381,7 +9384,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9587,7 +9590,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10411,7 +10414,7 @@
         <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10617,7 +10620,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10823,7 +10826,7 @@
         <v>91</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11029,7 +11032,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11316,7 +11319,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11441,7 +11444,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11647,7 +11650,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11740,31 +11743,31 @@
         <v>4.34</v>
       </c>
       <c r="AU53">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV53">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW53">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AX53">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY53">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AZ53">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA53">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC53">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD53">
         <v>1.44</v>
@@ -11853,7 +11856,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>4.75</v>
@@ -11946,31 +11949,31 @@
         <v>3.04</v>
       </c>
       <c r="AU54">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV54">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW54">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX54">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY54">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ54">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA54">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB54">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC54">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD54">
         <v>2.95</v>
@@ -12152,31 +12155,31 @@
         <v>3.23</v>
       </c>
       <c r="AU55">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV55">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW55">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX55">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY55">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ55">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA55">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC55">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD55">
         <v>1.16</v>
@@ -12265,7 +12268,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>1.8</v>
@@ -12358,31 +12361,31 @@
         <v>3</v>
       </c>
       <c r="AU56">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV56">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW56">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY56">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ56">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA56">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC56">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD56">
         <v>1.24</v>
@@ -12471,7 +12474,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12564,31 +12567,31 @@
         <v>2.98</v>
       </c>
       <c r="AU57">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV57">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW57">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY57">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ57">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA57">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB57">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC57">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BD57">
         <v>1.5</v>
@@ -12677,7 +12680,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12770,31 +12773,31 @@
         <v>3.51</v>
       </c>
       <c r="AU58">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV58">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW58">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX58">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY58">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ58">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA58">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB58">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC58">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD58">
         <v>1.43</v>
@@ -12976,31 +12979,31 @@
         <v>2.11</v>
       </c>
       <c r="AU59">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV59">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW59">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX59">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY59">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ59">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA59">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB59">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC59">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD59">
         <v>1.7</v>
@@ -13040,6 +13043,212 @@
       </c>
       <c r="BP59">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7785234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45793.625</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>129</v>
+      </c>
+      <c r="P60" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>2.5</v>
+      </c>
+      <c r="S60">
+        <v>6</v>
+      </c>
+      <c r="T60">
+        <v>1.29</v>
+      </c>
+      <c r="U60">
+        <v>3.5</v>
+      </c>
+      <c r="V60">
+        <v>2.38</v>
+      </c>
+      <c r="W60">
+        <v>1.53</v>
+      </c>
+      <c r="X60">
+        <v>6</v>
+      </c>
+      <c r="Y60">
+        <v>1.13</v>
+      </c>
+      <c r="Z60">
+        <v>1.56</v>
+      </c>
+      <c r="AA60">
+        <v>3.78</v>
+      </c>
+      <c r="AB60">
+        <v>4.7</v>
+      </c>
+      <c r="AC60">
+        <v>1.03</v>
+      </c>
+      <c r="AD60">
+        <v>11</v>
+      </c>
+      <c r="AE60">
+        <v>1.2</v>
+      </c>
+      <c r="AF60">
+        <v>4.33</v>
+      </c>
+      <c r="AG60">
+        <v>1.57</v>
+      </c>
+      <c r="AH60">
+        <v>2.15</v>
+      </c>
+      <c r="AI60">
+        <v>1.75</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>1.12</v>
+      </c>
+      <c r="AL60">
+        <v>1.17</v>
+      </c>
+      <c r="AM60">
+        <v>2.5</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>0.25</v>
+      </c>
+      <c r="AR60">
+        <v>2.1</v>
+      </c>
+      <c r="AS60">
+        <v>1.21</v>
+      </c>
+      <c r="AT60">
+        <v>3.31</v>
+      </c>
+      <c r="AU60">
+        <v>9</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>15</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>26</v>
+      </c>
+      <c r="AZ60">
+        <v>8</v>
+      </c>
+      <c r="BA60">
+        <v>3</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>3</v>
+      </c>
+      <c r="BD60">
+        <v>1.38</v>
+      </c>
+      <c r="BE60">
+        <v>7.5</v>
+      </c>
+      <c r="BF60">
+        <v>3.3</v>
+      </c>
+      <c r="BG60">
+        <v>1.17</v>
+      </c>
+      <c r="BH60">
+        <v>4.4</v>
+      </c>
+      <c r="BI60">
+        <v>1.29</v>
+      </c>
+      <c r="BJ60">
+        <v>3.15</v>
+      </c>
+      <c r="BK60">
+        <v>1.49</v>
+      </c>
+      <c r="BL60">
+        <v>2.4</v>
+      </c>
+      <c r="BM60">
+        <v>1.78</v>
+      </c>
+      <c r="BN60">
+        <v>1.92</v>
+      </c>
+      <c r="BO60">
+        <v>2.17</v>
+      </c>
+      <c r="BP60">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -12585,13 +12585,13 @@
         <v>5</v>
       </c>
       <c r="BA57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB57">
         <v>7</v>
       </c>
       <c r="BC57">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD57">
         <v>1.5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,18 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['1', '13', '72', '74']</t>
+  </si>
+  <si>
+    <t>['4', '18', '39', '52']</t>
+  </si>
+  <si>
+    <t>['23', '52']</t>
+  </si>
+  <si>
+    <t>['17', '45+1', '49']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -524,6 +536,24 @@
   </si>
   <si>
     <t>['30', '90+5']</t>
+  </si>
+  <si>
+    <t>['26', '33', '88']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['52', '60']</t>
+  </si>
+  <si>
+    <t>['60', '89']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1174,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1225,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1431,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1556,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1637,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1762,7 +1792,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1840,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
         <v>1.67</v>
@@ -1968,7 +1998,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2046,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2174,7 +2204,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2586,7 +2616,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2664,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -3079,7 +3109,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3204,7 +3234,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3285,7 +3315,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3410,7 +3440,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3488,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3697,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3822,7 +3852,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3900,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4028,7 +4058,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4106,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ16">
         <v>0.75</v>
@@ -4234,7 +4264,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4521,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>0.92</v>
@@ -4646,7 +4676,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4852,7 +4882,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4933,7 +4963,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.82</v>
@@ -5058,7 +5088,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5264,7 +5294,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5345,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>1.7</v>
@@ -5470,7 +5500,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5551,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR23">
         <v>1.32</v>
@@ -5676,7 +5706,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5754,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -5882,7 +5912,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6088,7 +6118,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6166,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR26">
         <v>1.31</v>
@@ -6294,7 +6324,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6372,7 +6402,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -6500,7 +6530,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6787,7 +6817,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7118,7 +7148,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7402,10 +7432,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7530,7 +7560,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7608,10 +7638,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR33">
         <v>1.87</v>
@@ -7942,7 +7972,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8020,10 +8050,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.51</v>
@@ -8148,7 +8178,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8229,7 +8259,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>2</v>
@@ -8354,7 +8384,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8560,7 +8590,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -8844,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>0.25</v>
@@ -8972,7 +9002,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9053,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR40">
         <v>2.08</v>
@@ -9384,7 +9414,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9590,7 +9620,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10289,7 +10319,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR46">
         <v>1.95</v>
@@ -10414,7 +10444,7 @@
         <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10492,10 +10522,10 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.44</v>
@@ -10620,7 +10650,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10698,10 +10728,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -10826,7 +10856,7 @@
         <v>91</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -10904,10 +10934,10 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.56</v>
@@ -11032,7 +11062,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11113,7 +11143,7 @@
         <v>3</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>2.16</v>
@@ -11316,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>0.25</v>
@@ -11444,7 +11474,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11522,10 +11552,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR52">
         <v>1.29</v>
@@ -11650,7 +11680,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11856,7 +11886,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>4.75</v>
@@ -12268,7 +12298,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>1.8</v>
@@ -12474,7 +12504,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12680,7 +12710,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13092,7 +13122,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13249,6 +13279,1654 @@
       </c>
       <c r="BP60">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7785235</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45801.45833333334</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>7</v>
+      </c>
+      <c r="O61" t="s">
+        <v>130</v>
+      </c>
+      <c r="P61" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q61">
+        <v>3.55</v>
+      </c>
+      <c r="R61">
+        <v>1.95</v>
+      </c>
+      <c r="S61">
+        <v>3.1</v>
+      </c>
+      <c r="T61">
+        <v>1.48</v>
+      </c>
+      <c r="U61">
+        <v>2.45</v>
+      </c>
+      <c r="V61">
+        <v>3.2</v>
+      </c>
+      <c r="W61">
+        <v>1.3</v>
+      </c>
+      <c r="X61">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>1.02</v>
+      </c>
+      <c r="Z61">
+        <v>2.82</v>
+      </c>
+      <c r="AA61">
+        <v>3.03</v>
+      </c>
+      <c r="AB61">
+        <v>2.3</v>
+      </c>
+      <c r="AC61">
+        <v>1.07</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>1.42</v>
+      </c>
+      <c r="AF61">
+        <v>2.85</v>
+      </c>
+      <c r="AG61">
+        <v>2.15</v>
+      </c>
+      <c r="AH61">
+        <v>1.57</v>
+      </c>
+      <c r="AI61">
+        <v>1.85</v>
+      </c>
+      <c r="AJ61">
+        <v>1.8</v>
+      </c>
+      <c r="AK61">
+        <v>1.53</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.38</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>1.33</v>
+      </c>
+      <c r="AP61">
+        <v>1.5</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1.27</v>
+      </c>
+      <c r="AS61">
+        <v>1.21</v>
+      </c>
+      <c r="AT61">
+        <v>2.48</v>
+      </c>
+      <c r="AU61">
+        <v>10</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>9</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>23</v>
+      </c>
+      <c r="AZ61">
+        <v>11</v>
+      </c>
+      <c r="BA61">
+        <v>7</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
+        <v>10</v>
+      </c>
+      <c r="BD61">
+        <v>1.98</v>
+      </c>
+      <c r="BE61">
+        <v>6.5</v>
+      </c>
+      <c r="BF61">
+        <v>1.98</v>
+      </c>
+      <c r="BG61">
+        <v>1.29</v>
+      </c>
+      <c r="BH61">
+        <v>3.15</v>
+      </c>
+      <c r="BI61">
+        <v>1.5</v>
+      </c>
+      <c r="BJ61">
+        <v>2.4</v>
+      </c>
+      <c r="BK61">
+        <v>1.81</v>
+      </c>
+      <c r="BL61">
+        <v>1.88</v>
+      </c>
+      <c r="BM61">
+        <v>2.25</v>
+      </c>
+      <c r="BN61">
+        <v>1.55</v>
+      </c>
+      <c r="BO61">
+        <v>2.9</v>
+      </c>
+      <c r="BP61">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7785236</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45801.54166666666</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>131</v>
+      </c>
+      <c r="P62" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q62">
+        <v>2.15</v>
+      </c>
+      <c r="R62">
+        <v>2.3</v>
+      </c>
+      <c r="S62">
+        <v>4.5</v>
+      </c>
+      <c r="T62">
+        <v>1.3</v>
+      </c>
+      <c r="U62">
+        <v>3.2</v>
+      </c>
+      <c r="V62">
+        <v>2.4</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>5.65</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>1.63</v>
+      </c>
+      <c r="AA62">
+        <v>3.97</v>
+      </c>
+      <c r="AB62">
+        <v>3.91</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>10</v>
+      </c>
+      <c r="AE62">
+        <v>1.22</v>
+      </c>
+      <c r="AF62">
+        <v>4.2</v>
+      </c>
+      <c r="AG62">
+        <v>1.6</v>
+      </c>
+      <c r="AH62">
+        <v>2.1</v>
+      </c>
+      <c r="AI62">
+        <v>1.67</v>
+      </c>
+      <c r="AJ62">
+        <v>2.05</v>
+      </c>
+      <c r="AK62">
+        <v>1.2</v>
+      </c>
+      <c r="AL62">
+        <v>1.18</v>
+      </c>
+      <c r="AM62">
+        <v>2.1</v>
+      </c>
+      <c r="AN62">
+        <v>3</v>
+      </c>
+      <c r="AO62">
+        <v>2.33</v>
+      </c>
+      <c r="AP62">
+        <v>3</v>
+      </c>
+      <c r="AQ62">
+        <v>1.75</v>
+      </c>
+      <c r="AR62">
+        <v>2.13</v>
+      </c>
+      <c r="AS62">
+        <v>1.36</v>
+      </c>
+      <c r="AT62">
+        <v>3.49</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>2</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>1</v>
+      </c>
+      <c r="AY62">
+        <v>14</v>
+      </c>
+      <c r="AZ62">
+        <v>4</v>
+      </c>
+      <c r="BA62">
+        <v>5</v>
+      </c>
+      <c r="BB62">
+        <v>3</v>
+      </c>
+      <c r="BC62">
+        <v>8</v>
+      </c>
+      <c r="BD62">
+        <v>1.47</v>
+      </c>
+      <c r="BE62">
+        <v>7</v>
+      </c>
+      <c r="BF62">
+        <v>2.9</v>
+      </c>
+      <c r="BG62">
+        <v>1.2</v>
+      </c>
+      <c r="BH62">
+        <v>3.95</v>
+      </c>
+      <c r="BI62">
+        <v>1.35</v>
+      </c>
+      <c r="BJ62">
+        <v>2.88</v>
+      </c>
+      <c r="BK62">
+        <v>1.58</v>
+      </c>
+      <c r="BL62">
+        <v>2.2</v>
+      </c>
+      <c r="BM62">
+        <v>1.91</v>
+      </c>
+      <c r="BN62">
+        <v>1.79</v>
+      </c>
+      <c r="BO62">
+        <v>2.35</v>
+      </c>
+      <c r="BP62">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7785237</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45802.39583333334</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>132</v>
+      </c>
+      <c r="P63" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q63">
+        <v>4.5</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>2.5</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
+        <v>4.1</v>
+      </c>
+      <c r="AA63">
+        <v>3.5</v>
+      </c>
+      <c r="AB63">
+        <v>1.69</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>9</v>
+      </c>
+      <c r="AE63">
+        <v>1.3</v>
+      </c>
+      <c r="AF63">
+        <v>3.4</v>
+      </c>
+      <c r="AG63">
+        <v>1.77</v>
+      </c>
+      <c r="AH63">
+        <v>1.93</v>
+      </c>
+      <c r="AI63">
+        <v>1.8</v>
+      </c>
+      <c r="AJ63">
+        <v>1.95</v>
+      </c>
+      <c r="AK63">
+        <v>1.85</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.22</v>
+      </c>
+      <c r="AN63">
+        <v>1.33</v>
+      </c>
+      <c r="AO63">
+        <v>1.33</v>
+      </c>
+      <c r="AP63">
+        <v>1.75</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1.3</v>
+      </c>
+      <c r="AS63">
+        <v>1.24</v>
+      </c>
+      <c r="AT63">
+        <v>2.54</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>5</v>
+      </c>
+      <c r="AW63">
+        <v>10</v>
+      </c>
+      <c r="AX63">
+        <v>13</v>
+      </c>
+      <c r="AY63">
+        <v>20</v>
+      </c>
+      <c r="AZ63">
+        <v>24</v>
+      </c>
+      <c r="BA63">
+        <v>6</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>12</v>
+      </c>
+      <c r="BD63">
+        <v>2.65</v>
+      </c>
+      <c r="BE63">
+        <v>6.75</v>
+      </c>
+      <c r="BF63">
+        <v>1.56</v>
+      </c>
+      <c r="BG63">
+        <v>1.24</v>
+      </c>
+      <c r="BH63">
+        <v>3.55</v>
+      </c>
+      <c r="BI63">
+        <v>1.42</v>
+      </c>
+      <c r="BJ63">
+        <v>2.65</v>
+      </c>
+      <c r="BK63">
+        <v>1.68</v>
+      </c>
+      <c r="BL63">
+        <v>2.05</v>
+      </c>
+      <c r="BM63">
+        <v>2.07</v>
+      </c>
+      <c r="BN63">
+        <v>1.67</v>
+      </c>
+      <c r="BO63">
+        <v>2.55</v>
+      </c>
+      <c r="BP63">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7785240</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>91</v>
+      </c>
+      <c r="P64" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q64">
+        <v>2.6</v>
+      </c>
+      <c r="R64">
+        <v>2.38</v>
+      </c>
+      <c r="S64">
+        <v>3.75</v>
+      </c>
+      <c r="T64">
+        <v>1.3</v>
+      </c>
+      <c r="U64">
+        <v>3.4</v>
+      </c>
+      <c r="V64">
+        <v>2.5</v>
+      </c>
+      <c r="W64">
+        <v>1.5</v>
+      </c>
+      <c r="X64">
+        <v>6</v>
+      </c>
+      <c r="Y64">
+        <v>1.13</v>
+      </c>
+      <c r="Z64">
+        <v>1.94</v>
+      </c>
+      <c r="AA64">
+        <v>3.47</v>
+      </c>
+      <c r="AB64">
+        <v>3.18</v>
+      </c>
+      <c r="AC64">
+        <v>1.04</v>
+      </c>
+      <c r="AD64">
+        <v>10</v>
+      </c>
+      <c r="AE64">
+        <v>1.22</v>
+      </c>
+      <c r="AF64">
+        <v>4.2</v>
+      </c>
+      <c r="AG64">
+        <v>1.62</v>
+      </c>
+      <c r="AH64">
+        <v>2.15</v>
+      </c>
+      <c r="AI64">
+        <v>1.57</v>
+      </c>
+      <c r="AJ64">
+        <v>2.25</v>
+      </c>
+      <c r="AK64">
+        <v>1.3</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>1.77</v>
+      </c>
+      <c r="AN64">
+        <v>1.33</v>
+      </c>
+      <c r="AO64">
+        <v>1.33</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1.75</v>
+      </c>
+      <c r="AR64">
+        <v>1.85</v>
+      </c>
+      <c r="AS64">
+        <v>1.12</v>
+      </c>
+      <c r="AT64">
+        <v>2.97</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>13</v>
+      </c>
+      <c r="AZ64">
+        <v>8</v>
+      </c>
+      <c r="BA64">
+        <v>2</v>
+      </c>
+      <c r="BB64">
+        <v>2</v>
+      </c>
+      <c r="BC64">
+        <v>4</v>
+      </c>
+      <c r="BD64">
+        <v>1.77</v>
+      </c>
+      <c r="BE64">
+        <v>6.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.23</v>
+      </c>
+      <c r="BG64">
+        <v>1.25</v>
+      </c>
+      <c r="BH64">
+        <v>3.45</v>
+      </c>
+      <c r="BI64">
+        <v>1.45</v>
+      </c>
+      <c r="BJ64">
+        <v>2.55</v>
+      </c>
+      <c r="BK64">
+        <v>1.73</v>
+      </c>
+      <c r="BL64">
+        <v>1.98</v>
+      </c>
+      <c r="BM64">
+        <v>2.12</v>
+      </c>
+      <c r="BN64">
+        <v>1.63</v>
+      </c>
+      <c r="BO64">
+        <v>2.65</v>
+      </c>
+      <c r="BP64">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7785238</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" t="s">
+        <v>85</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>91</v>
+      </c>
+      <c r="P65" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q65">
+        <v>4.33</v>
+      </c>
+      <c r="R65">
+        <v>2.6</v>
+      </c>
+      <c r="S65">
+        <v>2.2</v>
+      </c>
+      <c r="T65">
+        <v>1.22</v>
+      </c>
+      <c r="U65">
+        <v>4</v>
+      </c>
+      <c r="V65">
+        <v>2.1</v>
+      </c>
+      <c r="W65">
+        <v>1.67</v>
+      </c>
+      <c r="X65">
+        <v>4.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.18</v>
+      </c>
+      <c r="Z65">
+        <v>3.79</v>
+      </c>
+      <c r="AA65">
+        <v>3.82</v>
+      </c>
+      <c r="AB65">
+        <v>1.68</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>13</v>
+      </c>
+      <c r="AE65">
+        <v>1.15</v>
+      </c>
+      <c r="AF65">
+        <v>5.25</v>
+      </c>
+      <c r="AG65">
+        <v>1.46</v>
+      </c>
+      <c r="AH65">
+        <v>2.6</v>
+      </c>
+      <c r="AI65">
+        <v>1.5</v>
+      </c>
+      <c r="AJ65">
+        <v>2.5</v>
+      </c>
+      <c r="AK65">
+        <v>2</v>
+      </c>
+      <c r="AL65">
+        <v>1.2</v>
+      </c>
+      <c r="AM65">
+        <v>1.22</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>2</v>
+      </c>
+      <c r="AP65">
+        <v>0.75</v>
+      </c>
+      <c r="AQ65">
+        <v>2.25</v>
+      </c>
+      <c r="AR65">
+        <v>1.38</v>
+      </c>
+      <c r="AS65">
+        <v>2.1</v>
+      </c>
+      <c r="AT65">
+        <v>3.48</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>5</v>
+      </c>
+      <c r="AY65">
+        <v>12</v>
+      </c>
+      <c r="AZ65">
+        <v>9</v>
+      </c>
+      <c r="BA65">
+        <v>5</v>
+      </c>
+      <c r="BB65">
+        <v>6</v>
+      </c>
+      <c r="BC65">
+        <v>11</v>
+      </c>
+      <c r="BD65">
+        <v>2.65</v>
+      </c>
+      <c r="BE65">
+        <v>6.75</v>
+      </c>
+      <c r="BF65">
+        <v>1.55</v>
+      </c>
+      <c r="BG65">
+        <v>1.17</v>
+      </c>
+      <c r="BH65">
+        <v>4.35</v>
+      </c>
+      <c r="BI65">
+        <v>1.29</v>
+      </c>
+      <c r="BJ65">
+        <v>3.15</v>
+      </c>
+      <c r="BK65">
+        <v>1.5</v>
+      </c>
+      <c r="BL65">
+        <v>2.4</v>
+      </c>
+      <c r="BM65">
+        <v>1.79</v>
+      </c>
+      <c r="BN65">
+        <v>1.91</v>
+      </c>
+      <c r="BO65">
+        <v>2.2</v>
+      </c>
+      <c r="BP65">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7785239</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q66">
+        <v>2.63</v>
+      </c>
+      <c r="R66">
+        <v>2.3</v>
+      </c>
+      <c r="S66">
+        <v>3.6</v>
+      </c>
+      <c r="T66">
+        <v>1.33</v>
+      </c>
+      <c r="U66">
+        <v>3.25</v>
+      </c>
+      <c r="V66">
+        <v>2.5</v>
+      </c>
+      <c r="W66">
+        <v>1.5</v>
+      </c>
+      <c r="X66">
+        <v>6</v>
+      </c>
+      <c r="Y66">
+        <v>1.13</v>
+      </c>
+      <c r="Z66">
+        <v>1.9</v>
+      </c>
+      <c r="AA66">
+        <v>3.53</v>
+      </c>
+      <c r="AB66">
+        <v>3.23</v>
+      </c>
+      <c r="AC66">
+        <v>1.04</v>
+      </c>
+      <c r="AD66">
+        <v>10</v>
+      </c>
+      <c r="AE66">
+        <v>1.22</v>
+      </c>
+      <c r="AF66">
+        <v>4.2</v>
+      </c>
+      <c r="AG66">
+        <v>1.55</v>
+      </c>
+      <c r="AH66">
+        <v>2.2</v>
+      </c>
+      <c r="AI66">
+        <v>1.62</v>
+      </c>
+      <c r="AJ66">
+        <v>2.2</v>
+      </c>
+      <c r="AK66">
+        <v>1.33</v>
+      </c>
+      <c r="AL66">
+        <v>1.22</v>
+      </c>
+      <c r="AM66">
+        <v>1.73</v>
+      </c>
+      <c r="AN66">
+        <v>3</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>3</v>
+      </c>
+      <c r="AQ66">
+        <v>1.5</v>
+      </c>
+      <c r="AR66">
+        <v>1.95</v>
+      </c>
+      <c r="AS66">
+        <v>1.73</v>
+      </c>
+      <c r="AT66">
+        <v>3.68</v>
+      </c>
+      <c r="AU66">
+        <v>8</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>16</v>
+      </c>
+      <c r="AX66">
+        <v>7</v>
+      </c>
+      <c r="AY66">
+        <v>34</v>
+      </c>
+      <c r="AZ66">
+        <v>14</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>10</v>
+      </c>
+      <c r="BC66">
+        <v>14</v>
+      </c>
+      <c r="BD66">
+        <v>1.64</v>
+      </c>
+      <c r="BE66">
+        <v>6.75</v>
+      </c>
+      <c r="BF66">
+        <v>2.48</v>
+      </c>
+      <c r="BG66">
+        <v>1.19</v>
+      </c>
+      <c r="BH66">
+        <v>4.1</v>
+      </c>
+      <c r="BI66">
+        <v>1.34</v>
+      </c>
+      <c r="BJ66">
+        <v>2.9</v>
+      </c>
+      <c r="BK66">
+        <v>1.55</v>
+      </c>
+      <c r="BL66">
+        <v>2.25</v>
+      </c>
+      <c r="BM66">
+        <v>1.88</v>
+      </c>
+      <c r="BN66">
+        <v>1.81</v>
+      </c>
+      <c r="BO66">
+        <v>2.33</v>
+      </c>
+      <c r="BP66">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7785241</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45802.59375</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>91</v>
+      </c>
+      <c r="P67" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>2.6</v>
+      </c>
+      <c r="S67">
+        <v>1.91</v>
+      </c>
+      <c r="T67">
+        <v>1.25</v>
+      </c>
+      <c r="U67">
+        <v>3.75</v>
+      </c>
+      <c r="V67">
+        <v>2.2</v>
+      </c>
+      <c r="W67">
+        <v>1.62</v>
+      </c>
+      <c r="X67">
+        <v>5</v>
+      </c>
+      <c r="Y67">
+        <v>1.17</v>
+      </c>
+      <c r="Z67">
+        <v>5.6</v>
+      </c>
+      <c r="AA67">
+        <v>4.3</v>
+      </c>
+      <c r="AB67">
+        <v>1.41</v>
+      </c>
+      <c r="AC67">
+        <v>1.03</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1.17</v>
+      </c>
+      <c r="AF67">
+        <v>5</v>
+      </c>
+      <c r="AG67">
+        <v>1.51</v>
+      </c>
+      <c r="AH67">
+        <v>2.46</v>
+      </c>
+      <c r="AI67">
+        <v>1.7</v>
+      </c>
+      <c r="AJ67">
+        <v>2.05</v>
+      </c>
+      <c r="AK67">
+        <v>2.62</v>
+      </c>
+      <c r="AL67">
+        <v>1.14</v>
+      </c>
+      <c r="AM67">
+        <v>1.12</v>
+      </c>
+      <c r="AN67">
+        <v>0.33</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>0.25</v>
+      </c>
+      <c r="AQ67">
+        <v>2.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.35</v>
+      </c>
+      <c r="AS67">
+        <v>1.68</v>
+      </c>
+      <c r="AT67">
+        <v>3.03</v>
+      </c>
+      <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
+        <v>7</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>11</v>
+      </c>
+      <c r="AY67">
+        <v>11</v>
+      </c>
+      <c r="AZ67">
+        <v>21</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>3.65</v>
+      </c>
+      <c r="BE67">
+        <v>7.5</v>
+      </c>
+      <c r="BF67">
+        <v>1.33</v>
+      </c>
+      <c r="BG67">
+        <v>1.2</v>
+      </c>
+      <c r="BH67">
+        <v>3.95</v>
+      </c>
+      <c r="BI67">
+        <v>1.35</v>
+      </c>
+      <c r="BJ67">
+        <v>2.9</v>
+      </c>
+      <c r="BK67">
+        <v>1.58</v>
+      </c>
+      <c r="BL67">
+        <v>2.2</v>
+      </c>
+      <c r="BM67">
+        <v>1.92</v>
+      </c>
+      <c r="BN67">
+        <v>1.78</v>
+      </c>
+      <c r="BO67">
+        <v>2.38</v>
+      </c>
+      <c r="BP67">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7785242</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45803.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>91</v>
+      </c>
+      <c r="P68" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q68">
+        <v>3.4</v>
+      </c>
+      <c r="R68">
+        <v>2.05</v>
+      </c>
+      <c r="S68">
+        <v>3.4</v>
+      </c>
+      <c r="T68">
+        <v>1.44</v>
+      </c>
+      <c r="U68">
+        <v>2.63</v>
+      </c>
+      <c r="V68">
+        <v>3.25</v>
+      </c>
+      <c r="W68">
+        <v>1.33</v>
+      </c>
+      <c r="X68">
+        <v>9</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>2.56</v>
+      </c>
+      <c r="AA68">
+        <v>3.04</v>
+      </c>
+      <c r="AB68">
+        <v>2.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.06</v>
+      </c>
+      <c r="AD68">
+        <v>8.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.35</v>
+      </c>
+      <c r="AF68">
+        <v>3.1</v>
+      </c>
+      <c r="AG68">
+        <v>1.96</v>
+      </c>
+      <c r="AH68">
+        <v>1.74</v>
+      </c>
+      <c r="AI68">
+        <v>1.91</v>
+      </c>
+      <c r="AJ68">
+        <v>1.91</v>
+      </c>
+      <c r="AK68">
+        <v>1.49</v>
+      </c>
+      <c r="AL68">
+        <v>1.31</v>
+      </c>
+      <c r="AM68">
+        <v>1.44</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>0.75</v>
+      </c>
+      <c r="AQ68">
+        <v>1.4</v>
+      </c>
+      <c r="AR68">
+        <v>1.1</v>
+      </c>
+      <c r="AS68">
+        <v>1.19</v>
+      </c>
+      <c r="AT68">
+        <v>2.29</v>
+      </c>
+      <c r="AU68">
+        <v>2</v>
+      </c>
+      <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68">
+        <v>11</v>
+      </c>
+      <c r="AX68">
+        <v>9</v>
+      </c>
+      <c r="AY68">
+        <v>14</v>
+      </c>
+      <c r="AZ68">
+        <v>16</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>10</v>
+      </c>
+      <c r="BC68">
+        <v>15</v>
+      </c>
+      <c r="BD68">
+        <v>1.84</v>
+      </c>
+      <c r="BE68">
+        <v>6.75</v>
+      </c>
+      <c r="BF68">
+        <v>2.15</v>
+      </c>
+      <c r="BG68">
+        <v>1.27</v>
+      </c>
+      <c r="BH68">
+        <v>3.3</v>
+      </c>
+      <c r="BI68">
+        <v>1.48</v>
+      </c>
+      <c r="BJ68">
+        <v>2.48</v>
+      </c>
+      <c r="BK68">
+        <v>1.76</v>
+      </c>
+      <c r="BL68">
+        <v>1.94</v>
+      </c>
+      <c r="BM68">
+        <v>2.18</v>
+      </c>
+      <c r="BN68">
+        <v>1.58</v>
+      </c>
+      <c r="BO68">
+        <v>2.8</v>
+      </c>
+      <c r="BP68">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['17', '45+1', '49']</t>
   </si>
   <si>
+    <t>['25', '44']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -554,6 +557,12 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['24', '90+3']</t>
+  </si>
+  <si>
+    <t>['28', '73', '83', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1183,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1255,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1458,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ3">
         <v>2.25</v>
@@ -1586,7 +1595,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1667,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1792,7 +1801,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1998,7 +2007,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2204,7 +2213,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2616,7 +2625,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2900,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ10">
         <v>0.25</v>
@@ -3234,7 +3243,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3440,7 +3449,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3852,7 +3861,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4058,7 +4067,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4264,7 +4273,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4548,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -4676,7 +4685,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4882,7 +4891,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5088,7 +5097,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5294,7 +5303,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5375,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>1.7</v>
@@ -5500,7 +5509,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5706,7 +5715,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5912,7 +5921,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5990,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6118,7 +6127,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6199,7 +6208,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR26">
         <v>1.31</v>
@@ -6324,7 +6333,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6530,7 +6539,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7020,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
         <v>0.25</v>
@@ -7148,7 +7157,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7560,7 +7569,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7972,7 +7981,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8178,7 +8187,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8384,7 +8393,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8590,7 +8599,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -9002,7 +9011,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9414,7 +9423,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9620,7 +9629,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10319,7 +10328,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>1.95</v>
@@ -10444,7 +10453,7 @@
         <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10650,7 +10659,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10856,7 +10865,7 @@
         <v>91</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11062,7 +11071,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11474,7 +11483,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11555,7 +11564,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ52">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR52">
         <v>1.29</v>
@@ -11680,7 +11689,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11886,7 +11895,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>4.75</v>
@@ -12298,7 +12307,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>1.8</v>
@@ -12504,7 +12513,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12710,7 +12719,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12994,7 +13003,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ59">
         <v>0.25</v>
@@ -13122,7 +13131,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13328,7 +13337,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>3.55</v>
@@ -13612,10 +13621,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>2.13</v>
@@ -13740,7 +13749,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13946,7 +13955,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>2.6</v>
@@ -14152,7 +14161,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>4.33</v>
@@ -14233,7 +14242,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -14358,7 +14367,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14564,7 +14573,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14770,7 +14779,7 @@
         <v>91</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>3.4</v>
@@ -14927,6 +14936,418 @@
       </c>
       <c r="BP68">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7785243</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45805.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>91</v>
+      </c>
+      <c r="P69" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q69">
+        <v>3.75</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>2.88</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3</v>
+      </c>
+      <c r="W69">
+        <v>1.36</v>
+      </c>
+      <c r="X69">
+        <v>9</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>2.72</v>
+      </c>
+      <c r="AA69">
+        <v>3.26</v>
+      </c>
+      <c r="AB69">
+        <v>2.25</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>8.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.33</v>
+      </c>
+      <c r="AF69">
+        <v>3.25</v>
+      </c>
+      <c r="AG69">
+        <v>1.86</v>
+      </c>
+      <c r="AH69">
+        <v>1.84</v>
+      </c>
+      <c r="AI69">
+        <v>1.91</v>
+      </c>
+      <c r="AJ69">
+        <v>1.91</v>
+      </c>
+      <c r="AK69">
+        <v>1.6</v>
+      </c>
+      <c r="AL69">
+        <v>1.32</v>
+      </c>
+      <c r="AM69">
+        <v>1.35</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>1.75</v>
+      </c>
+      <c r="AP69">
+        <v>2.4</v>
+      </c>
+      <c r="AQ69">
+        <v>2</v>
+      </c>
+      <c r="AR69">
+        <v>1.11</v>
+      </c>
+      <c r="AS69">
+        <v>1.21</v>
+      </c>
+      <c r="AT69">
+        <v>2.32</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>7</v>
+      </c>
+      <c r="AW69">
+        <v>6</v>
+      </c>
+      <c r="AX69">
+        <v>4</v>
+      </c>
+      <c r="AY69">
+        <v>13</v>
+      </c>
+      <c r="AZ69">
+        <v>11</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>6</v>
+      </c>
+      <c r="BC69">
+        <v>11</v>
+      </c>
+      <c r="BD69">
+        <v>2.31</v>
+      </c>
+      <c r="BE69">
+        <v>6.55</v>
+      </c>
+      <c r="BF69">
+        <v>1.97</v>
+      </c>
+      <c r="BG69">
+        <v>1.21</v>
+      </c>
+      <c r="BH69">
+        <v>3.58</v>
+      </c>
+      <c r="BI69">
+        <v>1.41</v>
+      </c>
+      <c r="BJ69">
+        <v>2.6</v>
+      </c>
+      <c r="BK69">
+        <v>1.77</v>
+      </c>
+      <c r="BL69">
+        <v>1.95</v>
+      </c>
+      <c r="BM69">
+        <v>2.19</v>
+      </c>
+      <c r="BN69">
+        <v>1.57</v>
+      </c>
+      <c r="BO69">
+        <v>2.88</v>
+      </c>
+      <c r="BP69">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7785244</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45805.66666666666</v>
+      </c>
+      <c r="F70">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>6</v>
+      </c>
+      <c r="O70" t="s">
+        <v>134</v>
+      </c>
+      <c r="P70" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q70">
+        <v>1.95</v>
+      </c>
+      <c r="R70">
+        <v>2.75</v>
+      </c>
+      <c r="S70">
+        <v>5</v>
+      </c>
+      <c r="T70">
+        <v>1.2</v>
+      </c>
+      <c r="U70">
+        <v>4.33</v>
+      </c>
+      <c r="V70">
+        <v>2</v>
+      </c>
+      <c r="W70">
+        <v>1.73</v>
+      </c>
+      <c r="X70">
+        <v>4.33</v>
+      </c>
+      <c r="Y70">
+        <v>1.2</v>
+      </c>
+      <c r="Z70">
+        <v>1.27</v>
+      </c>
+      <c r="AA70">
+        <v>5.3</v>
+      </c>
+      <c r="AB70">
+        <v>7.2</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>17</v>
+      </c>
+      <c r="AE70">
+        <v>1.11</v>
+      </c>
+      <c r="AF70">
+        <v>6.25</v>
+      </c>
+      <c r="AG70">
+        <v>1.36</v>
+      </c>
+      <c r="AH70">
+        <v>2.99</v>
+      </c>
+      <c r="AI70">
+        <v>1.5</v>
+      </c>
+      <c r="AJ70">
+        <v>2.5</v>
+      </c>
+      <c r="AK70">
+        <v>1.17</v>
+      </c>
+      <c r="AL70">
+        <v>1.19</v>
+      </c>
+      <c r="AM70">
+        <v>2.37</v>
+      </c>
+      <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
+        <v>2.25</v>
+      </c>
+      <c r="AP70">
+        <v>2.25</v>
+      </c>
+      <c r="AQ70">
+        <v>2.4</v>
+      </c>
+      <c r="AR70">
+        <v>2.02</v>
+      </c>
+      <c r="AS70">
+        <v>1.86</v>
+      </c>
+      <c r="AT70">
+        <v>3.88</v>
+      </c>
+      <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>8</v>
+      </c>
+      <c r="AW70">
+        <v>7</v>
+      </c>
+      <c r="AX70">
+        <v>10</v>
+      </c>
+      <c r="AY70">
+        <v>15</v>
+      </c>
+      <c r="AZ70">
+        <v>18</v>
+      </c>
+      <c r="BA70">
+        <v>4</v>
+      </c>
+      <c r="BB70">
+        <v>3</v>
+      </c>
+      <c r="BC70">
+        <v>7</v>
+      </c>
+      <c r="BD70">
+        <v>1.53</v>
+      </c>
+      <c r="BE70">
+        <v>9.6</v>
+      </c>
+      <c r="BF70">
+        <v>2.98</v>
+      </c>
+      <c r="BG70">
+        <v>1.08</v>
+      </c>
+      <c r="BH70">
+        <v>5.45</v>
+      </c>
+      <c r="BI70">
+        <v>1.2</v>
+      </c>
+      <c r="BJ70">
+        <v>3.68</v>
+      </c>
+      <c r="BK70">
+        <v>1.4</v>
+      </c>
+      <c r="BL70">
+        <v>2.64</v>
+      </c>
+      <c r="BM70">
+        <v>1.77</v>
+      </c>
+      <c r="BN70">
+        <v>1.95</v>
+      </c>
+      <c r="BO70">
+        <v>2.09</v>
+      </c>
+      <c r="BP70">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>['28', '73', '83', '90+1']</t>
+  </si>
+  <si>
+    <t>['11', '48', '72']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3321,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3736,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4969,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -6826,7 +6829,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7235,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -10325,7 +10328,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>2</v>
@@ -10534,7 +10537,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.44</v>
@@ -12797,7 +12800,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -13830,7 +13833,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.3</v>
@@ -15348,6 +15351,212 @@
       </c>
       <c r="BP70">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7785245</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45806.54166666666</v>
+      </c>
+      <c r="F71">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>91</v>
+      </c>
+      <c r="P71" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q71">
+        <v>2.4</v>
+      </c>
+      <c r="R71">
+        <v>2.38</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1.3</v>
+      </c>
+      <c r="U71">
+        <v>3.4</v>
+      </c>
+      <c r="V71">
+        <v>2.38</v>
+      </c>
+      <c r="W71">
+        <v>1.53</v>
+      </c>
+      <c r="X71">
+        <v>6</v>
+      </c>
+      <c r="Y71">
+        <v>1.13</v>
+      </c>
+      <c r="Z71">
+        <v>1.85</v>
+      </c>
+      <c r="AA71">
+        <v>3.58</v>
+      </c>
+      <c r="AB71">
+        <v>3.35</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.2</v>
+      </c>
+      <c r="AF71">
+        <v>4.33</v>
+      </c>
+      <c r="AG71">
+        <v>1.6</v>
+      </c>
+      <c r="AH71">
+        <v>2.1</v>
+      </c>
+      <c r="AI71">
+        <v>1.62</v>
+      </c>
+      <c r="AJ71">
+        <v>2.2</v>
+      </c>
+      <c r="AK71">
+        <v>1.3</v>
+      </c>
+      <c r="AL71">
+        <v>1.26</v>
+      </c>
+      <c r="AM71">
+        <v>1.78</v>
+      </c>
+      <c r="AN71">
+        <v>2.2</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1.83</v>
+      </c>
+      <c r="AQ71">
+        <v>1.4</v>
+      </c>
+      <c r="AR71">
+        <v>1.99</v>
+      </c>
+      <c r="AS71">
+        <v>1.51</v>
+      </c>
+      <c r="AT71">
+        <v>3.5</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>4</v>
+      </c>
+      <c r="AW71">
+        <v>12</v>
+      </c>
+      <c r="AX71">
+        <v>1</v>
+      </c>
+      <c r="AY71">
+        <v>25</v>
+      </c>
+      <c r="AZ71">
+        <v>6</v>
+      </c>
+      <c r="BA71">
+        <v>9</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>9</v>
+      </c>
+      <c r="BD71">
+        <v>1.56</v>
+      </c>
+      <c r="BE71">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF71">
+        <v>2.9</v>
+      </c>
+      <c r="BG71">
+        <v>1.13</v>
+      </c>
+      <c r="BH71">
+        <v>4.55</v>
+      </c>
+      <c r="BI71">
+        <v>1.28</v>
+      </c>
+      <c r="BJ71">
+        <v>3.08</v>
+      </c>
+      <c r="BK71">
+        <v>1.52</v>
+      </c>
+      <c r="BL71">
+        <v>2.3</v>
+      </c>
+      <c r="BM71">
+        <v>1.91</v>
+      </c>
+      <c r="BN71">
+        <v>1.8</v>
+      </c>
+      <c r="BO71">
+        <v>2.42</v>
+      </c>
+      <c r="BP71">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,9 @@
     <t>['25', '44']</t>
   </si>
   <si>
+    <t>['52', '68']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -566,6 +569,12 @@
   </si>
   <si>
     <t>['11', '48', '72']</t>
+  </si>
+  <si>
+    <t>['7', '71', '73']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1195,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1598,7 +1607,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1804,7 +1813,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2010,7 +2019,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2216,7 +2225,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2500,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2628,7 +2637,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2915,7 +2924,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ10">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3246,7 +3255,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3452,7 +3461,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3533,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3864,7 +3873,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4070,7 +4079,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4276,7 +4285,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4563,7 +4572,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
         <v>0.92</v>
@@ -4688,7 +4697,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4894,7 +4903,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5100,7 +5109,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5178,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>1.67</v>
@@ -5306,7 +5315,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5512,7 +5521,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5718,7 +5727,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5924,7 +5933,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6130,7 +6139,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6336,7 +6345,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6542,7 +6551,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7160,7 +7169,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7572,7 +7581,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7653,7 +7662,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ33">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>1.87</v>
@@ -7859,7 +7868,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>2.49</v>
@@ -7984,7 +7993,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8190,7 +8199,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8396,7 +8405,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8602,7 +8611,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -9014,7 +9023,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9426,7 +9435,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9504,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9632,7 +9641,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10456,7 +10465,7 @@
         <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10662,7 +10671,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10868,7 +10877,7 @@
         <v>91</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11074,7 +11083,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11155,7 +11164,7 @@
         <v>3</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR50">
         <v>2.16</v>
@@ -11361,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11486,7 +11495,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11692,7 +11701,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11898,7 +11907,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>4.75</v>
@@ -11976,7 +11985,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12310,7 +12319,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>1.8</v>
@@ -12516,7 +12525,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12722,7 +12731,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13134,7 +13143,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13215,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>2.1</v>
@@ -13340,7 +13349,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>3.55</v>
@@ -13752,7 +13761,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13958,7 +13967,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>2.6</v>
@@ -14164,7 +14173,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>4.33</v>
@@ -14370,7 +14379,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14576,7 +14585,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14782,7 +14791,7 @@
         <v>91</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>3.4</v>
@@ -14863,7 +14872,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.1</v>
@@ -14988,7 +14997,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15194,7 +15203,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>1.95</v>
@@ -15400,7 +15409,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15557,6 +15566,418 @@
       </c>
       <c r="BP71">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7785246</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45808.45833333334</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>91</v>
+      </c>
+      <c r="P72" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72">
+        <v>2.1</v>
+      </c>
+      <c r="R72">
+        <v>2.35</v>
+      </c>
+      <c r="S72">
+        <v>4.5</v>
+      </c>
+      <c r="T72">
+        <v>1.3</v>
+      </c>
+      <c r="U72">
+        <v>3.2</v>
+      </c>
+      <c r="V72">
+        <v>2.38</v>
+      </c>
+      <c r="W72">
+        <v>1.53</v>
+      </c>
+      <c r="X72">
+        <v>5.25</v>
+      </c>
+      <c r="Y72">
+        <v>1.09</v>
+      </c>
+      <c r="Z72">
+        <v>1.57</v>
+      </c>
+      <c r="AA72">
+        <v>3.93</v>
+      </c>
+      <c r="AB72">
+        <v>4.4</v>
+      </c>
+      <c r="AC72">
+        <v>1.04</v>
+      </c>
+      <c r="AD72">
+        <v>10</v>
+      </c>
+      <c r="AE72">
+        <v>1.2</v>
+      </c>
+      <c r="AF72">
+        <v>4.33</v>
+      </c>
+      <c r="AG72">
+        <v>1.61</v>
+      </c>
+      <c r="AH72">
+        <v>2.1</v>
+      </c>
+      <c r="AI72">
+        <v>1.65</v>
+      </c>
+      <c r="AJ72">
+        <v>2.05</v>
+      </c>
+      <c r="AK72">
+        <v>1.18</v>
+      </c>
+      <c r="AL72">
+        <v>1.2</v>
+      </c>
+      <c r="AM72">
+        <v>2.15</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0.25</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0.8</v>
+      </c>
+      <c r="AR72">
+        <v>1.63</v>
+      </c>
+      <c r="AS72">
+        <v>1.13</v>
+      </c>
+      <c r="AT72">
+        <v>2.76</v>
+      </c>
+      <c r="AU72">
+        <v>5</v>
+      </c>
+      <c r="AV72">
+        <v>8</v>
+      </c>
+      <c r="AW72">
+        <v>12</v>
+      </c>
+      <c r="AX72">
+        <v>9</v>
+      </c>
+      <c r="AY72">
+        <v>17</v>
+      </c>
+      <c r="AZ72">
+        <v>20</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>9</v>
+      </c>
+      <c r="BD72">
+        <v>1.47</v>
+      </c>
+      <c r="BE72">
+        <v>7.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.95</v>
+      </c>
+      <c r="BG72">
+        <v>1.08</v>
+      </c>
+      <c r="BH72">
+        <v>5.8</v>
+      </c>
+      <c r="BI72">
+        <v>1.17</v>
+      </c>
+      <c r="BJ72">
+        <v>4.3</v>
+      </c>
+      <c r="BK72">
+        <v>1.29</v>
+      </c>
+      <c r="BL72">
+        <v>3.15</v>
+      </c>
+      <c r="BM72">
+        <v>1.49</v>
+      </c>
+      <c r="BN72">
+        <v>2.43</v>
+      </c>
+      <c r="BO72">
+        <v>1.74</v>
+      </c>
+      <c r="BP72">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7785247</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45808.57291666666</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>135</v>
+      </c>
+      <c r="P73" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q73">
+        <v>2.6</v>
+      </c>
+      <c r="R73">
+        <v>2.2</v>
+      </c>
+      <c r="S73">
+        <v>3.6</v>
+      </c>
+      <c r="T73">
+        <v>1.33</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73">
+        <v>2.55</v>
+      </c>
+      <c r="W73">
+        <v>1.45</v>
+      </c>
+      <c r="X73">
+        <v>6.3</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>1.98</v>
+      </c>
+      <c r="AA73">
+        <v>3.47</v>
+      </c>
+      <c r="AB73">
+        <v>3.05</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.25</v>
+      </c>
+      <c r="AF73">
+        <v>3.95</v>
+      </c>
+      <c r="AG73">
+        <v>1.68</v>
+      </c>
+      <c r="AH73">
+        <v>2.05</v>
+      </c>
+      <c r="AI73">
+        <v>1.62</v>
+      </c>
+      <c r="AJ73">
+        <v>2.1</v>
+      </c>
+      <c r="AK73">
+        <v>1.3</v>
+      </c>
+      <c r="AL73">
+        <v>1.22</v>
+      </c>
+      <c r="AM73">
+        <v>1.77</v>
+      </c>
+      <c r="AN73">
+        <v>1.5</v>
+      </c>
+      <c r="AO73">
+        <v>1.4</v>
+      </c>
+      <c r="AP73">
+        <v>1.8</v>
+      </c>
+      <c r="AQ73">
+        <v>1.17</v>
+      </c>
+      <c r="AR73">
+        <v>1.54</v>
+      </c>
+      <c r="AS73">
+        <v>1.18</v>
+      </c>
+      <c r="AT73">
+        <v>2.72</v>
+      </c>
+      <c r="AU73">
+        <v>5</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>12</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>18</v>
+      </c>
+      <c r="AZ73">
+        <v>13</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>7</v>
+      </c>
+      <c r="BC73">
+        <v>12</v>
+      </c>
+      <c r="BD73">
+        <v>1.73</v>
+      </c>
+      <c r="BE73">
+        <v>6.75</v>
+      </c>
+      <c r="BF73">
+        <v>2.33</v>
+      </c>
+      <c r="BG73">
+        <v>1.24</v>
+      </c>
+      <c r="BH73">
+        <v>3.55</v>
+      </c>
+      <c r="BI73">
+        <v>1.43</v>
+      </c>
+      <c r="BJ73">
+        <v>2.55</v>
+      </c>
+      <c r="BK73">
+        <v>1.7</v>
+      </c>
+      <c r="BL73">
+        <v>2.02</v>
+      </c>
+      <c r="BM73">
+        <v>2.08</v>
+      </c>
+      <c r="BN73">
+        <v>1.65</v>
+      </c>
+      <c r="BO73">
+        <v>2.65</v>
+      </c>
+      <c r="BP73">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['90+11']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ3">
         <v>2.25</v>
@@ -2306,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -4569,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
         <v>1.17</v>
@@ -6011,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6426,7 +6429,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -9310,7 +9313,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR41">
         <v>2.65</v>
@@ -12812,7 +12815,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.94</v>
@@ -13015,7 +13018,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ59">
         <v>0.25</v>
@@ -15075,7 +15078,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ69">
         <v>2</v>
@@ -15978,6 +15981,212 @@
       </c>
       <c r="BP73">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7785248</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45809.39583333334</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>124</v>
+      </c>
+      <c r="P74" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q74">
+        <v>2.5</v>
+      </c>
+      <c r="R74">
+        <v>2.2</v>
+      </c>
+      <c r="S74">
+        <v>3.75</v>
+      </c>
+      <c r="T74">
+        <v>1.33</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>2.45</v>
+      </c>
+      <c r="W74">
+        <v>1.48</v>
+      </c>
+      <c r="X74">
+        <v>5.85</v>
+      </c>
+      <c r="Y74">
+        <v>1.07</v>
+      </c>
+      <c r="Z74">
+        <v>1.93</v>
+      </c>
+      <c r="AA74">
+        <v>3.45</v>
+      </c>
+      <c r="AB74">
+        <v>3.21</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>10</v>
+      </c>
+      <c r="AE74">
+        <v>1.25</v>
+      </c>
+      <c r="AF74">
+        <v>3.95</v>
+      </c>
+      <c r="AG74">
+        <v>1.72</v>
+      </c>
+      <c r="AH74">
+        <v>2</v>
+      </c>
+      <c r="AI74">
+        <v>1.6</v>
+      </c>
+      <c r="AJ74">
+        <v>2.15</v>
+      </c>
+      <c r="AK74">
+        <v>1.3</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>1.77</v>
+      </c>
+      <c r="AN74">
+        <v>2.4</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>2.17</v>
+      </c>
+      <c r="AQ74">
+        <v>1.8</v>
+      </c>
+      <c r="AR74">
+        <v>1.15</v>
+      </c>
+      <c r="AS74">
+        <v>1.66</v>
+      </c>
+      <c r="AT74">
+        <v>2.81</v>
+      </c>
+      <c r="AU74">
+        <v>8</v>
+      </c>
+      <c r="AV74">
+        <v>9</v>
+      </c>
+      <c r="AW74">
+        <v>6</v>
+      </c>
+      <c r="AX74">
+        <v>12</v>
+      </c>
+      <c r="AY74">
+        <v>14</v>
+      </c>
+      <c r="AZ74">
+        <v>23</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>9</v>
+      </c>
+      <c r="BC74">
+        <v>15</v>
+      </c>
+      <c r="BD74">
+        <v>1.65</v>
+      </c>
+      <c r="BE74">
+        <v>6.75</v>
+      </c>
+      <c r="BF74">
+        <v>2.45</v>
+      </c>
+      <c r="BG74">
+        <v>1.24</v>
+      </c>
+      <c r="BH74">
+        <v>3.55</v>
+      </c>
+      <c r="BI74">
+        <v>1.42</v>
+      </c>
+      <c r="BJ74">
+        <v>2.63</v>
+      </c>
+      <c r="BK74">
+        <v>1.68</v>
+      </c>
+      <c r="BL74">
+        <v>2.05</v>
+      </c>
+      <c r="BM74">
+        <v>2.07</v>
+      </c>
+      <c r="BN74">
+        <v>1.67</v>
+      </c>
+      <c r="BO74">
+        <v>2.63</v>
+      </c>
+      <c r="BP74">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,15 @@
     <t>['52', '68']</t>
   </si>
   <si>
+    <t>['4', '14', '22', '41']</t>
+  </si>
+  <si>
+    <t>['24', '45+1', '72']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['39', '49']</t>
   </si>
   <si>
@@ -547,9 +556,6 @@
     <t>['26', '33', '88']</t>
   </si>
   <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -578,6 +584,18 @@
   </si>
   <si>
     <t>['90+11']</t>
+  </si>
+  <si>
+    <t>['30', '40']</t>
+  </si>
+  <si>
+    <t>['68', '90+2']</t>
+  </si>
+  <si>
+    <t>['7', '50', '67', '86']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1216,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1610,7 +1628,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1816,7 +1834,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1897,7 +1915,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2022,7 +2040,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2103,7 +2121,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2228,7 +2246,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>1.91</v>
@@ -2640,7 +2658,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2718,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3130,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3258,7 +3276,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3336,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3464,7 +3482,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3876,7 +3894,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -3954,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4082,7 +4100,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4288,7 +4306,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4369,7 +4387,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4700,7 +4718,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>1.91</v>
@@ -4781,7 +4799,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>2.02</v>
@@ -4906,7 +4924,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -4984,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5112,7 +5130,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5193,7 +5211,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
         <v>1.94</v>
@@ -5318,7 +5336,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5524,7 +5542,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5730,7 +5748,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5808,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -5936,7 +5954,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6017,7 +6035,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>1.21</v>
@@ -6142,7 +6160,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>3.75</v>
@@ -6348,7 +6366,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6554,7 +6572,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6635,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -6838,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.4</v>
@@ -7047,7 +7065,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ30">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR30">
         <v>2.59</v>
@@ -7172,7 +7190,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>1.8</v>
@@ -7250,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7456,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7584,7 +7602,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7996,7 +8014,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>2.44</v>
@@ -8202,7 +8220,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8408,7 +8426,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>1.73</v>
@@ -8614,7 +8632,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -8692,10 +8710,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1.75</v>
@@ -8901,7 +8919,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9026,7 +9044,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9438,7 +9456,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9519,7 +9537,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR42">
         <v>1.9</v>
@@ -9644,7 +9662,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -9725,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>1.63</v>
@@ -10134,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -10340,7 +10358,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>2</v>
@@ -10468,7 +10486,7 @@
         <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10546,7 +10564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
         <v>1.4</v>
@@ -10674,7 +10692,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10880,7 +10898,7 @@
         <v>91</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11086,7 +11104,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11498,7 +11516,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11576,7 +11594,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ52">
         <v>2.4</v>
@@ -11704,7 +11722,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11785,7 +11803,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR53">
         <v>2.55</v>
@@ -11910,7 +11928,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>4.75</v>
@@ -11991,7 +12009,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12194,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0</v>
@@ -12322,7 +12340,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>1.8</v>
@@ -12403,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>1.68</v>
@@ -12528,7 +12546,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12734,7 +12752,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12812,7 +12830,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.8</v>
@@ -13021,7 +13039,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ59">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR59">
         <v>1.16</v>
@@ -13146,7 +13164,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13352,7 +13370,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>3.55</v>
@@ -13430,7 +13448,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13764,7 +13782,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13970,7 +13988,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="Q64">
         <v>2.6</v>
@@ -14176,7 +14194,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>4.33</v>
@@ -14382,7 +14400,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14588,7 +14606,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14666,7 +14684,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ67">
         <v>2.25</v>
@@ -14794,7 +14812,7 @@
         <v>91</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>3.4</v>
@@ -15000,7 +15018,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15206,7 +15224,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q70">
         <v>1.95</v>
@@ -15412,7 +15430,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15490,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.4</v>
@@ -15618,7 +15636,7 @@
         <v>91</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15824,7 +15842,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>2.6</v>
@@ -16030,7 +16048,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16187,6 +16205,830 @@
       </c>
       <c r="BP74">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7785249</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>6</v>
+      </c>
+      <c r="O75" t="s">
+        <v>136</v>
+      </c>
+      <c r="P75" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q75">
+        <v>1.65</v>
+      </c>
+      <c r="R75">
+        <v>2.75</v>
+      </c>
+      <c r="S75">
+        <v>6.5</v>
+      </c>
+      <c r="T75">
+        <v>1.22</v>
+      </c>
+      <c r="U75">
+        <v>3.8</v>
+      </c>
+      <c r="V75">
+        <v>2.1</v>
+      </c>
+      <c r="W75">
+        <v>1.65</v>
+      </c>
+      <c r="X75">
+        <v>4.85</v>
+      </c>
+      <c r="Y75">
+        <v>1.11</v>
+      </c>
+      <c r="Z75">
+        <v>1.25</v>
+      </c>
+      <c r="AA75">
+        <v>5.1</v>
+      </c>
+      <c r="AB75">
+        <v>8</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>17</v>
+      </c>
+      <c r="AE75">
+        <v>1.14</v>
+      </c>
+      <c r="AF75">
+        <v>5.5</v>
+      </c>
+      <c r="AG75">
+        <v>1.39</v>
+      </c>
+      <c r="AH75">
+        <v>2.86</v>
+      </c>
+      <c r="AI75">
+        <v>1.77</v>
+      </c>
+      <c r="AJ75">
+        <v>1.9</v>
+      </c>
+      <c r="AK75">
+        <v>1.06</v>
+      </c>
+      <c r="AL75">
+        <v>1.1</v>
+      </c>
+      <c r="AM75">
+        <v>3.4</v>
+      </c>
+      <c r="AN75">
+        <v>1.83</v>
+      </c>
+      <c r="AO75">
+        <v>1.67</v>
+      </c>
+      <c r="AP75">
+        <v>2</v>
+      </c>
+      <c r="AQ75">
+        <v>1.43</v>
+      </c>
+      <c r="AR75">
+        <v>2.04</v>
+      </c>
+      <c r="AS75">
+        <v>1.18</v>
+      </c>
+      <c r="AT75">
+        <v>3.22</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>5</v>
+      </c>
+      <c r="AW75">
+        <v>3</v>
+      </c>
+      <c r="AX75">
+        <v>7</v>
+      </c>
+      <c r="AY75">
+        <v>13</v>
+      </c>
+      <c r="AZ75">
+        <v>14</v>
+      </c>
+      <c r="BA75">
+        <v>2</v>
+      </c>
+      <c r="BB75">
+        <v>9</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>1.21</v>
+      </c>
+      <c r="BE75">
+        <v>9</v>
+      </c>
+      <c r="BF75">
+        <v>4.6</v>
+      </c>
+      <c r="BG75">
+        <v>1.14</v>
+      </c>
+      <c r="BH75">
+        <v>4.8</v>
+      </c>
+      <c r="BI75">
+        <v>1.26</v>
+      </c>
+      <c r="BJ75">
+        <v>3.4</v>
+      </c>
+      <c r="BK75">
+        <v>1.44</v>
+      </c>
+      <c r="BL75">
+        <v>2.55</v>
+      </c>
+      <c r="BM75">
+        <v>1.68</v>
+      </c>
+      <c r="BN75">
+        <v>2.05</v>
+      </c>
+      <c r="BO75">
+        <v>2.02</v>
+      </c>
+      <c r="BP75">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7785250</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="O76" t="s">
+        <v>137</v>
+      </c>
+      <c r="P76" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q76">
+        <v>3.1</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>3.2</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>6.65</v>
+      </c>
+      <c r="Y76">
+        <v>1.05</v>
+      </c>
+      <c r="Z76">
+        <v>2.51</v>
+      </c>
+      <c r="AA76">
+        <v>3.13</v>
+      </c>
+      <c r="AB76">
+        <v>2.49</v>
+      </c>
+      <c r="AC76">
+        <v>1.06</v>
+      </c>
+      <c r="AD76">
+        <v>8.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.3</v>
+      </c>
+      <c r="AF76">
+        <v>3.4</v>
+      </c>
+      <c r="AG76">
+        <v>1.87</v>
+      </c>
+      <c r="AH76">
+        <v>1.83</v>
+      </c>
+      <c r="AI76">
+        <v>1.67</v>
+      </c>
+      <c r="AJ76">
+        <v>2.05</v>
+      </c>
+      <c r="AK76">
+        <v>1.48</v>
+      </c>
+      <c r="AL76">
+        <v>1.25</v>
+      </c>
+      <c r="AM76">
+        <v>1.48</v>
+      </c>
+      <c r="AN76">
+        <v>1.5</v>
+      </c>
+      <c r="AO76">
+        <v>0.75</v>
+      </c>
+      <c r="AP76">
+        <v>1.8</v>
+      </c>
+      <c r="AQ76">
+        <v>0.6</v>
+      </c>
+      <c r="AR76">
+        <v>1.53</v>
+      </c>
+      <c r="AS76">
+        <v>1.68</v>
+      </c>
+      <c r="AT76">
+        <v>3.21</v>
+      </c>
+      <c r="AU76">
+        <v>7</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>7</v>
+      </c>
+      <c r="AX76">
+        <v>10</v>
+      </c>
+      <c r="AY76">
+        <v>17</v>
+      </c>
+      <c r="AZ76">
+        <v>14</v>
+      </c>
+      <c r="BA76">
+        <v>5</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>7</v>
+      </c>
+      <c r="BD76">
+        <v>1.92</v>
+      </c>
+      <c r="BE76">
+        <v>6.75</v>
+      </c>
+      <c r="BF76">
+        <v>2.05</v>
+      </c>
+      <c r="BG76">
+        <v>1.22</v>
+      </c>
+      <c r="BH76">
+        <v>3.8</v>
+      </c>
+      <c r="BI76">
+        <v>1.38</v>
+      </c>
+      <c r="BJ76">
+        <v>2.7</v>
+      </c>
+      <c r="BK76">
+        <v>1.64</v>
+      </c>
+      <c r="BL76">
+        <v>2.12</v>
+      </c>
+      <c r="BM76">
+        <v>1.98</v>
+      </c>
+      <c r="BN76">
+        <v>1.74</v>
+      </c>
+      <c r="BO76">
+        <v>2.48</v>
+      </c>
+      <c r="BP76">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7785251</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>91</v>
+      </c>
+      <c r="P77" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q77">
+        <v>9</v>
+      </c>
+      <c r="R77">
+        <v>2.88</v>
+      </c>
+      <c r="S77">
+        <v>1.62</v>
+      </c>
+      <c r="T77">
+        <v>1.22</v>
+      </c>
+      <c r="U77">
+        <v>4</v>
+      </c>
+      <c r="V77">
+        <v>2</v>
+      </c>
+      <c r="W77">
+        <v>1.73</v>
+      </c>
+      <c r="X77">
+        <v>4.33</v>
+      </c>
+      <c r="Y77">
+        <v>1.2</v>
+      </c>
+      <c r="Z77">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AA77">
+        <v>5.1</v>
+      </c>
+      <c r="AB77">
+        <v>1.22</v>
+      </c>
+      <c r="AC77">
+        <v>1.02</v>
+      </c>
+      <c r="AD77">
+        <v>21</v>
+      </c>
+      <c r="AE77">
+        <v>1.12</v>
+      </c>
+      <c r="AF77">
+        <v>5.75</v>
+      </c>
+      <c r="AG77">
+        <v>1.38</v>
+      </c>
+      <c r="AH77">
+        <v>2.9</v>
+      </c>
+      <c r="AI77">
+        <v>1.91</v>
+      </c>
+      <c r="AJ77">
+        <v>1.91</v>
+      </c>
+      <c r="AK77">
+        <v>3.8</v>
+      </c>
+      <c r="AL77">
+        <v>1.11</v>
+      </c>
+      <c r="AM77">
+        <v>1.05</v>
+      </c>
+      <c r="AN77">
+        <v>0.25</v>
+      </c>
+      <c r="AO77">
+        <v>1.33</v>
+      </c>
+      <c r="AP77">
+        <v>0.2</v>
+      </c>
+      <c r="AQ77">
+        <v>1.75</v>
+      </c>
+      <c r="AR77">
+        <v>1.3</v>
+      </c>
+      <c r="AS77">
+        <v>1.47</v>
+      </c>
+      <c r="AT77">
+        <v>2.77</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>8</v>
+      </c>
+      <c r="AW77">
+        <v>9</v>
+      </c>
+      <c r="AX77">
+        <v>9</v>
+      </c>
+      <c r="AY77">
+        <v>15</v>
+      </c>
+      <c r="AZ77">
+        <v>19</v>
+      </c>
+      <c r="BA77">
+        <v>3</v>
+      </c>
+      <c r="BB77">
+        <v>9</v>
+      </c>
+      <c r="BC77">
+        <v>12</v>
+      </c>
+      <c r="BD77">
+        <v>5.1</v>
+      </c>
+      <c r="BE77">
+        <v>9</v>
+      </c>
+      <c r="BF77">
+        <v>1.18</v>
+      </c>
+      <c r="BG77">
+        <v>1.2</v>
+      </c>
+      <c r="BH77">
+        <v>3.95</v>
+      </c>
+      <c r="BI77">
+        <v>1.35</v>
+      </c>
+      <c r="BJ77">
+        <v>2.9</v>
+      </c>
+      <c r="BK77">
+        <v>1.57</v>
+      </c>
+      <c r="BL77">
+        <v>2.23</v>
+      </c>
+      <c r="BM77">
+        <v>1.9</v>
+      </c>
+      <c r="BN77">
+        <v>1.79</v>
+      </c>
+      <c r="BO77">
+        <v>2.33</v>
+      </c>
+      <c r="BP77">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7785252</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>138</v>
+      </c>
+      <c r="P78" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q78">
+        <v>1.83</v>
+      </c>
+      <c r="R78">
+        <v>2.5</v>
+      </c>
+      <c r="S78">
+        <v>8</v>
+      </c>
+      <c r="T78">
+        <v>1.33</v>
+      </c>
+      <c r="U78">
+        <v>3.25</v>
+      </c>
+      <c r="V78">
+        <v>2.5</v>
+      </c>
+      <c r="W78">
+        <v>1.5</v>
+      </c>
+      <c r="X78">
+        <v>6.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.11</v>
+      </c>
+      <c r="Z78">
+        <v>1.33</v>
+      </c>
+      <c r="AA78">
+        <v>4.4</v>
+      </c>
+      <c r="AB78">
+        <v>7.3</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>10</v>
+      </c>
+      <c r="AE78">
+        <v>1.22</v>
+      </c>
+      <c r="AF78">
+        <v>4.2</v>
+      </c>
+      <c r="AG78">
+        <v>1.77</v>
+      </c>
+      <c r="AH78">
+        <v>1.93</v>
+      </c>
+      <c r="AI78">
+        <v>2.05</v>
+      </c>
+      <c r="AJ78">
+        <v>1.7</v>
+      </c>
+      <c r="AK78">
+        <v>1.07</v>
+      </c>
+      <c r="AL78">
+        <v>1.13</v>
+      </c>
+      <c r="AM78">
+        <v>3</v>
+      </c>
+      <c r="AN78">
+        <v>2.2</v>
+      </c>
+      <c r="AO78">
+        <v>0.25</v>
+      </c>
+      <c r="AP78">
+        <v>2</v>
+      </c>
+      <c r="AQ78">
+        <v>0.4</v>
+      </c>
+      <c r="AR78">
+        <v>2.33</v>
+      </c>
+      <c r="AS78">
+        <v>0.97</v>
+      </c>
+      <c r="AT78">
+        <v>3.3</v>
+      </c>
+      <c r="AU78">
+        <v>2</v>
+      </c>
+      <c r="AV78">
+        <v>7</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>5</v>
+      </c>
+      <c r="AY78">
+        <v>7</v>
+      </c>
+      <c r="AZ78">
+        <v>13</v>
+      </c>
+      <c r="BA78">
+        <v>6</v>
+      </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
+      <c r="BC78">
+        <v>10</v>
+      </c>
+      <c r="BD78">
+        <v>1.27</v>
+      </c>
+      <c r="BE78">
+        <v>7.5</v>
+      </c>
+      <c r="BF78">
+        <v>4.1</v>
+      </c>
+      <c r="BG78">
+        <v>1.4</v>
+      </c>
+      <c r="BH78">
+        <v>2.65</v>
+      </c>
+      <c r="BI78">
+        <v>1.68</v>
+      </c>
+      <c r="BJ78">
+        <v>2.05</v>
+      </c>
+      <c r="BK78">
+        <v>2.07</v>
+      </c>
+      <c r="BL78">
+        <v>1.67</v>
+      </c>
+      <c r="BM78">
+        <v>2.65</v>
+      </c>
+      <c r="BN78">
+        <v>1.42</v>
+      </c>
+      <c r="BO78">
+        <v>3.55</v>
+      </c>
+      <c r="BP78">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1709,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2324,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ7">
         <v>1.8</v>
@@ -6241,7 +6244,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR26">
         <v>1.31</v>
@@ -6650,7 +6653,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -9946,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -11597,7 +11600,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ52">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR52">
         <v>1.29</v>
@@ -12418,7 +12421,7 @@
         <v>1.4</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -14275,7 +14278,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -15305,7 +15308,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ70">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR70">
         <v>2.02</v>
@@ -17029,6 +17032,212 @@
       </c>
       <c r="BP78">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7785253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45809.59375</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>91</v>
+      </c>
+      <c r="P79" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q79">
+        <v>2.62</v>
+      </c>
+      <c r="R79">
+        <v>2.3</v>
+      </c>
+      <c r="S79">
+        <v>3.25</v>
+      </c>
+      <c r="T79">
+        <v>1.25</v>
+      </c>
+      <c r="U79">
+        <v>3.55</v>
+      </c>
+      <c r="V79">
+        <v>2.15</v>
+      </c>
+      <c r="W79">
+        <v>1.62</v>
+      </c>
+      <c r="X79">
+        <v>4.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.13</v>
+      </c>
+      <c r="Z79">
+        <v>1.97</v>
+      </c>
+      <c r="AA79">
+        <v>3.7</v>
+      </c>
+      <c r="AB79">
+        <v>2.92</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>13</v>
+      </c>
+      <c r="AE79">
+        <v>1.17</v>
+      </c>
+      <c r="AF79">
+        <v>5</v>
+      </c>
+      <c r="AG79">
+        <v>1.44</v>
+      </c>
+      <c r="AH79">
+        <v>2.67</v>
+      </c>
+      <c r="AI79">
+        <v>1.42</v>
+      </c>
+      <c r="AJ79">
+        <v>2.6</v>
+      </c>
+      <c r="AK79">
+        <v>1.38</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.67</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>2.4</v>
+      </c>
+      <c r="AP79">
+        <v>0.8</v>
+      </c>
+      <c r="AQ79">
+        <v>2.5</v>
+      </c>
+      <c r="AR79">
+        <v>1.62</v>
+      </c>
+      <c r="AS79">
+        <v>1.89</v>
+      </c>
+      <c r="AT79">
+        <v>3.51</v>
+      </c>
+      <c r="AU79">
+        <v>2</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>9</v>
+      </c>
+      <c r="AX79">
+        <v>9</v>
+      </c>
+      <c r="AY79">
+        <v>13</v>
+      </c>
+      <c r="AZ79">
+        <v>17</v>
+      </c>
+      <c r="BA79">
+        <v>7</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>11</v>
+      </c>
+      <c r="BD79">
+        <v>1.67</v>
+      </c>
+      <c r="BE79">
+        <v>6.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.45</v>
+      </c>
+      <c r="BG79">
+        <v>1.24</v>
+      </c>
+      <c r="BH79">
+        <v>3.55</v>
+      </c>
+      <c r="BI79">
+        <v>1.42</v>
+      </c>
+      <c r="BJ79">
+        <v>2.65</v>
+      </c>
+      <c r="BK79">
+        <v>1.68</v>
+      </c>
+      <c r="BL79">
+        <v>2.05</v>
+      </c>
+      <c r="BM79">
+        <v>2.07</v>
+      </c>
+      <c r="BN79">
+        <v>1.67</v>
+      </c>
+      <c r="BO79">
+        <v>2.55</v>
+      </c>
+      <c r="BP79">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -16368,13 +16368,13 @@
         <v>14</v>
       </c>
       <c r="BA75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB75">
         <v>9</v>
       </c>
       <c r="BC75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD75">
         <v>1.21</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Norway Eliteserien_2025.xlsx
@@ -427,7 +427,7 @@
     <t>['4', '14', '22', '41']</t>
   </si>
   <si>
-    <t>['24', '45+1', '72']</t>
+    <t>['24', '4501', '72']</t>
   </si>
   <si>
     <t>['74']</t>
@@ -568,10 +568,10 @@
     <t>['64']</t>
   </si>
   <si>
-    <t>['24', '90+3']</t>
-  </si>
-  <si>
-    <t>['28', '73', '83', '90+1']</t>
+    <t>['24', '9003']</t>
+  </si>
+  <si>
+    <t>['28', '73', '83', '9001']</t>
   </si>
   <si>
     <t>['11', '48', '72']</t>
@@ -583,13 +583,13 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['90+11']</t>
+    <t>['9011']</t>
   </si>
   <si>
     <t>['30', '40']</t>
   </si>
   <si>
-    <t>['68', '90+2']</t>
+    <t>['68', '9002']</t>
   </si>
   <si>
     <t>['7', '50', '67', '86']</t>
@@ -1324,19 +1324,19 @@
         <v>10</v>
       </c>
       <c r="AY2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA2">
         <v>2</v>
       </c>
       <c r="BB2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD2">
         <v>2.4</v>
@@ -1530,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="AY3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ3">
         <v>3</v>
@@ -1736,19 +1736,19 @@
         <v>8</v>
       </c>
       <c r="AY4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA4">
         <v>8</v>
       </c>
       <c r="BB4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD4">
         <v>1.9</v>
@@ -1945,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="AZ5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA5">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="AY6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ6">
         <v>11</v>
@@ -2566,13 +2566,13 @@
         <v>6</v>
       </c>
       <c r="BA8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB8">
         <v>2</v>
       </c>
       <c r="BC8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD8">
         <v>1.48</v>
@@ -2766,10 +2766,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA9">
         <v>4</v>
@@ -2972,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="AY10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA10">
         <v>6</v>
@@ -3384,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ12">
         <v>4</v>
@@ -3796,10 +3796,10 @@
         <v>12</v>
       </c>
       <c r="AY14">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AZ14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA14">
         <v>1</v>
@@ -4002,10 +4002,10 @@
         <v>14</v>
       </c>
       <c r="AY15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4208,10 +4208,10 @@
         <v>6</v>
       </c>
       <c r="AY16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16">
         <v>8</v>
@@ -4414,10 +4414,10 @@
         <v>4</v>
       </c>
       <c r="AY17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA17">
         <v>5</v>
@@ -4620,10 +4620,10 @@
         <v>5</v>
       </c>
       <c r="AY18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA18">
         <v>6</v>
@@ -4826,10 +4826,10 @@
         <v>10</v>
       </c>
       <c r="AY19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA19">
         <v>11</v>
@@ -5032,10 +5032,10 @@
         <v>7</v>
       </c>
       <c r="AY20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA20">
         <v>9</v>
@@ -5238,10 +5238,10 @@
         <v>3</v>
       </c>
       <c r="AY21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA21">
         <v>9</v>
@@ -5444,19 +5444,19 @@
         <v>7</v>
       </c>
       <c r="AY22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB22">
         <v>5</v>
       </c>
       <c r="BC22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD22">
         <v>2.38</v>
@@ -5650,10 +5650,10 @@
         <v>13</v>
       </c>
       <c r="AY23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ23">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA23">
         <v>10</v>
@@ -5856,10 +5856,10 @@
         <v>6</v>
       </c>
       <c r="AY24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA24">
         <v>0</v>
@@ -6062,10 +6062,10 @@
         <v>16</v>
       </c>
       <c r="AY25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA25">
         <v>1</v>
@@ -6271,7 +6271,7 @@
         <v>10</v>
       </c>
       <c r="AZ26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA26">
         <v>4</v>
@@ -6474,10 +6474,10 @@
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA27">
         <v>2</v>
@@ -6680,10 +6680,10 @@
         <v>8</v>
       </c>
       <c r="AY28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA28">
         <v>4</v>
@@ -6889,7 +6889,7 @@
         <v>13</v>
       </c>
       <c r="AZ29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA29">
         <v>4</v>
@@ -7092,7 +7092,7 @@
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ30">
         <v>6</v>
@@ -7298,19 +7298,19 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ31">
         <v>13</v>
       </c>
       <c r="BA31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB31">
         <v>0</v>
       </c>
       <c r="BC31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD31">
         <v>1.29</v>
@@ -7504,10 +7504,10 @@
         <v>10</v>
       </c>
       <c r="AY32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA32">
         <v>2</v>
@@ -7710,10 +7710,10 @@
         <v>7</v>
       </c>
       <c r="AY33">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -7916,10 +7916,10 @@
         <v>11</v>
       </c>
       <c r="AY34">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA34">
         <v>5</v>
@@ -8122,10 +8122,10 @@
         <v>5</v>
       </c>
       <c r="AY35">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA35">
         <v>7</v>
@@ -8328,10 +8328,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA36">
         <v>11</v>
@@ -8534,10 +8534,10 @@
         <v>5</v>
       </c>
       <c r="AY37">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AZ37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA37">
         <v>14</v>
@@ -8740,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="AY38">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AZ38">
         <v>4</v>
@@ -8749,10 +8749,10 @@
         <v>15</v>
       </c>
       <c r="BB38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD38">
         <v>1.18</v>
@@ -8949,7 +8949,7 @@
         <v>12</v>
       </c>
       <c r="AZ39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA39">
         <v>0</v>
@@ -9152,10 +9152,10 @@
         <v>4</v>
       </c>
       <c r="AY40">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AZ40">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA40">
         <v>4</v>
@@ -9358,19 +9358,19 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB41">
         <v>4</v>
       </c>
       <c r="BC41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD41">
         <v>1.58</v>
@@ -9567,16 +9567,16 @@
         <v>10</v>
       </c>
       <c r="AZ42">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA42">
         <v>3</v>
       </c>
       <c r="BB42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD42">
         <v>1.58</v>
@@ -10182,7 +10182,7 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ45">
         <v>8</v>
@@ -10388,10 +10388,10 @@
         <v>4</v>
       </c>
       <c r="AY46">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA46">
         <v>8</v>
@@ -10594,7 +10594,7 @@
         <v>6</v>
       </c>
       <c r="AY47">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ47">
         <v>13</v>
@@ -11006,10 +11006,10 @@
         <v>6</v>
       </c>
       <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
         <v>10</v>
-      </c>
-      <c r="AZ49">
-        <v>11</v>
       </c>
       <c r="BA49">
         <v>2</v>
@@ -11212,7 +11212,7 @@
         <v>5</v>
       </c>
       <c r="AY50">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
         <v>8</v>
@@ -11418,10 +11418,10 @@
         <v>4</v>
       </c>
       <c r="AY51">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -11624,10 +11624,10 @@
         <v>8</v>
       </c>
       <c r="AY52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ52">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA52">
         <v>3</v>
@@ -11830,10 +11830,10 @@
         <v>8</v>
       </c>
       <c r="AY53">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AZ53">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA53">
         <v>13</v>
@@ -12036,10 +12036,10 @@
         <v>7</v>
       </c>
       <c r="AY54">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ54">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA54">
         <v>4</v>
@@ -12242,10 +12242,10 @@
         <v>5</v>
       </c>
       <c r="AY55">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA55">
         <v>6</v>
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="AY56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ56">
         <v>3</v>
@@ -12860,7 +12860,7 @@
         <v>8</v>
       </c>
       <c r="AY58">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ58">
         <v>17</v>
@@ -13066,10 +13066,10 @@
         <v>6</v>
       </c>
       <c r="AY59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -13272,7 +13272,7 @@
         <v>5</v>
       </c>
       <c r="AY60">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ60">
         <v>8</v>
@@ -13478,10 +13478,10 @@
         <v>7</v>
       </c>
       <c r="AY61">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA61">
         <v>7</v>
@@ -13684,10 +13684,10 @@
         <v>1</v>
       </c>
       <c r="AY62">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA62">
         <v>5</v>
@@ -13890,10 +13890,10 @@
         <v>13</v>
       </c>
       <c r="AY63">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ63">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BA63">
         <v>6</v>
@@ -14096,7 +14096,7 @@
         <v>4</v>
       </c>
       <c r="AY64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ64">
         <v>8</v>
@@ -14508,10 +14508,10 @@
         <v>7</v>
       </c>
       <c r="AY66">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AZ66">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA66">
         <v>4</v>
@@ -14714,10 +14714,10 @@
         <v>11</v>
       </c>
       <c r="AY67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ67">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA67">
         <v>6</v>
@@ -14920,10 +14920,10 @@
         <v>9</v>
       </c>
       <c r="AY68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ68">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA68">
         <v>5</v>
@@ -15114,22 +15114,22 @@
         <v>2.32</v>
       </c>
       <c r="AU69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV69">
         <v>7</v>
       </c>
       <c r="AW69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY69">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ69">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA69">
         <v>5</v>
@@ -15323,19 +15323,19 @@
         <v>8</v>
       </c>
       <c r="AV70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW70">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX70">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AY70">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ70">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA70">
         <v>4</v>
@@ -15526,22 +15526,22 @@
         <v>3.5</v>
       </c>
       <c r="AU71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV71">
         <v>4</v>
       </c>
       <c r="AW71">
+        <v>4</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
         <v>12</v>
       </c>
-      <c r="AX71">
-        <v>1</v>
-      </c>
-      <c r="AY71">
-        <v>25</v>
-      </c>
       <c r="AZ71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA71">
         <v>9</v>
@@ -15732,22 +15732,22 @@
         <v>2.76</v>
       </c>
       <c r="AU72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV72">
         <v>8</v>
       </c>
       <c r="AW72">
+        <v>6</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>13</v>
+      </c>
+      <c r="AZ72">
         <v>12</v>
-      </c>
-      <c r="AX72">
-        <v>9</v>
-      </c>
-      <c r="AY72">
-        <v>17</v>
-      </c>
-      <c r="AZ72">
-        <v>20</v>
       </c>
       <c r="BA72">
         <v>5</v>
@@ -15938,22 +15938,22 @@
         <v>2.72</v>
       </c>
       <c r="AU73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV73">
         <v>5</v>
       </c>
       <c r="AW73">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX73">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY73">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ73">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16135,31 +16135,31 @@
         <v>1.8</v>
       </c>
       <c r="AR74">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AS74">
         <v>1.66</v>
       </c>
       <c r="AT74">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="AU74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV74">
         <v>9</v>
       </c>
       <c r="AW74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX74">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AY74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ74">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="BA74">
         <v>6</v>
@@ -16341,31 +16341,31 @@
         <v>1.43</v>
       </c>
       <c r="AR75">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="AS75">
         <v>1.18</v>
       </c>
       <c r="AT75">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="AU75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV75">
         <v>5</v>
       </c>
       <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
         <v>3</v>
       </c>
-      <c r="AX75">
-        <v>7</v>
-      </c>
       <c r="AY75">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ75">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA75">
         <v>3</v>
@@ -16559,19 +16559,19 @@
         <v>7</v>
       </c>
       <c r="AV76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW76">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY76">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ76">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA76">
         <v>5</v>
@@ -16765,19 +16765,19 @@
         <v>5</v>
       </c>
       <c r="AV77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW77">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ77">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BA77">
         <v>3</v>
@@ -16971,19 +16971,19 @@
         <v>2</v>
       </c>
       <c r="AV78">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX78">
         <v>5</v>
       </c>
       <c r="AY78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA78">
         <v>6</v>
@@ -17168,28 +17168,28 @@
         <v>1.62</v>
       </c>
       <c r="AS79">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="AT79">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="AU79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
         <v>6</v>
       </c>
-      <c r="AW79">
-        <v>9</v>
-      </c>
       <c r="AX79">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY79">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AZ79">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BA79">
         <v>7</v>
